--- a/tests/artifact/script/Mobile-Purchase_SaleOrder.xlsx
+++ b/tests/artifact/script/Mobile-Purchase_SaleOrder.xlsx
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3338" uniqueCount="1166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3408" uniqueCount="1170">
   <si>
     <t>target</t>
   </si>
@@ -3418,8 +3418,20 @@
     <t>${Item.Discount}</t>
   </si>
   <si>
+    <t>Click oprint button from print window</t>
+  </si>
+  <si>
+    <t>windows</t>
+  </si>
+  <si>
+    <t>{TAB}</t>
+  </si>
+  <si>
+    <t>{ENTER}</t>
+  </si>
+  <si>
     <t xml:space="preserve">
-//*[@Name="about:blank - Google Chrome (Incognito)"]/*[@ClassName="Chrome_RenderWidgetHostHWND"]/*[@ControlType="ControlType.Window" and @Name="Print"]/*[@ControlType="ControlType.Button" and @Name="Print"]</t>
+/*[@Name="about:blank - Google Chrome (Incognito)"]/*[@ControlType="ControlType.Window" and @Name="Print"]/*[@ControlType="ControlType.Button" and @Name="Print"]</t>
   </si>
   <si>
     <t>Create Sales Order with Customer Buyer details</t>
@@ -3641,7 +3653,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="40">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3725,6 +3737,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <strike/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color rgb="FF1F1F1F"/>
       <name val="Consolas"/>
@@ -3734,6 +3754,13 @@
       <sz val="9.95"/>
       <color rgb="FF212529"/>
       <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
       <charset val="134"/>
     </font>
     <font>
@@ -4287,135 +4314,135 @@
     <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4623,32 +4650,65 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -7691,7 +7751,7 @@
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B5" sqref="$A5:$XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="15.5" outlineLevelRow="4"/>
@@ -7828,7 +7888,7 @@
       <c r="E5" s="30" t="s">
         <v>747</v>
       </c>
-      <c r="F5" s="74" t="s">
+      <c r="F5" s="83" t="s">
         <v>748</v>
       </c>
       <c r="G5" s="30"/>
@@ -9565,7 +9625,7 @@
       <c r="D62" s="34" t="s">
         <v>253</v>
       </c>
-      <c r="E62" s="65"/>
+      <c r="E62" s="66"/>
       <c r="F62" s="34"/>
       <c r="G62" s="34"/>
       <c r="H62" s="34"/>
@@ -11292,7 +11352,7 @@
       <c r="E130" s="34" t="s">
         <v>1031</v>
       </c>
-      <c r="F130" s="66" t="s">
+      <c r="F130" s="67" t="s">
         <v>1032</v>
       </c>
       <c r="G130" s="34"/>
@@ -11319,7 +11379,7 @@
       <c r="E131" s="34" t="s">
         <v>1034</v>
       </c>
-      <c r="F131" s="67" t="s">
+      <c r="F131" s="68" t="s">
         <v>1035</v>
       </c>
       <c r="G131" s="34"/>
@@ -11373,7 +11433,7 @@
       <c r="E133" s="34" t="s">
         <v>1040</v>
       </c>
-      <c r="F133" s="67" t="s">
+      <c r="F133" s="68" t="s">
         <v>1041</v>
       </c>
       <c r="G133" s="34"/>
@@ -11413,7 +11473,7 @@
       <c r="N134" s="59"/>
       <c r="O134" s="49"/>
     </row>
-    <row r="135" customFormat="1" spans="1:15">
+    <row r="135" customFormat="1" ht="15.5" spans="1:15">
       <c r="A135" s="37"/>
       <c r="B135" s="40" t="s">
         <v>1045</v>
@@ -11451,7 +11511,7 @@
       <c r="D136" s="34" t="s">
         <v>486</v>
       </c>
-      <c r="E136" s="68" t="s">
+      <c r="E136" s="69" t="s">
         <v>1049</v>
       </c>
       <c r="F136" s="34" t="s">
@@ -11481,7 +11541,7 @@
       <c r="D137" s="34" t="s">
         <v>576</v>
       </c>
-      <c r="E137" s="65" t="s">
+      <c r="E137" s="66" t="s">
         <v>1054</v>
       </c>
       <c r="F137" s="34" t="s">
@@ -11497,7 +11557,7 @@
       <c r="N137" s="59"/>
       <c r="O137" s="49"/>
     </row>
-    <row r="138" s="63" customFormat="1" ht="31" spans="1:15">
+    <row r="138" s="64" customFormat="1" ht="31" spans="1:15">
       <c r="A138" s="22"/>
       <c r="B138" s="23" t="s">
         <v>1055</v>
@@ -11508,10 +11568,10 @@
       <c r="D138" s="30" t="s">
         <v>482</v>
       </c>
-      <c r="E138" s="69" t="s">
+      <c r="E138" s="74" t="s">
         <v>1056</v>
       </c>
-      <c r="F138" s="69"/>
+      <c r="F138" s="74"/>
       <c r="G138" s="47"/>
       <c r="H138" s="30"/>
       <c r="I138" s="30"/>
@@ -11522,7 +11582,7 @@
       <c r="N138" s="26"/>
       <c r="O138" s="25"/>
     </row>
-    <row r="139" s="63" customFormat="1" ht="36" customHeight="1" spans="1:15">
+    <row r="139" s="64" customFormat="1" ht="36" customHeight="1" spans="1:15">
       <c r="A139" s="22"/>
       <c r="B139" s="23" t="s">
         <v>1057</v>
@@ -11533,10 +11593,10 @@
       <c r="D139" s="30" t="s">
         <v>655</v>
       </c>
-      <c r="E139" s="63" t="s">
+      <c r="E139" s="64" t="s">
         <v>1058</v>
       </c>
-      <c r="F139" s="70" t="s">
+      <c r="F139" s="75" t="s">
         <v>1059</v>
       </c>
       <c r="G139" s="47"/>
@@ -11549,7 +11609,7 @@
       <c r="N139" s="26"/>
       <c r="O139" s="25"/>
     </row>
-    <row r="140" s="63" customFormat="1" ht="31" spans="1:15">
+    <row r="140" s="64" customFormat="1" ht="31" spans="1:15">
       <c r="A140" s="22"/>
       <c r="B140" s="23" t="s">
         <v>1060</v>
@@ -11560,10 +11620,10 @@
       <c r="D140" s="30" t="s">
         <v>655</v>
       </c>
-      <c r="E140" s="69" t="s">
+      <c r="E140" s="74" t="s">
         <v>1061</v>
       </c>
-      <c r="F140" s="70" t="s">
+      <c r="F140" s="75" t="s">
         <v>1059</v>
       </c>
       <c r="G140" s="47"/>
@@ -11576,8 +11636,8 @@
       <c r="N140" s="26"/>
       <c r="O140" s="25"/>
     </row>
-    <row r="141" s="64" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A141" s="71"/>
+    <row r="141" s="65" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A141" s="76"/>
       <c r="B141" s="28" t="s">
         <v>1062</v>
       </c>
@@ -11587,7 +11647,7 @@
       <c r="D141" s="30" t="s">
         <v>337</v>
       </c>
-      <c r="E141" s="70" t="s">
+      <c r="E141" s="75" t="s">
         <v>1063</v>
       </c>
       <c r="F141" s="28"/>
@@ -11601,8 +11661,8 @@
       <c r="N141" s="26"/>
       <c r="O141" s="25"/>
     </row>
-    <row r="142" s="64" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A142" s="71"/>
+    <row r="142" s="65" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A142" s="76"/>
       <c r="B142" s="28" t="s">
         <v>771</v>
       </c>
@@ -11612,7 +11672,7 @@
       <c r="D142" s="30" t="s">
         <v>540</v>
       </c>
-      <c r="E142" s="72">
+      <c r="E142" s="77">
         <v>3000</v>
       </c>
       <c r="F142" s="28"/>
@@ -11626,8 +11686,8 @@
       <c r="N142" s="26"/>
       <c r="O142" s="25"/>
     </row>
-    <row r="143" s="64" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A143" s="73"/>
+    <row r="143" s="65" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A143" s="78"/>
       <c r="B143" s="28" t="s">
         <v>1064</v>
       </c>
@@ -11637,10 +11697,10 @@
       <c r="D143" s="30" t="s">
         <v>349</v>
       </c>
-      <c r="E143" s="70" t="s">
+      <c r="E143" s="75" t="s">
         <v>1065</v>
       </c>
-      <c r="F143" s="70" t="s">
+      <c r="F143" s="75" t="s">
         <v>1063</v>
       </c>
       <c r="G143" s="47"/>
@@ -12815,12 +12875,12 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O159"/>
+  <dimension ref="A1:O173"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E147" sqref="E147"/>
+      <selection pane="bottomLeft" activeCell="C158" sqref="$A158:$XFD159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -12953,7 +13013,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="5" s="3" customFormat="1" ht="15.5" spans="1:15">
+    <row r="5" s="3" customFormat="1" ht="28" spans="1:15">
       <c r="A5" s="22" t="s">
         <v>749</v>
       </c>
@@ -14728,7 +14788,7 @@
       <c r="D71" s="34" t="s">
         <v>253</v>
       </c>
-      <c r="E71" s="65"/>
+      <c r="E71" s="66"/>
       <c r="F71" s="34"/>
       <c r="G71" s="34"/>
       <c r="H71" s="34"/>
@@ -14793,7 +14853,7 @@
       <c r="N73" s="26"/>
       <c r="O73" s="25"/>
     </row>
-    <row r="74" s="5" customFormat="1" ht="28" spans="1:15">
+    <row r="74" s="5" customFormat="1" ht="70" spans="1:15">
       <c r="A74" s="22" t="s">
         <v>885</v>
       </c>
@@ -15203,7 +15263,7 @@
       <c r="I92" s="5"/>
       <c r="J92" s="5"/>
     </row>
-    <row r="93" ht="42" spans="1:15">
+    <row r="93" ht="84" spans="1:15">
       <c r="A93" s="37" t="s">
         <v>919</v>
       </c>
@@ -16455,7 +16515,7 @@
       <c r="E139" s="34" t="s">
         <v>1031</v>
       </c>
-      <c r="F139" s="66" t="s">
+      <c r="F139" s="67" t="s">
         <v>1032</v>
       </c>
       <c r="G139" s="34"/>
@@ -16482,7 +16542,7 @@
       <c r="E140" s="34" t="s">
         <v>1034</v>
       </c>
-      <c r="F140" s="67" t="s">
+      <c r="F140" s="68" t="s">
         <v>1035</v>
       </c>
       <c r="G140" s="34"/>
@@ -16536,7 +16596,7 @@
       <c r="E142" s="34" t="s">
         <v>1040</v>
       </c>
-      <c r="F142" s="67" t="s">
+      <c r="F142" s="68" t="s">
         <v>1041</v>
       </c>
       <c r="G142" s="34"/>
@@ -16601,7 +16661,7 @@
       <c r="N144" s="59"/>
       <c r="O144" s="49"/>
     </row>
-    <row r="145" ht="23" customHeight="1" spans="1:15">
+    <row r="145" ht="28" spans="1:15">
       <c r="A145" s="37" t="s">
         <v>1047</v>
       </c>
@@ -16614,7 +16674,7 @@
       <c r="D145" s="34" t="s">
         <v>486</v>
       </c>
-      <c r="E145" s="68" t="s">
+      <c r="E145" s="69" t="s">
         <v>1049</v>
       </c>
       <c r="F145" s="34" t="s">
@@ -16634,196 +16694,205 @@
       <c r="N145" s="59"/>
       <c r="O145" s="49"/>
     </row>
-    <row r="146" customFormat="1" ht="15.5" spans="2:15">
-      <c r="B146" s="40" t="s">
+    <row r="146" s="63" customFormat="1" ht="15.5" spans="2:15">
+      <c r="B146" s="70" t="s">
         <v>1053</v>
       </c>
-      <c r="C146" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="D146" s="34" t="s">
+      <c r="C146" s="71" t="s">
+        <v>30</v>
+      </c>
+      <c r="D146" s="72" t="s">
         <v>576</v>
       </c>
-      <c r="E146" s="65" t="s">
+      <c r="E146" s="73" t="s">
         <v>1054</v>
       </c>
-      <c r="F146" s="34" t="s">
+      <c r="F146" s="72" t="s">
         <v>772</v>
       </c>
-      <c r="G146" s="34"/>
-      <c r="H146" s="34"/>
-      <c r="I146" s="34"/>
-      <c r="J146" s="58"/>
-      <c r="K146" s="49"/>
-      <c r="L146" s="59"/>
-      <c r="M146" s="60"/>
-      <c r="N146" s="59"/>
-      <c r="O146" s="49"/>
-    </row>
-    <row r="147" s="63" customFormat="1" ht="93" spans="1:15">
-      <c r="A147" s="22"/>
-      <c r="B147" s="23" t="s">
-        <v>1055</v>
-      </c>
-      <c r="C147" s="29" t="s">
+      <c r="G146" s="72"/>
+      <c r="H146" s="72"/>
+      <c r="I146" s="72"/>
+      <c r="J146" s="79"/>
+      <c r="K146" s="80"/>
+      <c r="L146" s="81"/>
+      <c r="M146" s="82"/>
+      <c r="N146" s="81"/>
+      <c r="O146" s="80"/>
+    </row>
+    <row r="147" customFormat="1" spans="2:15">
+      <c r="B147" s="40" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C147" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="D147" s="30" t="s">
-        <v>482</v>
-      </c>
-      <c r="E147" s="69" t="s">
+      <c r="D147" s="34" t="s">
+        <v>656</v>
+      </c>
+      <c r="E147" s="66" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F147" s="66" t="s">
+        <v>1100</v>
+      </c>
+      <c r="G147" s="66"/>
+      <c r="H147" s="34"/>
+      <c r="I147" s="34"/>
+      <c r="J147" s="58"/>
+      <c r="K147" s="49"/>
+      <c r="L147" s="59"/>
+      <c r="M147" s="60"/>
+      <c r="N147" s="59"/>
+      <c r="O147" s="49"/>
+    </row>
+    <row r="148" customFormat="1" spans="2:15">
+      <c r="B148" s="40" t="s">
         <v>1098</v>
       </c>
-      <c r="F147" s="69"/>
-      <c r="G147" s="47"/>
-      <c r="H147" s="30"/>
-      <c r="I147" s="30"/>
-      <c r="J147" s="57"/>
-      <c r="K147" s="25"/>
-      <c r="L147" s="26"/>
-      <c r="M147" s="24"/>
-      <c r="N147" s="26"/>
-      <c r="O147" s="25"/>
-    </row>
-    <row r="148" s="63" customFormat="1" ht="36" customHeight="1" spans="1:15">
-      <c r="A148" s="22"/>
-      <c r="B148" s="23" t="s">
-        <v>1057</v>
-      </c>
-      <c r="C148" s="29" t="s">
+      <c r="C148" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="D148" s="30" t="s">
-        <v>655</v>
-      </c>
-      <c r="E148" s="63" t="s">
-        <v>1058</v>
-      </c>
-      <c r="F148" s="70" t="s">
-        <v>1059</v>
-      </c>
-      <c r="G148" s="47"/>
-      <c r="H148" s="30"/>
-      <c r="I148" s="30"/>
-      <c r="J148" s="57"/>
-      <c r="K148" s="25"/>
-      <c r="L148" s="26"/>
-      <c r="M148" s="24"/>
-      <c r="N148" s="26"/>
-      <c r="O148" s="25"/>
-    </row>
-    <row r="149" s="63" customFormat="1" ht="31" spans="1:15">
-      <c r="A149" s="22"/>
-      <c r="B149" s="23" t="s">
-        <v>1060</v>
-      </c>
-      <c r="C149" s="29" t="s">
+      <c r="D148" s="34" t="s">
+        <v>656</v>
+      </c>
+      <c r="E148" s="66" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F148" s="66" t="s">
+        <v>1100</v>
+      </c>
+      <c r="G148" s="66"/>
+      <c r="H148" s="34"/>
+      <c r="I148" s="34"/>
+      <c r="J148" s="58"/>
+      <c r="K148" s="49"/>
+      <c r="L148" s="59"/>
+      <c r="M148" s="60"/>
+      <c r="N148" s="59"/>
+      <c r="O148" s="49"/>
+    </row>
+    <row r="149" customFormat="1" spans="2:15">
+      <c r="B149" s="40" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C149" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="D149" s="30" t="s">
-        <v>655</v>
-      </c>
-      <c r="E149" s="69" t="s">
-        <v>1061</v>
-      </c>
-      <c r="F149" s="70" t="s">
-        <v>1059</v>
-      </c>
-      <c r="G149" s="47"/>
-      <c r="H149" s="30"/>
-      <c r="I149" s="30"/>
-      <c r="J149" s="57"/>
-      <c r="K149" s="25"/>
-      <c r="L149" s="26"/>
-      <c r="M149" s="24"/>
-      <c r="N149" s="26"/>
-      <c r="O149" s="25"/>
-    </row>
-    <row r="150" s="64" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A150" s="71"/>
-      <c r="B150" s="28" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C150" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="D150" s="30" t="s">
-        <v>337</v>
-      </c>
-      <c r="E150" s="70" t="s">
-        <v>1063</v>
-      </c>
-      <c r="F150" s="28"/>
-      <c r="G150" s="47"/>
-      <c r="H150" s="30"/>
-      <c r="I150" s="30"/>
-      <c r="J150" s="57"/>
-      <c r="K150" s="25"/>
-      <c r="L150" s="26"/>
-      <c r="M150" s="24"/>
-      <c r="N150" s="26"/>
-      <c r="O150" s="25"/>
-    </row>
-    <row r="151" s="64" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A151" s="71"/>
-      <c r="B151" s="28" t="s">
-        <v>771</v>
-      </c>
-      <c r="C151" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D151" s="30" t="s">
-        <v>540</v>
-      </c>
-      <c r="E151" s="72">
-        <v>3000</v>
-      </c>
-      <c r="F151" s="28"/>
-      <c r="G151" s="47"/>
-      <c r="H151" s="30"/>
-      <c r="I151" s="30"/>
-      <c r="J151" s="57"/>
-      <c r="K151" s="25"/>
-      <c r="L151" s="26"/>
-      <c r="M151" s="24"/>
-      <c r="N151" s="26"/>
-      <c r="O151" s="25"/>
-    </row>
-    <row r="152" s="64" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A152" s="73"/>
-      <c r="B152" s="28" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C152" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="D152" s="30" t="s">
-        <v>349</v>
-      </c>
-      <c r="E152" s="70" t="s">
-        <v>1065</v>
-      </c>
-      <c r="F152" s="70" t="s">
-        <v>1063</v>
-      </c>
-      <c r="G152" s="47"/>
-      <c r="H152" s="30"/>
-      <c r="I152" s="30"/>
-      <c r="J152" s="57"/>
-      <c r="K152" s="25"/>
-      <c r="L152" s="26"/>
-      <c r="M152" s="24"/>
-      <c r="N152" s="26"/>
-      <c r="O152" s="25"/>
-    </row>
-    <row r="153" ht="23" customHeight="1" spans="1:15">
-      <c r="A153" s="37"/>
-      <c r="B153" s="40"/>
-      <c r="C153" s="41"/>
-      <c r="D153" s="34"/>
-      <c r="E153" s="34"/>
-      <c r="F153" s="34"/>
-      <c r="G153" s="34"/>
+      <c r="D149" s="34" t="s">
+        <v>656</v>
+      </c>
+      <c r="E149" s="66" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F149" s="66" t="s">
+        <v>1100</v>
+      </c>
+      <c r="G149" s="66"/>
+      <c r="H149" s="34"/>
+      <c r="I149" s="34"/>
+      <c r="J149" s="58"/>
+      <c r="K149" s="49"/>
+      <c r="L149" s="59"/>
+      <c r="M149" s="60"/>
+      <c r="N149" s="59"/>
+      <c r="O149" s="49"/>
+    </row>
+    <row r="150" customFormat="1" spans="2:15">
+      <c r="B150" s="40" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C150" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D150" s="34" t="s">
+        <v>656</v>
+      </c>
+      <c r="E150" s="66" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F150" s="66" t="s">
+        <v>1100</v>
+      </c>
+      <c r="G150" s="66"/>
+      <c r="H150" s="34"/>
+      <c r="I150" s="34"/>
+      <c r="J150" s="58"/>
+      <c r="K150" s="49"/>
+      <c r="L150" s="59"/>
+      <c r="M150" s="60"/>
+      <c r="N150" s="59"/>
+      <c r="O150" s="49"/>
+    </row>
+    <row r="151" customFormat="1" spans="2:15">
+      <c r="B151" s="40" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C151" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D151" s="34" t="s">
+        <v>656</v>
+      </c>
+      <c r="E151" s="66" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F151" s="66" t="s">
+        <v>1100</v>
+      </c>
+      <c r="G151" s="66"/>
+      <c r="H151" s="34"/>
+      <c r="I151" s="34"/>
+      <c r="J151" s="58"/>
+      <c r="K151" s="49"/>
+      <c r="L151" s="59"/>
+      <c r="M151" s="60"/>
+      <c r="N151" s="59"/>
+      <c r="O151" s="49"/>
+    </row>
+    <row r="152" customFormat="1" spans="2:15">
+      <c r="B152" s="40" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C152" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D152" s="34" t="s">
+        <v>656</v>
+      </c>
+      <c r="E152" s="66" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F152" s="66" t="s">
+        <v>1100</v>
+      </c>
+      <c r="G152" s="66"/>
+      <c r="H152" s="34"/>
+      <c r="I152" s="34"/>
+      <c r="J152" s="58"/>
+      <c r="K152" s="49"/>
+      <c r="L152" s="59"/>
+      <c r="M152" s="60"/>
+      <c r="N152" s="59"/>
+      <c r="O152" s="49"/>
+    </row>
+    <row r="153" customFormat="1" spans="2:15">
+      <c r="B153" s="40" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C153" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D153" s="34" t="s">
+        <v>656</v>
+      </c>
+      <c r="E153" s="66" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F153" s="66" t="s">
+        <v>1100</v>
+      </c>
+      <c r="G153" s="66"/>
       <c r="H153" s="34"/>
       <c r="I153" s="34"/>
       <c r="J153" s="58"/>
@@ -16833,14 +16902,23 @@
       <c r="N153" s="59"/>
       <c r="O153" s="49"/>
     </row>
-    <row r="154" ht="23" customHeight="1" spans="1:15">
-      <c r="A154" s="37"/>
-      <c r="B154" s="40"/>
-      <c r="C154" s="41"/>
-      <c r="D154" s="34"/>
-      <c r="E154" s="34"/>
-      <c r="F154" s="34"/>
-      <c r="G154" s="34"/>
+    <row r="154" customFormat="1" spans="2:15">
+      <c r="B154" s="40" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C154" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D154" s="34" t="s">
+        <v>656</v>
+      </c>
+      <c r="E154" s="66" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F154" s="66" t="s">
+        <v>1100</v>
+      </c>
+      <c r="G154" s="66"/>
       <c r="H154" s="34"/>
       <c r="I154" s="34"/>
       <c r="J154" s="58"/>
@@ -16850,14 +16928,23 @@
       <c r="N154" s="59"/>
       <c r="O154" s="49"/>
     </row>
-    <row r="155" ht="23" customHeight="1" spans="1:15">
-      <c r="A155" s="37"/>
-      <c r="B155" s="40"/>
-      <c r="C155" s="41"/>
-      <c r="D155" s="34"/>
-      <c r="E155" s="34"/>
-      <c r="F155" s="34"/>
-      <c r="G155" s="34"/>
+    <row r="155" customFormat="1" spans="2:15">
+      <c r="B155" s="40" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C155" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D155" s="34" t="s">
+        <v>656</v>
+      </c>
+      <c r="E155" s="66" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F155" s="66" t="s">
+        <v>1100</v>
+      </c>
+      <c r="G155" s="66"/>
       <c r="H155" s="34"/>
       <c r="I155" s="34"/>
       <c r="J155" s="58"/>
@@ -16867,14 +16954,23 @@
       <c r="N155" s="59"/>
       <c r="O155" s="49"/>
     </row>
-    <row r="156" ht="23" customHeight="1" spans="1:15">
-      <c r="A156" s="37"/>
-      <c r="B156" s="40"/>
-      <c r="C156" s="41"/>
-      <c r="D156" s="34"/>
-      <c r="E156" s="34"/>
-      <c r="F156" s="34"/>
-      <c r="G156" s="34"/>
+    <row r="156" customFormat="1" spans="2:15">
+      <c r="B156" s="40" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C156" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D156" s="34" t="s">
+        <v>656</v>
+      </c>
+      <c r="E156" s="66" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F156" s="66" t="s">
+        <v>1100</v>
+      </c>
+      <c r="G156" s="66"/>
       <c r="H156" s="34"/>
       <c r="I156" s="34"/>
       <c r="J156" s="58"/>
@@ -16884,14 +16980,23 @@
       <c r="N156" s="59"/>
       <c r="O156" s="49"/>
     </row>
-    <row r="157" ht="23" customHeight="1" spans="1:15">
-      <c r="A157" s="37"/>
-      <c r="B157" s="40"/>
-      <c r="C157" s="41"/>
-      <c r="D157" s="34"/>
-      <c r="E157" s="34"/>
-      <c r="F157" s="34"/>
-      <c r="G157" s="34"/>
+    <row r="157" customFormat="1" spans="2:15">
+      <c r="B157" s="40" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C157" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D157" s="34" t="s">
+        <v>656</v>
+      </c>
+      <c r="E157" s="66" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F157" s="66" t="s">
+        <v>1100</v>
+      </c>
+      <c r="G157" s="66"/>
       <c r="H157" s="34"/>
       <c r="I157" s="34"/>
       <c r="J157" s="58"/>
@@ -16901,14 +17006,23 @@
       <c r="N157" s="59"/>
       <c r="O157" s="49"/>
     </row>
-    <row r="158" ht="23" customHeight="1" spans="1:15">
-      <c r="A158" s="37"/>
-      <c r="B158" s="40"/>
-      <c r="C158" s="41"/>
-      <c r="D158" s="34"/>
-      <c r="E158" s="34"/>
-      <c r="F158" s="34"/>
-      <c r="G158" s="34"/>
+    <row r="158" customFormat="1" spans="2:15">
+      <c r="B158" s="40" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C158" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D158" s="34" t="s">
+        <v>656</v>
+      </c>
+      <c r="E158" s="66" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F158" s="66" t="s">
+        <v>1100</v>
+      </c>
+      <c r="G158" s="66"/>
       <c r="H158" s="34"/>
       <c r="I158" s="34"/>
       <c r="J158" s="58"/>
@@ -16918,14 +17032,23 @@
       <c r="N158" s="59"/>
       <c r="O158" s="49"/>
     </row>
-    <row r="159" ht="23" customHeight="1" spans="1:15">
-      <c r="A159" s="37"/>
-      <c r="B159" s="40"/>
-      <c r="C159" s="41"/>
-      <c r="D159" s="34"/>
-      <c r="E159" s="34"/>
-      <c r="F159" s="34"/>
-      <c r="G159" s="34"/>
+    <row r="159" customFormat="1" spans="2:15">
+      <c r="B159" s="40" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C159" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D159" s="34" t="s">
+        <v>656</v>
+      </c>
+      <c r="E159" s="66" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F159" s="66" t="s">
+        <v>1100</v>
+      </c>
+      <c r="G159" s="66"/>
       <c r="H159" s="34"/>
       <c r="I159" s="34"/>
       <c r="J159" s="58"/>
@@ -16934,6 +17057,307 @@
       <c r="M159" s="60"/>
       <c r="N159" s="59"/>
       <c r="O159" s="49"/>
+    </row>
+    <row r="160" customFormat="1" spans="2:15">
+      <c r="B160" s="40" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C160" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D160" s="34" t="s">
+        <v>656</v>
+      </c>
+      <c r="E160" s="66" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F160" s="66" t="s">
+        <v>1101</v>
+      </c>
+      <c r="G160" s="66"/>
+      <c r="H160" s="34"/>
+      <c r="I160" s="34"/>
+      <c r="J160" s="58"/>
+      <c r="K160" s="49"/>
+      <c r="L160" s="59"/>
+      <c r="M160" s="60"/>
+      <c r="N160" s="59"/>
+      <c r="O160" s="49"/>
+    </row>
+    <row r="161" s="64" customFormat="1" ht="77.5" spans="1:15">
+      <c r="A161" s="22"/>
+      <c r="B161" s="23" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C161" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D161" s="30" t="s">
+        <v>482</v>
+      </c>
+      <c r="E161" s="74" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F161" s="74"/>
+      <c r="G161" s="47"/>
+      <c r="H161" s="30"/>
+      <c r="I161" s="30"/>
+      <c r="J161" s="57"/>
+      <c r="K161" s="25"/>
+      <c r="L161" s="26"/>
+      <c r="M161" s="24"/>
+      <c r="N161" s="26"/>
+      <c r="O161" s="25"/>
+    </row>
+    <row r="162" s="64" customFormat="1" ht="36" customHeight="1" spans="1:15">
+      <c r="A162" s="22"/>
+      <c r="B162" s="23" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C162" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D162" s="30" t="s">
+        <v>655</v>
+      </c>
+      <c r="E162" s="64" t="s">
+        <v>1058</v>
+      </c>
+      <c r="F162" s="75" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G162" s="47"/>
+      <c r="H162" s="30"/>
+      <c r="I162" s="30"/>
+      <c r="J162" s="57"/>
+      <c r="K162" s="25"/>
+      <c r="L162" s="26"/>
+      <c r="M162" s="24"/>
+      <c r="N162" s="26"/>
+      <c r="O162" s="25"/>
+    </row>
+    <row r="163" s="64" customFormat="1" ht="31" spans="1:15">
+      <c r="A163" s="22"/>
+      <c r="B163" s="23" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C163" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D163" s="30" t="s">
+        <v>655</v>
+      </c>
+      <c r="E163" s="74" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F163" s="75" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G163" s="47"/>
+      <c r="H163" s="30"/>
+      <c r="I163" s="30"/>
+      <c r="J163" s="57"/>
+      <c r="K163" s="25"/>
+      <c r="L163" s="26"/>
+      <c r="M163" s="24"/>
+      <c r="N163" s="26"/>
+      <c r="O163" s="25"/>
+    </row>
+    <row r="164" s="65" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A164" s="76"/>
+      <c r="B164" s="28" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C164" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D164" s="30" t="s">
+        <v>337</v>
+      </c>
+      <c r="E164" s="75" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F164" s="28"/>
+      <c r="G164" s="47"/>
+      <c r="H164" s="30"/>
+      <c r="I164" s="30"/>
+      <c r="J164" s="57"/>
+      <c r="K164" s="25"/>
+      <c r="L164" s="26"/>
+      <c r="M164" s="24"/>
+      <c r="N164" s="26"/>
+      <c r="O164" s="25"/>
+    </row>
+    <row r="165" s="65" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A165" s="76"/>
+      <c r="B165" s="28" t="s">
+        <v>771</v>
+      </c>
+      <c r="C165" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D165" s="30" t="s">
+        <v>540</v>
+      </c>
+      <c r="E165" s="77">
+        <v>3000</v>
+      </c>
+      <c r="F165" s="28"/>
+      <c r="G165" s="47"/>
+      <c r="H165" s="30"/>
+      <c r="I165" s="30"/>
+      <c r="J165" s="57"/>
+      <c r="K165" s="25"/>
+      <c r="L165" s="26"/>
+      <c r="M165" s="24"/>
+      <c r="N165" s="26"/>
+      <c r="O165" s="25"/>
+    </row>
+    <row r="166" s="65" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A166" s="78"/>
+      <c r="B166" s="28" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C166" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D166" s="30" t="s">
+        <v>349</v>
+      </c>
+      <c r="E166" s="75" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F166" s="75" t="s">
+        <v>1063</v>
+      </c>
+      <c r="G166" s="47"/>
+      <c r="H166" s="30"/>
+      <c r="I166" s="30"/>
+      <c r="J166" s="57"/>
+      <c r="K166" s="25"/>
+      <c r="L166" s="26"/>
+      <c r="M166" s="24"/>
+      <c r="N166" s="26"/>
+      <c r="O166" s="25"/>
+    </row>
+    <row r="167" ht="23" customHeight="1" spans="1:15">
+      <c r="A167" s="37"/>
+      <c r="B167" s="40"/>
+      <c r="C167" s="41"/>
+      <c r="D167" s="34"/>
+      <c r="E167" s="34"/>
+      <c r="F167" s="34"/>
+      <c r="G167" s="34"/>
+      <c r="H167" s="34"/>
+      <c r="I167" s="34"/>
+      <c r="J167" s="58"/>
+      <c r="K167" s="49"/>
+      <c r="L167" s="59"/>
+      <c r="M167" s="60"/>
+      <c r="N167" s="59"/>
+      <c r="O167" s="49"/>
+    </row>
+    <row r="168" ht="23" customHeight="1" spans="1:15">
+      <c r="A168" s="37"/>
+      <c r="B168" s="40"/>
+      <c r="C168" s="41"/>
+      <c r="D168" s="34"/>
+      <c r="E168" s="34"/>
+      <c r="F168" s="34"/>
+      <c r="G168" s="34"/>
+      <c r="H168" s="34"/>
+      <c r="I168" s="34"/>
+      <c r="J168" s="58"/>
+      <c r="K168" s="49"/>
+      <c r="L168" s="59"/>
+      <c r="M168" s="60"/>
+      <c r="N168" s="59"/>
+      <c r="O168" s="49"/>
+    </row>
+    <row r="169" ht="23" customHeight="1" spans="1:15">
+      <c r="A169" s="37"/>
+      <c r="B169" s="40"/>
+      <c r="C169" s="41"/>
+      <c r="D169" s="34"/>
+      <c r="E169" s="34"/>
+      <c r="F169" s="34"/>
+      <c r="G169" s="34"/>
+      <c r="H169" s="34"/>
+      <c r="I169" s="34"/>
+      <c r="J169" s="58"/>
+      <c r="K169" s="49"/>
+      <c r="L169" s="59"/>
+      <c r="M169" s="60"/>
+      <c r="N169" s="59"/>
+      <c r="O169" s="49"/>
+    </row>
+    <row r="170" ht="23" customHeight="1" spans="1:15">
+      <c r="A170" s="37"/>
+      <c r="B170" s="40"/>
+      <c r="C170" s="41"/>
+      <c r="D170" s="34"/>
+      <c r="E170" s="34"/>
+      <c r="F170" s="34"/>
+      <c r="G170" s="34"/>
+      <c r="H170" s="34"/>
+      <c r="I170" s="34"/>
+      <c r="J170" s="58"/>
+      <c r="K170" s="49"/>
+      <c r="L170" s="59"/>
+      <c r="M170" s="60"/>
+      <c r="N170" s="59"/>
+      <c r="O170" s="49"/>
+    </row>
+    <row r="171" ht="23" customHeight="1" spans="1:15">
+      <c r="A171" s="37"/>
+      <c r="B171" s="40"/>
+      <c r="C171" s="41"/>
+      <c r="D171" s="34"/>
+      <c r="E171" s="34"/>
+      <c r="F171" s="34"/>
+      <c r="G171" s="34"/>
+      <c r="H171" s="34"/>
+      <c r="I171" s="34"/>
+      <c r="J171" s="58"/>
+      <c r="K171" s="49"/>
+      <c r="L171" s="59"/>
+      <c r="M171" s="60"/>
+      <c r="N171" s="59"/>
+      <c r="O171" s="49"/>
+    </row>
+    <row r="172" ht="23" customHeight="1" spans="1:15">
+      <c r="A172" s="37"/>
+      <c r="B172" s="40"/>
+      <c r="C172" s="41"/>
+      <c r="D172" s="34"/>
+      <c r="E172" s="34"/>
+      <c r="F172" s="34"/>
+      <c r="G172" s="34"/>
+      <c r="H172" s="34"/>
+      <c r="I172" s="34"/>
+      <c r="J172" s="58"/>
+      <c r="K172" s="49"/>
+      <c r="L172" s="59"/>
+      <c r="M172" s="60"/>
+      <c r="N172" s="59"/>
+      <c r="O172" s="49"/>
+    </row>
+    <row r="173" ht="23" customHeight="1" spans="1:15">
+      <c r="A173" s="37"/>
+      <c r="B173" s="40"/>
+      <c r="C173" s="41"/>
+      <c r="D173" s="34"/>
+      <c r="E173" s="34"/>
+      <c r="F173" s="34"/>
+      <c r="G173" s="34"/>
+      <c r="H173" s="34"/>
+      <c r="I173" s="34"/>
+      <c r="J173" s="58"/>
+      <c r="K173" s="49"/>
+      <c r="L173" s="59"/>
+      <c r="M173" s="60"/>
+      <c r="N173" s="59"/>
+      <c r="O173" s="49"/>
     </row>
   </sheetData>
   <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
@@ -16944,846 +17368,989 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1">
-    <cfRule type="beginsWith" dxfId="0" priority="237" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="276" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="236" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="275" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="235" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="274" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5">
+    <cfRule type="beginsWith" dxfId="0" priority="84" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N5,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="83" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N5,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="82" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N5,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N8">
+    <cfRule type="beginsWith" dxfId="2" priority="55" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N8,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="56" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N8,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="57" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N8,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N9">
+    <cfRule type="beginsWith" dxfId="2" priority="52" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N9,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="53" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N9,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="54" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N9,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N10">
+    <cfRule type="beginsWith" dxfId="2" priority="49" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N10,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="50" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N10,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="51" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N10,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N14">
+    <cfRule type="beginsWith" dxfId="2" priority="43" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N14,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="44" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N14,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
     <cfRule type="beginsWith" dxfId="0" priority="45" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N5,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="44" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N5,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="43" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N5,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N8">
-    <cfRule type="beginsWith" dxfId="2" priority="16" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N8,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="17" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N8,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="18" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N8,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N9">
-    <cfRule type="beginsWith" dxfId="2" priority="13" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N9,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="14" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N9,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="15" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N9,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N10">
-    <cfRule type="beginsWith" dxfId="2" priority="10" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N10,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="11" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N10,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="12" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N10,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N14">
-    <cfRule type="beginsWith" dxfId="2" priority="4" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N14,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="5" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N14,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="6" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N14,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N15">
-    <cfRule type="beginsWith" dxfId="2" priority="7" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="46" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N15,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="8" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="47" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N15,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="9" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="48" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N15,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16">
-    <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="40" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N16,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="41" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N16,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="3" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="42" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N16,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N19">
+    <cfRule type="beginsWith" dxfId="2" priority="247" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N19,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="248" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N19,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="249" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N19,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N20">
+    <cfRule type="beginsWith" dxfId="2" priority="244" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N20,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="245" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N20,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="246" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N20,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N35">
+    <cfRule type="beginsWith" dxfId="2" priority="238" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N35,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="239" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N35,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="240" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N35,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N39">
+    <cfRule type="beginsWith" dxfId="2" priority="217" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N39,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="218" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N39,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="219" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N39,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N40">
+    <cfRule type="beginsWith" dxfId="2" priority="214" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N40,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="215" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N40,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="216" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N40,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N45">
+    <cfRule type="beginsWith" dxfId="2" priority="106" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N45,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="107" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N45,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="108" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N45,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N49">
+    <cfRule type="beginsWith" dxfId="2" priority="97" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N49,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="98" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N49,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="99" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N49,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N50">
+    <cfRule type="beginsWith" dxfId="2" priority="88" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N50,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="89" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N50,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="90" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N50,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N51">
+    <cfRule type="beginsWith" dxfId="2" priority="91" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N51,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="92" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N51,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="93" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N51,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N56">
     <cfRule type="beginsWith" dxfId="2" priority="208" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N19,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N56,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="209" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N19,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N56,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="0" priority="210" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N19,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N20">
-    <cfRule type="beginsWith" dxfId="2" priority="205" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N20,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="206" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N20,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="207" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N20,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N35">
+      <formula>LEFT(N56,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N60">
+    <cfRule type="beginsWith" dxfId="2" priority="76" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N60,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="77" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N60,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="78" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N60,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N62">
+    <cfRule type="beginsWith" dxfId="2" priority="211" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N62,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="212" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N62,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="213" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N62,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N64">
+    <cfRule type="beginsWith" dxfId="2" priority="226" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N64,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="227" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N64,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="228" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N64,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N65">
+    <cfRule type="beginsWith" dxfId="2" priority="220" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N65,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="221" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N65,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="222" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N65,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N72">
+    <cfRule type="beginsWith" dxfId="2" priority="229" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N72,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="230" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N72,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="231" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N72,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N73">
+    <cfRule type="beginsWith" dxfId="2" priority="250" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N73,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="251" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N73,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="252" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N73,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N74">
+    <cfRule type="beginsWith" dxfId="2" priority="202" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N74,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="203" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N74,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="204" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N74,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N82">
     <cfRule type="beginsWith" dxfId="2" priority="199" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N35,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N82,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="200" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N35,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N82,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="0" priority="201" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N35,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N39">
-    <cfRule type="beginsWith" dxfId="2" priority="178" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N39,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="179" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N39,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="180" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N39,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N40">
+      <formula>LEFT(N82,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N97">
+    <cfRule type="beginsWith" dxfId="2" priority="196" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N97,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="197" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N97,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="198" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N97,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N102">
+    <cfRule type="beginsWith" dxfId="2" priority="187" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N102,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="188" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N102,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="189" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N102,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N103">
+    <cfRule type="beginsWith" dxfId="2" priority="184" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N103,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="185" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N103,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="186" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N103,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N113">
+    <cfRule type="beginsWith" dxfId="2" priority="121" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N113,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="122" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N113,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="123" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N113,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N115">
+    <cfRule type="beginsWith" dxfId="2" priority="118" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N115,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="119" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N115,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="120" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N115,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N121">
+    <cfRule type="beginsWith" dxfId="2" priority="124" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N121,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="125" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N121,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="126" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N121,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N124">
     <cfRule type="beginsWith" dxfId="2" priority="175" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N40,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N124,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="176" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N40,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N124,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="0" priority="177" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N40,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N45">
-    <cfRule type="beginsWith" dxfId="2" priority="67" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N45,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="68" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N45,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="69" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N45,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N49">
-    <cfRule type="beginsWith" dxfId="2" priority="58" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N49,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="59" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N49,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="60" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N49,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N50">
-    <cfRule type="beginsWith" dxfId="2" priority="49" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N50,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="50" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N50,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="51" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N50,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N51">
-    <cfRule type="beginsWith" dxfId="2" priority="52" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N51,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="53" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N51,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="54" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N51,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N56">
+      <formula>LEFT(N124,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N125">
+    <cfRule type="beginsWith" dxfId="2" priority="172" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N125,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="173" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N125,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="174" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N125,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N126">
     <cfRule type="beginsWith" dxfId="2" priority="169" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N56,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N126,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="170" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N56,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N126,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="0" priority="171" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N56,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N60">
-    <cfRule type="beginsWith" dxfId="2" priority="37" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N60,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="38" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N60,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="39" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N60,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N62">
-    <cfRule type="beginsWith" dxfId="2" priority="172" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N62,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="173" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N62,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="174" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N62,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N64">
-    <cfRule type="beginsWith" dxfId="2" priority="187" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N64,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="188" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N64,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="189" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N64,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N65">
-    <cfRule type="beginsWith" dxfId="2" priority="181" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N65,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="182" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N65,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="183" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N65,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N72">
-    <cfRule type="beginsWith" dxfId="2" priority="190" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N72,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="191" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N72,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="192" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N72,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N73">
-    <cfRule type="beginsWith" dxfId="2" priority="211" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N73,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="212" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N73,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="213" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N73,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N74">
+      <formula>LEFT(N126,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N127">
+    <cfRule type="beginsWith" dxfId="2" priority="166" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N127,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="167" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N127,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="168" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N127,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N130">
     <cfRule type="beginsWith" dxfId="2" priority="163" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N74,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N130,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="164" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N74,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N130,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="0" priority="165" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N74,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N82">
+      <formula>LEFT(N130,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N131">
     <cfRule type="beginsWith" dxfId="2" priority="160" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N82,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N131,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="161" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N82,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N131,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="0" priority="162" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N82,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N97">
+      <formula>LEFT(N131,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N132">
     <cfRule type="beginsWith" dxfId="2" priority="157" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N97,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N132,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="158" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N97,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N132,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="0" priority="159" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N97,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N102">
+      <formula>LEFT(N132,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N133">
+    <cfRule type="beginsWith" dxfId="2" priority="154" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N133,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="155" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N133,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="156" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N133,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N134">
+    <cfRule type="beginsWith" dxfId="2" priority="151" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N134,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="152" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N134,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="153" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N134,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N135">
     <cfRule type="beginsWith" dxfId="2" priority="148" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N102,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N135,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="149" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N102,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N135,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="0" priority="150" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N102,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N103">
+      <formula>LEFT(N135,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N136">
     <cfRule type="beginsWith" dxfId="2" priority="145" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N103,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N136,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="146" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N103,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N136,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="0" priority="147" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N103,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N113">
-    <cfRule type="beginsWith" dxfId="2" priority="82" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N113,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="83" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N113,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="84" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N113,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N115">
-    <cfRule type="beginsWith" dxfId="2" priority="79" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N115,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="80" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N115,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="81" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N115,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N121">
-    <cfRule type="beginsWith" dxfId="2" priority="85" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N121,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="86" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N121,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="87" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N121,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N124">
-    <cfRule type="beginsWith" dxfId="2" priority="136" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N124,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="137" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N124,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="138" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N124,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N125">
-    <cfRule type="beginsWith" dxfId="2" priority="133" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N125,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="134" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N125,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="135" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N125,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N126">
-    <cfRule type="beginsWith" dxfId="2" priority="130" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N126,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="131" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N126,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="132" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N126,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N127">
-    <cfRule type="beginsWith" dxfId="2" priority="127" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N127,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="128" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N127,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="129" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N127,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N130">
-    <cfRule type="beginsWith" dxfId="2" priority="124" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N130,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="125" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N130,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="126" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N130,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N131">
-    <cfRule type="beginsWith" dxfId="2" priority="121" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N131,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="122" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N131,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="123" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N131,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N132">
-    <cfRule type="beginsWith" dxfId="2" priority="118" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N132,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="119" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N132,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="120" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N132,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N133">
+      <formula>LEFT(N136,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N137">
+    <cfRule type="beginsWith" dxfId="2" priority="142" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N137,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="143" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N137,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="144" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N137,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N138">
+    <cfRule type="beginsWith" dxfId="2" priority="139" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N138,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="140" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N138,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="141" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N138,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N140">
     <cfRule type="beginsWith" dxfId="2" priority="115" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N133,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N140,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="116" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N133,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N140,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="0" priority="117" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N133,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N134">
+      <formula>LEFT(N140,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N141">
     <cfRule type="beginsWith" dxfId="2" priority="112" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N134,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N141,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="113" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N134,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N141,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="0" priority="114" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N134,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N135">
+      <formula>LEFT(N141,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N142">
     <cfRule type="beginsWith" dxfId="2" priority="109" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N135,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N142,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="110" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N135,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N142,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="0" priority="111" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N135,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N136">
-    <cfRule type="beginsWith" dxfId="2" priority="106" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N136,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="107" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N136,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="108" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N136,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N137">
-    <cfRule type="beginsWith" dxfId="2" priority="103" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N137,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="104" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N137,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="105" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N137,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N138">
-    <cfRule type="beginsWith" dxfId="2" priority="100" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N138,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="101" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N138,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="102" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N138,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N140">
-    <cfRule type="beginsWith" dxfId="2" priority="76" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N140,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="77" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N140,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="78" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N140,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N141">
-    <cfRule type="beginsWith" dxfId="2" priority="73" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N141,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="74" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N141,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="75" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N141,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N142">
-    <cfRule type="beginsWith" dxfId="2" priority="70" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N142,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="71" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N142,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="72" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N142,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N147">
+  <conditionalFormatting sqref="N148">
     <cfRule type="beginsWith" dxfId="2" priority="34" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N147,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N148,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="35" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N147,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N148,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="0" priority="36" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N147,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N148">
+      <formula>LEFT(N148,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N149">
     <cfRule type="beginsWith" dxfId="2" priority="31" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N148,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N149,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="32" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N148,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N149,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="0" priority="33" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N148,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N149">
-    <cfRule type="beginsWith" dxfId="2" priority="25" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N149,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="26" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N149,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="27" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N149,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N3:N4">
-    <cfRule type="beginsWith" dxfId="0" priority="231" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N3,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="230" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N3,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="229" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N3,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N6:N7">
-    <cfRule type="beginsWith" dxfId="0" priority="42" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N6,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="41" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N6,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="40" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N6,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N21:N22">
-    <cfRule type="beginsWith" dxfId="2" priority="214" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N21,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="215" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N21,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="216" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N21,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N23:N24">
-    <cfRule type="beginsWith" dxfId="2" priority="202" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N23,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="203" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N23,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="204" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N23,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N25:N26">
-    <cfRule type="beginsWith" dxfId="2" priority="223" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N25,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="224" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N25,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="225" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N25,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N30:N32">
-    <cfRule type="beginsWith" dxfId="2" priority="220" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N30,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="221" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N30,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="222" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N30,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N33:N34">
-    <cfRule type="beginsWith" dxfId="2" priority="217" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N33,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="218" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N33,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="219" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N33,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N42:N44">
-    <cfRule type="beginsWith" dxfId="2" priority="196" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N42,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="197" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N42,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="198" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N42,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N46:N48">
-    <cfRule type="beginsWith" dxfId="2" priority="61" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N46,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="62" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N46,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="63" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N46,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N52:N53">
-    <cfRule type="beginsWith" dxfId="2" priority="55" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N52,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="56" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N52,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="57" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N52,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N54:N55">
-    <cfRule type="beginsWith" dxfId="2" priority="46" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N54,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="47" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N54,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="48" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N54,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N66:N67">
-    <cfRule type="beginsWith" dxfId="2" priority="184" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N66,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="185" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N66,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="186" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N66,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N98:N99">
-    <cfRule type="beginsWith" dxfId="2" priority="154" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N98,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="155" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N98,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="156" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N98,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N100:N101">
-    <cfRule type="beginsWith" dxfId="2" priority="151" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N100,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="152" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N100,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="153" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N100,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N109:N110">
-    <cfRule type="beginsWith" dxfId="2" priority="142" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N109,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="143" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N109,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="144" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N109,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N119:N120">
-    <cfRule type="beginsWith" dxfId="2" priority="88" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N119,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="89" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N119,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="90" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N119,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N150:N152">
+  <conditionalFormatting sqref="N150">
+    <cfRule type="beginsWith" dxfId="0" priority="30" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N150,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="29" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N150,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
     <cfRule type="beginsWith" dxfId="2" priority="28" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N150,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="29" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N150,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="30" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N150,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N11:N13 N145 N153:N159 N17:N18">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N151">
+    <cfRule type="beginsWith" dxfId="0" priority="27" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N151,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="26" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N151,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="25" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N151,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N152">
+    <cfRule type="beginsWith" dxfId="2" priority="22" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N152,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="23" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N152,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="24" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N152,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N153">
+    <cfRule type="beginsWith" dxfId="0" priority="21" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N153,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="20" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N153,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="19" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N153,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N154">
+    <cfRule type="beginsWith" dxfId="2" priority="16" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N154,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="17" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N154,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="18" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N154,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N155">
+    <cfRule type="beginsWith" dxfId="2" priority="13" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N155,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="14" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N155,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="15" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N155,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N156">
+    <cfRule type="beginsWith" dxfId="2" priority="10" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N156,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="11" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N156,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="12" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N156,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N157">
+    <cfRule type="beginsWith" dxfId="2" priority="7" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N157,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="8" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N157,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="9" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N157,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N158">
+    <cfRule type="beginsWith" dxfId="0" priority="6" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N158,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="5" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N158,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="4" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N158,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N159">
+    <cfRule type="beginsWith" dxfId="0" priority="3" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N159,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N159,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N159,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N160">
+    <cfRule type="beginsWith" dxfId="2" priority="37" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N160,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="38" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N160,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="39" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N160,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N161">
+    <cfRule type="beginsWith" dxfId="2" priority="73" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N161,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="74" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N161,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="75" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N161,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N162">
+    <cfRule type="beginsWith" dxfId="2" priority="70" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N162,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="71" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N162,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="72" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N162,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N163">
+    <cfRule type="beginsWith" dxfId="2" priority="64" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N163,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="65" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N163,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="66" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N163,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N3:N4">
+    <cfRule type="beginsWith" dxfId="0" priority="270" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N3,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="269" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N3,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="268" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N3,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N6:N7">
+    <cfRule type="beginsWith" dxfId="0" priority="81" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N6,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="80" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N6,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="79" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N6,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N21:N22">
+    <cfRule type="beginsWith" dxfId="2" priority="253" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N21,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="254" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N21,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="255" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N21,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N23:N24">
+    <cfRule type="beginsWith" dxfId="2" priority="241" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N23,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="242" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N23,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="243" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N23,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N25:N26">
+    <cfRule type="beginsWith" dxfId="2" priority="262" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N25,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="263" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N25,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="264" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N25,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N30:N32">
+    <cfRule type="beginsWith" dxfId="2" priority="259" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N30,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="260" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N30,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="261" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N30,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N33:N34">
+    <cfRule type="beginsWith" dxfId="2" priority="256" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N33,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="257" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N33,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="258" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N33,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N42:N44">
+    <cfRule type="beginsWith" dxfId="2" priority="235" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N42,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="236" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N42,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="237" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N42,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N46:N48">
+    <cfRule type="beginsWith" dxfId="2" priority="100" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N46,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="101" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N46,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="102" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N46,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N52:N53">
+    <cfRule type="beginsWith" dxfId="2" priority="94" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N52,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="95" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N52,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="96" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N52,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N54:N55">
+    <cfRule type="beginsWith" dxfId="2" priority="85" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N54,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="86" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N54,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="87" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N54,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N66:N67">
+    <cfRule type="beginsWith" dxfId="2" priority="223" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N66,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="224" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N66,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="225" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N66,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N98:N99">
+    <cfRule type="beginsWith" dxfId="2" priority="193" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N98,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="194" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N98,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="195" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N98,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N100:N101">
+    <cfRule type="beginsWith" dxfId="2" priority="190" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N100,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="191" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N100,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="192" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N100,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N109:N110">
+    <cfRule type="beginsWith" dxfId="2" priority="181" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N109,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="182" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N109,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="183" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N109,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N119:N120">
+    <cfRule type="beginsWith" dxfId="2" priority="127" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N119,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="128" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N119,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="129" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N119,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N164:N166">
+    <cfRule type="beginsWith" dxfId="2" priority="67" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N164,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="68" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N164,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="69" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N164,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N11:N13 N145 N17:N18 N167:N173">
+    <cfRule type="beginsWith" dxfId="2" priority="271" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N11,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="272" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N11,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="273" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N11,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N36:N38 N68:N71 N41">
+    <cfRule type="beginsWith" dxfId="2" priority="265" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N36,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="266" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N36,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="267" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N36,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N57:N59 N63 N61">
     <cfRule type="beginsWith" dxfId="2" priority="232" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N11,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N57,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="233" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N11,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N57,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="0" priority="234" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N11,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N36:N38 N68:N71 N41">
-    <cfRule type="beginsWith" dxfId="2" priority="226" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N36,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="227" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N36,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="228" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N36,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N57:N59 N63 N61">
-    <cfRule type="beginsWith" dxfId="2" priority="193" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N57,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="194" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N57,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="195" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N57,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N93:N96 N104:N108">
-    <cfRule type="beginsWith" dxfId="2" priority="166" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="205" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N93,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="167" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="206" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N93,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="168" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="207" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N93,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N111 N122:N123 N128:N129">
-    <cfRule type="beginsWith" dxfId="2" priority="139" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="178" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N111,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="140" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="179" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N111,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="141" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="180" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N111,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N112 N114 N116:N118">
-    <cfRule type="beginsWith" dxfId="2" priority="91" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="130" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N112,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="92" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="131" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N112,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="93" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="132" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N112,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N139 N143">
-    <cfRule type="beginsWith" dxfId="2" priority="97" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="136" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N139,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="98" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="137" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N139,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="99" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="138" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N139,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N144 N146">
-    <cfRule type="beginsWith" dxfId="2" priority="94" stopIfTrue="1" operator="equal" text="WARN">
+  <conditionalFormatting sqref="N144 N146:N147">
+    <cfRule type="beginsWith" dxfId="2" priority="133" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N144,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="95" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="134" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N144,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="96" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="135" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N144,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C14 C15 C16 C19 C20 C21 C22 C23 C24 C42 C43 C44 C45 C48 C49 C50 C51 C52 C53 C54 C55 C56 C59 C60 C61 C63 C64 C65 C66 C67 C68 C69 C70 C71 C72 C73 C74 C75 C76 C77 C78 C79 C80 C81 C82 C83 C84 C85 C86 C87 C88 C89 C90 C91 C92 C93 C94 C95 C96 C97 C98 C99 C100 C101 C102 C103 C104 C105 C106 C107 C108 C109 C110 C111 C112 C113 C114 C115 C116 C117 C118 C119 C120 C121 C122 C123 C124 C125 C126 C127 C128 C129 C130 C131 C132 C133 C134 C135 C136 C137 C138 C139 C140 C141 C142 C143 C144 C145 C146 C147 C148 C149 C150 C151 C152 C11:C13 C17:C18 C25:C26 C46:C47 C57:C58 C153:C159">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C14 C15 C16 C19 C20 C21 C22 C23 C24 C42 C43 C44 C45 C48 C49 C50 C51 C52 C53 C54 C55 C56 C59 C60 C61 C63 C64 C65 C66 C67 C68 C69 C70 C71 C72 C73 C74 C75 C76 C77 C78 C79 C80 C81 C82 C83 C84 C85 C86 C87 C88 C89 C90 C91 C92 C93 C94 C95 C96 C97 C98 C99 C100 C101 C102 C103 C104 C105 C106 C107 C108 C109 C110 C111 C112 C113 C114 C115 C116 C117 C118 C119 C120 C121 C122 C123 C124 C125 C126 C127 C128 C129 C130 C131 C132 C133 C134 C135 C136 C137 C138 C139 C140 C141 C142 C143 C144 C145 C146 C147 C148 C149 C150 C151 C152 C153 C154 C155 C156 C157 C158 C159 C160 C161 C162 C163 C164 C165 C166 C11:C13 C17:C18 C25:C26 C46:C47 C57:C58 C167:C173">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D8 D9 D10 D14 D15 D16 D19 D20 D21 D22 D23 D24 D29 D42 D43 D44 D45 D48 D49 D50 D51 D52 D53 D54 D55 D56 D59 D60 D61 D63 D64 D65 D66 D68 D69 D70 D71 D72 D73 D74 D75 D76 D77 D78 D79 D80 D81 D82 D83 D84 D85 D86 D87 D88 D89 D90 D91 D92 D93 D94 D95 D96 D97 D98 D99 D100 D101 D102 D103 D104 D105 D106 D107 D108 D109 D110 D111 D112 D113 D114 D115 D116 D117 D118 D119 D120 D121 D122 D123 D124 D125 D126 D127 D128 D129 D130 D131 D132 D133 D134 D135 D136 D137 D138 D139 D140 D141 D142 D143 D144 D145 D146 D147 D148 D149 D150 D151 D152 D11:D13 D17:D18 D25:D26 D46:D47 D57:D58 D153:D159">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D8 D9 D10 D14 D15 D16 D19 D20 D21 D22 D23 D24 D29 D42 D43 D44 D45 D48 D49 D50 D51 D52 D53 D54 D55 D56 D59 D60 D61 D63 D64 D65 D66 D68 D69 D70 D71 D72 D73 D74 D75 D76 D77 D78 D79 D80 D81 D82 D83 D84 D85 D86 D87 D88 D89 D90 D91 D92 D93 D94 D95 D96 D97 D98 D99 D100 D101 D102 D103 D104 D105 D106 D107 D108 D109 D110 D111 D112 D113 D114 D115 D116 D117 D118 D119 D120 D121 D122 D123 D124 D125 D126 D127 D128 D129 D130 D131 D132 D133 D134 D135 D136 D137 D138 D139 D140 D141 D142 D143 D144 D145 D146 D147 D148 D149 D150 D151 D152 D153 D154 D155 D156 D157 D158 D159 D160 D161 D162 D163 D164 D165 D166 D11:D13 D17:D18 D25:D26 D46:D47 D57:D58 D167:D173">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
@@ -17798,7 +18365,7 @@
   <dimension ref="A1:O146"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="E33" sqref="E33:E39"/>
     </sheetView>
@@ -18021,7 +18588,7 @@
     </row>
     <row r="8" s="4" customFormat="1" ht="29" customHeight="1" spans="1:15">
       <c r="A8" s="22" t="s">
-        <v>1099</v>
+        <v>1103</v>
       </c>
       <c r="B8" s="23" t="s">
         <v>760</v>
@@ -18113,7 +18680,7 @@
         <v>769</v>
       </c>
       <c r="F11" s="35" t="s">
-        <v>1100</v>
+        <v>1104</v>
       </c>
       <c r="G11" s="30"/>
       <c r="H11" s="30"/>
@@ -18419,7 +18986,7 @@
     <row r="24" ht="23" customHeight="1" spans="1:15">
       <c r="A24" s="37"/>
       <c r="B24" s="23" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>30</v>
@@ -18428,7 +18995,7 @@
         <v>576</v>
       </c>
       <c r="E24" s="34" t="s">
-        <v>1102</v>
+        <v>1106</v>
       </c>
       <c r="F24" s="39">
         <v>1500</v>
@@ -18689,7 +19256,7 @@
     <row r="34" s="3" customFormat="1" ht="19" customHeight="1" spans="1:15">
       <c r="A34" s="37"/>
       <c r="B34" s="23" t="s">
-        <v>1103</v>
+        <v>1107</v>
       </c>
       <c r="C34" s="41" t="s">
         <v>30</v>
@@ -18698,10 +19265,10 @@
         <v>706</v>
       </c>
       <c r="E34" s="34" t="s">
-        <v>1104</v>
+        <v>1108</v>
       </c>
       <c r="F34" s="34" t="s">
-        <v>1105</v>
+        <v>1109</v>
       </c>
       <c r="G34" s="34"/>
       <c r="H34" s="9"/>
@@ -18716,7 +19283,7 @@
     <row r="35" s="3" customFormat="1" ht="21" customHeight="1" spans="1:15">
       <c r="A35" s="37"/>
       <c r="B35" s="23" t="s">
-        <v>1106</v>
+        <v>1110</v>
       </c>
       <c r="C35" s="41" t="s">
         <v>30</v>
@@ -18725,10 +19292,10 @@
         <v>706</v>
       </c>
       <c r="E35" s="34" t="s">
-        <v>1107</v>
+        <v>1111</v>
       </c>
       <c r="F35" s="34" t="s">
-        <v>1108</v>
+        <v>1112</v>
       </c>
       <c r="G35" s="34"/>
       <c r="H35" s="9"/>
@@ -18743,7 +19310,7 @@
     <row r="36" s="3" customFormat="1" ht="21" customHeight="1" spans="1:15">
       <c r="A36" s="37"/>
       <c r="B36" s="23" t="s">
-        <v>1109</v>
+        <v>1113</v>
       </c>
       <c r="C36" s="41" t="s">
         <v>30</v>
@@ -18752,10 +19319,10 @@
         <v>706</v>
       </c>
       <c r="E36" s="34" t="s">
-        <v>1110</v>
+        <v>1114</v>
       </c>
       <c r="F36" s="34" t="s">
-        <v>1111</v>
+        <v>1115</v>
       </c>
       <c r="G36" s="34"/>
       <c r="H36" s="9"/>
@@ -18782,7 +19349,7 @@
         <v>824</v>
       </c>
       <c r="F37" s="34" t="s">
-        <v>1111</v>
+        <v>1115</v>
       </c>
       <c r="G37" s="34"/>
       <c r="H37" s="9"/>
@@ -18809,7 +19376,7 @@
         <v>827</v>
       </c>
       <c r="F38" s="34" t="s">
-        <v>1112</v>
+        <v>1116</v>
       </c>
       <c r="G38" s="34"/>
       <c r="H38" s="9"/>
@@ -18902,7 +19469,7 @@
     <row r="42" s="3" customFormat="1" spans="1:15">
       <c r="A42" s="1"/>
       <c r="B42" s="23" t="s">
-        <v>1113</v>
+        <v>1117</v>
       </c>
       <c r="C42" s="29" t="s">
         <v>30</v>
@@ -18911,7 +19478,7 @@
         <v>253</v>
       </c>
       <c r="E42" s="30" t="s">
-        <v>1114</v>
+        <v>1118</v>
       </c>
       <c r="F42" s="35"/>
       <c r="G42" s="30"/>
@@ -18927,7 +19494,7 @@
     <row r="43" customFormat="1" ht="29" customHeight="1" spans="1:15">
       <c r="A43" s="37"/>
       <c r="B43" s="23" t="s">
-        <v>1115</v>
+        <v>1119</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>30</v>
@@ -18936,7 +19503,7 @@
         <v>576</v>
       </c>
       <c r="E43" s="34" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
       <c r="F43" s="35">
         <v>1500</v>
@@ -18966,7 +19533,7 @@
         <v>847</v>
       </c>
       <c r="F44" s="35" t="s">
-        <v>1117</v>
+        <v>1121</v>
       </c>
       <c r="G44" s="34"/>
       <c r="H44" s="34"/>
@@ -19020,7 +19587,7 @@
         <v>862</v>
       </c>
       <c r="F46" s="35" t="s">
-        <v>1118</v>
+        <v>1122</v>
       </c>
       <c r="G46" s="34"/>
       <c r="H46" s="34"/>
@@ -19047,7 +19614,7 @@
         <v>865</v>
       </c>
       <c r="F47" s="34" t="s">
-        <v>1119</v>
+        <v>1123</v>
       </c>
       <c r="G47" s="34"/>
       <c r="H47" s="34"/>
@@ -19204,7 +19771,7 @@
         <v>493</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="F53" s="30" t="s">
         <v>882</v>
@@ -19222,7 +19789,7 @@
     <row r="54" s="3" customFormat="1" spans="1:15">
       <c r="A54" s="1"/>
       <c r="B54" s="23" t="s">
-        <v>1121</v>
+        <v>1125</v>
       </c>
       <c r="C54" s="29" t="s">
         <v>5</v>
@@ -19231,7 +19798,7 @@
         <v>536</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="F54" s="30"/>
       <c r="G54" s="30"/>
@@ -19272,7 +19839,7 @@
     </row>
     <row r="56" s="5" customFormat="1" ht="28" spans="1:15">
       <c r="A56" s="22" t="s">
-        <v>1123</v>
+        <v>1127</v>
       </c>
       <c r="B56" s="40" t="s">
         <v>886</v>
@@ -19429,7 +19996,7 @@
         <v>363</v>
       </c>
       <c r="E63" s="30" t="s">
-        <v>1124</v>
+        <v>1128</v>
       </c>
       <c r="F63" s="46"/>
       <c r="G63" s="34"/>
@@ -19526,7 +20093,7 @@
         <v>752</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="H67" s="5" t="s">
         <v>910</v>
@@ -19613,7 +20180,7 @@
         <v>917</v>
       </c>
       <c r="F71" t="s">
-        <v>1125</v>
+        <v>1129</v>
       </c>
       <c r="G71" s="34"/>
       <c r="H71" s="5"/>
@@ -19622,10 +20189,10 @@
     </row>
     <row r="72" ht="42" spans="1:15">
       <c r="A72" s="37" t="s">
-        <v>1126</v>
+        <v>1130</v>
       </c>
       <c r="B72" s="40" t="s">
-        <v>1127</v>
+        <v>1131</v>
       </c>
       <c r="C72" s="41" t="s">
         <v>30</v>
@@ -19634,7 +20201,7 @@
         <v>253</v>
       </c>
       <c r="E72" s="34" t="s">
-        <v>1128</v>
+        <v>1132</v>
       </c>
       <c r="F72" s="34"/>
       <c r="G72" s="34"/>
@@ -19650,7 +20217,7 @@
     <row r="73" customFormat="1" ht="15.5" spans="1:15">
       <c r="A73" s="37"/>
       <c r="B73" s="40" t="s">
-        <v>1129</v>
+        <v>1133</v>
       </c>
       <c r="C73" s="41" t="s">
         <v>30</v>
@@ -19659,10 +20226,10 @@
         <v>319</v>
       </c>
       <c r="E73" s="34" t="s">
-        <v>1130</v>
+        <v>1134</v>
       </c>
       <c r="F73" s="34" t="s">
-        <v>1100</v>
+        <v>1104</v>
       </c>
       <c r="G73" s="34"/>
       <c r="H73" s="34"/>
@@ -19677,7 +20244,7 @@
     <row r="74" customFormat="1" ht="15.5" spans="1:15">
       <c r="A74" s="37"/>
       <c r="B74" s="40" t="s">
-        <v>1131</v>
+        <v>1135</v>
       </c>
       <c r="C74" s="41" t="s">
         <v>30</v>
@@ -19686,7 +20253,7 @@
         <v>319</v>
       </c>
       <c r="E74" s="34" t="s">
-        <v>1132</v>
+        <v>1136</v>
       </c>
       <c r="F74" s="35" t="s">
         <v>777</v>
@@ -19704,7 +20271,7 @@
     <row r="75" customFormat="1" ht="15.5" spans="1:15">
       <c r="A75" s="37"/>
       <c r="B75" s="40" t="s">
-        <v>1133</v>
+        <v>1137</v>
       </c>
       <c r="C75" s="41" t="s">
         <v>30</v>
@@ -19713,7 +20280,7 @@
         <v>319</v>
       </c>
       <c r="E75" s="34" t="s">
-        <v>1134</v>
+        <v>1138</v>
       </c>
       <c r="F75" s="9" t="s">
         <v>785</v>
@@ -19731,7 +20298,7 @@
     <row r="76" customFormat="1" ht="15.5" spans="1:15">
       <c r="A76" s="37"/>
       <c r="B76" s="40" t="s">
-        <v>1135</v>
+        <v>1139</v>
       </c>
       <c r="C76" s="41" t="s">
         <v>30</v>
@@ -19740,10 +20307,10 @@
         <v>535</v>
       </c>
       <c r="E76" s="34" t="s">
-        <v>1136</v>
+        <v>1140</v>
       </c>
       <c r="F76" s="36" t="s">
-        <v>1137</v>
+        <v>1141</v>
       </c>
       <c r="G76" s="34"/>
       <c r="H76" s="34"/>
@@ -19758,7 +20325,7 @@
     <row r="77" customFormat="1" ht="15.5" spans="1:15">
       <c r="A77" s="37"/>
       <c r="B77" s="40" t="s">
-        <v>1138</v>
+        <v>1142</v>
       </c>
       <c r="C77" s="41" t="s">
         <v>30</v>
@@ -19767,10 +20334,10 @@
         <v>535</v>
       </c>
       <c r="E77" s="34" t="s">
-        <v>1139</v>
+        <v>1143</v>
       </c>
       <c r="F77" s="34" t="s">
-        <v>1140</v>
+        <v>1144</v>
       </c>
       <c r="G77" s="34"/>
       <c r="H77" s="34"/>
@@ -19876,7 +20443,7 @@
         <v>941</v>
       </c>
       <c r="F81" s="34" t="s">
-        <v>1141</v>
+        <v>1145</v>
       </c>
       <c r="G81" s="34"/>
       <c r="H81" s="34"/>
@@ -19903,7 +20470,7 @@
         <v>944</v>
       </c>
       <c r="F82" s="34" t="s">
-        <v>1140</v>
+        <v>1144</v>
       </c>
       <c r="G82" s="34"/>
       <c r="H82" s="34"/>
@@ -20119,7 +20686,7 @@
         <v>968</v>
       </c>
       <c r="F90" s="34" t="s">
-        <v>1142</v>
+        <v>1146</v>
       </c>
       <c r="G90" s="34"/>
       <c r="H90" s="34"/>
@@ -20146,7 +20713,7 @@
         <v>970</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="G91" s="34"/>
       <c r="H91" s="34"/>
@@ -20362,7 +20929,7 @@
         <v>984</v>
       </c>
       <c r="F99" s="61" t="s">
-        <v>1143</v>
+        <v>1147</v>
       </c>
       <c r="G99" s="34"/>
       <c r="H99" s="34"/>
@@ -20389,7 +20956,7 @@
         <v>986</v>
       </c>
       <c r="F100" s="34" t="s">
-        <v>1119</v>
+        <v>1123</v>
       </c>
       <c r="G100" s="34"/>
       <c r="H100" s="34"/>
@@ -20443,7 +21010,7 @@
         <v>990</v>
       </c>
       <c r="F102" s="34" t="s">
-        <v>1144</v>
+        <v>1148</v>
       </c>
       <c r="G102" s="34"/>
       <c r="H102" s="34"/>
@@ -20470,7 +21037,7 @@
         <v>993</v>
       </c>
       <c r="F103" s="34" t="s">
-        <v>1145</v>
+        <v>1149</v>
       </c>
       <c r="G103" s="34"/>
       <c r="H103" s="34"/>
@@ -20497,7 +21064,7 @@
         <v>996</v>
       </c>
       <c r="F104" s="34" t="s">
-        <v>1146</v>
+        <v>1150</v>
       </c>
       <c r="G104" s="34"/>
       <c r="H104" s="34"/>
@@ -20578,7 +21145,7 @@
         <v>1004</v>
       </c>
       <c r="F107" s="34" t="s">
-        <v>1147</v>
+        <v>1151</v>
       </c>
       <c r="G107" s="34"/>
       <c r="H107" s="34"/>
@@ -20740,7 +21307,7 @@
         <v>1021</v>
       </c>
       <c r="F113" s="34" t="s">
-        <v>1147</v>
+        <v>1151</v>
       </c>
       <c r="G113" s="34"/>
       <c r="H113" s="34"/>
@@ -20821,7 +21388,7 @@
         <v>1027</v>
       </c>
       <c r="F116" s="34" t="s">
-        <v>1147</v>
+        <v>1151</v>
       </c>
       <c r="G116" s="34"/>
       <c r="H116" s="34"/>
@@ -20848,7 +21415,7 @@
         <v>1029</v>
       </c>
       <c r="F117" s="34" t="s">
-        <v>1148</v>
+        <v>1152</v>
       </c>
       <c r="G117" s="34"/>
       <c r="H117" s="34"/>
@@ -20875,7 +21442,7 @@
         <v>1031</v>
       </c>
       <c r="F118" s="34" t="s">
-        <v>1149</v>
+        <v>1153</v>
       </c>
       <c r="G118" s="34"/>
       <c r="H118" s="34"/>
@@ -22025,7 +22592,7 @@
   <dimension ref="A1:O191"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="B62" sqref="B62"/>
     </sheetView>
@@ -22247,7 +22814,7 @@
     </row>
     <row r="8" s="4" customFormat="1" ht="29" customHeight="1" spans="1:15">
       <c r="A8" s="22" t="s">
-        <v>1150</v>
+        <v>1154</v>
       </c>
       <c r="B8" s="23" t="s">
         <v>760</v>
@@ -22327,7 +22894,7 @@
     </row>
     <row r="11" s="1" customFormat="1" spans="2:15">
       <c r="B11" s="23" t="s">
-        <v>1151</v>
+        <v>1155</v>
       </c>
       <c r="C11" s="29" t="s">
         <v>30</v>
@@ -22336,7 +22903,7 @@
         <v>363</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>1152</v>
+        <v>1156</v>
       </c>
       <c r="F11" s="35"/>
       <c r="G11" s="30"/>
@@ -22387,7 +22954,7 @@
         <v>769</v>
       </c>
       <c r="F13" s="35" t="s">
-        <v>1153</v>
+        <v>1157</v>
       </c>
       <c r="G13" s="30"/>
       <c r="H13" s="30"/>
@@ -22463,7 +23030,7 @@
         <v>776</v>
       </c>
       <c r="F16" s="35" t="s">
-        <v>1154</v>
+        <v>1158</v>
       </c>
       <c r="G16" s="30"/>
       <c r="H16" s="30"/>
@@ -22506,7 +23073,7 @@
         <v>781</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>1155</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="19" ht="22" customHeight="1" spans="2:6">
@@ -22523,7 +23090,7 @@
         <v>784</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>1156</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="20" customFormat="1" ht="19" customHeight="1" spans="1:15">
@@ -22541,7 +23108,7 @@
         <v>787</v>
       </c>
       <c r="F20" s="34" t="s">
-        <v>1157</v>
+        <v>1161</v>
       </c>
       <c r="G20" s="34"/>
       <c r="H20" s="34"/>
@@ -22583,7 +23150,7 @@
     <row r="22" customFormat="1" ht="29" customHeight="1" spans="1:15">
       <c r="A22" s="37"/>
       <c r="B22" s="23" t="s">
-        <v>1158</v>
+        <v>1162</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>30</v>
@@ -22592,7 +23159,7 @@
         <v>576</v>
       </c>
       <c r="E22" s="34" t="s">
-        <v>1159</v>
+        <v>1163</v>
       </c>
       <c r="F22" s="35">
         <v>1500</v>
@@ -22664,7 +23231,7 @@
     <row r="25" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A25" s="37"/>
       <c r="B25" s="23" t="s">
-        <v>1160</v>
+        <v>1164</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>30</v>
@@ -22716,7 +23283,7 @@
     <row r="27" ht="23" customHeight="1" spans="1:15">
       <c r="A27" s="37"/>
       <c r="B27" s="23" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>30</v>
@@ -22725,7 +23292,7 @@
         <v>576</v>
       </c>
       <c r="E27" s="34" t="s">
-        <v>1102</v>
+        <v>1106</v>
       </c>
       <c r="F27" s="39">
         <v>1500</v>
@@ -22770,7 +23337,7 @@
     <row r="29" ht="23" customHeight="1" spans="1:15">
       <c r="A29" s="37"/>
       <c r="B29" s="40" t="s">
-        <v>1161</v>
+        <v>1165</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>30</v>
@@ -22782,7 +23349,7 @@
         <v>813</v>
       </c>
       <c r="F29" s="34" t="s">
-        <v>1157</v>
+        <v>1161</v>
       </c>
       <c r="G29" s="34"/>
       <c r="H29" s="34"/>
@@ -22809,7 +23376,7 @@
         <v>809</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>1156</v>
+        <v>1160</v>
       </c>
       <c r="G30" s="34"/>
       <c r="H30" s="34"/>
@@ -22932,7 +23499,7 @@
     <row r="35" s="3" customFormat="1" ht="19" customHeight="1" spans="1:15">
       <c r="A35" s="37"/>
       <c r="B35" s="23" t="s">
-        <v>1103</v>
+        <v>1107</v>
       </c>
       <c r="C35" s="41" t="s">
         <v>30</v>
@@ -22941,10 +23508,10 @@
         <v>706</v>
       </c>
       <c r="E35" s="34" t="s">
-        <v>1104</v>
+        <v>1108</v>
       </c>
       <c r="F35" s="34" t="s">
-        <v>1105</v>
+        <v>1109</v>
       </c>
       <c r="G35" s="34"/>
       <c r="H35" s="9"/>
@@ -22959,7 +23526,7 @@
     <row r="36" s="3" customFormat="1" ht="21" customHeight="1" spans="1:15">
       <c r="A36" s="37"/>
       <c r="B36" s="23" t="s">
-        <v>1106</v>
+        <v>1110</v>
       </c>
       <c r="C36" s="41" t="s">
         <v>30</v>
@@ -22968,10 +23535,10 @@
         <v>706</v>
       </c>
       <c r="E36" s="34" t="s">
-        <v>1107</v>
+        <v>1111</v>
       </c>
       <c r="F36" s="34" t="s">
-        <v>1108</v>
+        <v>1112</v>
       </c>
       <c r="G36" s="34"/>
       <c r="H36" s="9"/>
@@ -22986,7 +23553,7 @@
     <row r="37" s="3" customFormat="1" ht="21" customHeight="1" spans="1:15">
       <c r="A37" s="37"/>
       <c r="B37" s="23" t="s">
-        <v>1109</v>
+        <v>1113</v>
       </c>
       <c r="C37" s="41" t="s">
         <v>30</v>
@@ -22995,10 +23562,10 @@
         <v>706</v>
       </c>
       <c r="E37" s="34" t="s">
-        <v>1110</v>
+        <v>1114</v>
       </c>
       <c r="F37" s="34" t="s">
-        <v>1111</v>
+        <v>1115</v>
       </c>
       <c r="G37" s="34"/>
       <c r="H37" s="9"/>
@@ -23013,7 +23580,7 @@
     <row r="38" s="3" customFormat="1" ht="21" customHeight="1" spans="1:15">
       <c r="A38" s="37"/>
       <c r="B38" s="23" t="s">
-        <v>1162</v>
+        <v>1166</v>
       </c>
       <c r="C38" s="41" t="s">
         <v>30</v>
@@ -23025,7 +23592,7 @@
         <v>824</v>
       </c>
       <c r="F38" s="34" t="s">
-        <v>1111</v>
+        <v>1115</v>
       </c>
       <c r="G38" s="34"/>
       <c r="H38" s="9"/>
@@ -23052,7 +23619,7 @@
         <v>827</v>
       </c>
       <c r="F39" s="34" t="s">
-        <v>1112</v>
+        <v>1116</v>
       </c>
       <c r="G39" s="34"/>
       <c r="H39" s="9"/>
@@ -23143,7 +23710,7 @@
     <row r="43" s="3" customFormat="1" spans="1:15">
       <c r="A43" s="1"/>
       <c r="B43" s="23" t="s">
-        <v>1113</v>
+        <v>1117</v>
       </c>
       <c r="C43" s="29" t="s">
         <v>30</v>
@@ -23152,7 +23719,7 @@
         <v>253</v>
       </c>
       <c r="E43" s="30" t="s">
-        <v>1114</v>
+        <v>1118</v>
       </c>
       <c r="F43" s="35"/>
       <c r="G43" s="30"/>
@@ -23168,7 +23735,7 @@
     <row r="44" customFormat="1" ht="29" customHeight="1" spans="1:15">
       <c r="A44" s="37"/>
       <c r="B44" s="23" t="s">
-        <v>1115</v>
+        <v>1119</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>30</v>
@@ -23177,7 +23744,7 @@
         <v>576</v>
       </c>
       <c r="E44" s="34" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
       <c r="F44" s="35">
         <v>1500</v>
@@ -23207,7 +23774,7 @@
         <v>847</v>
       </c>
       <c r="F45" s="35" t="s">
-        <v>1117</v>
+        <v>1121</v>
       </c>
       <c r="G45" s="34"/>
       <c r="H45" s="34"/>
@@ -23261,7 +23828,7 @@
         <v>862</v>
       </c>
       <c r="F47" s="35" t="s">
-        <v>1118</v>
+        <v>1122</v>
       </c>
       <c r="G47" s="34"/>
       <c r="H47" s="34"/>
@@ -23288,7 +23855,7 @@
         <v>865</v>
       </c>
       <c r="F48" s="34" t="s">
-        <v>1119</v>
+        <v>1123</v>
       </c>
       <c r="G48" s="34"/>
       <c r="H48" s="34"/>
@@ -23420,7 +23987,7 @@
         <v>253</v>
       </c>
       <c r="E53" s="34" t="s">
-        <v>1163</v>
+        <v>1167</v>
       </c>
       <c r="F53" s="34"/>
       <c r="G53" s="34"/>
@@ -23436,7 +24003,7 @@
     <row r="54" s="3" customFormat="1" spans="1:15">
       <c r="A54" s="1"/>
       <c r="B54" s="23" t="s">
-        <v>1164</v>
+        <v>1168</v>
       </c>
       <c r="C54" s="29" t="s">
         <v>30</v>
@@ -23445,7 +24012,7 @@
         <v>493</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="F54" s="30" t="s">
         <v>882</v>
@@ -23463,7 +24030,7 @@
     <row r="55" s="3" customFormat="1" spans="1:15">
       <c r="A55" s="1"/>
       <c r="B55" s="23" t="s">
-        <v>1121</v>
+        <v>1125</v>
       </c>
       <c r="C55" s="29" t="s">
         <v>5</v>
@@ -23472,7 +24039,7 @@
         <v>536</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="F55" s="30"/>
       <c r="G55" s="30"/>
@@ -23487,7 +24054,7 @@
     </row>
     <row r="56" s="1" customFormat="1" spans="2:15">
       <c r="B56" s="23" t="s">
-        <v>1165</v>
+        <v>1169</v>
       </c>
       <c r="C56" s="29" t="s">
         <v>30</v>
@@ -23513,7 +24080,7 @@
     </row>
     <row r="57" s="5" customFormat="1" ht="42" spans="1:15">
       <c r="A57" s="22" t="s">
-        <v>1123</v>
+        <v>1127</v>
       </c>
       <c r="B57" s="40" t="s">
         <v>886</v>
@@ -23527,7 +24094,6 @@
       <c r="E57" s="35" t="s">
         <v>887</v>
       </c>
-      <c r="F57" s="5"/>
       <c r="G57" s="35"/>
       <c r="H57" s="34"/>
       <c r="I57" s="34"/>
@@ -23671,7 +24237,7 @@
         <v>363</v>
       </c>
       <c r="E64" s="30" t="s">
-        <v>1124</v>
+        <v>1128</v>
       </c>
       <c r="F64" s="46"/>
       <c r="G64" s="34"/>
@@ -23768,7 +24334,7 @@
         <v>752</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="H68" s="5" t="s">
         <v>910</v>
@@ -23855,7 +24421,7 @@
         <v>917</v>
       </c>
       <c r="F72" t="s">
-        <v>1125</v>
+        <v>1129</v>
       </c>
       <c r="G72" s="34"/>
       <c r="H72" s="5"/>
@@ -23864,10 +24430,10 @@
     </row>
     <row r="73" ht="42" spans="1:15">
       <c r="A73" s="37" t="s">
-        <v>1126</v>
+        <v>1130</v>
       </c>
       <c r="B73" s="40" t="s">
-        <v>1127</v>
+        <v>1131</v>
       </c>
       <c r="C73" s="41" t="s">
         <v>30</v>
@@ -23876,7 +24442,7 @@
         <v>253</v>
       </c>
       <c r="E73" s="34" t="s">
-        <v>1128</v>
+        <v>1132</v>
       </c>
       <c r="F73" s="34"/>
       <c r="G73" s="34"/>
@@ -23892,7 +24458,7 @@
     <row r="74" customFormat="1" ht="15.5" spans="1:15">
       <c r="A74" s="37"/>
       <c r="B74" s="40" t="s">
-        <v>1129</v>
+        <v>1133</v>
       </c>
       <c r="C74" s="41" t="s">
         <v>30</v>
@@ -23901,10 +24467,10 @@
         <v>319</v>
       </c>
       <c r="E74" s="34" t="s">
-        <v>1130</v>
+        <v>1134</v>
       </c>
       <c r="F74" s="34" t="s">
-        <v>1100</v>
+        <v>1104</v>
       </c>
       <c r="G74" s="34"/>
       <c r="H74" s="34"/>
@@ -23919,7 +24485,7 @@
     <row r="75" customFormat="1" ht="15.5" spans="1:15">
       <c r="A75" s="37"/>
       <c r="B75" s="40" t="s">
-        <v>1131</v>
+        <v>1135</v>
       </c>
       <c r="C75" s="41" t="s">
         <v>30</v>
@@ -23928,7 +24494,7 @@
         <v>319</v>
       </c>
       <c r="E75" s="34" t="s">
-        <v>1132</v>
+        <v>1136</v>
       </c>
       <c r="F75" s="35" t="s">
         <v>777</v>
@@ -23946,7 +24512,7 @@
     <row r="76" customFormat="1" ht="15.5" spans="1:15">
       <c r="A76" s="37"/>
       <c r="B76" s="40" t="s">
-        <v>1133</v>
+        <v>1137</v>
       </c>
       <c r="C76" s="41" t="s">
         <v>30</v>
@@ -23955,7 +24521,7 @@
         <v>319</v>
       </c>
       <c r="E76" s="34" t="s">
-        <v>1134</v>
+        <v>1138</v>
       </c>
       <c r="F76" s="9" t="s">
         <v>785</v>
@@ -23973,7 +24539,7 @@
     <row r="77" customFormat="1" ht="15.5" spans="1:15">
       <c r="A77" s="37"/>
       <c r="B77" s="40" t="s">
-        <v>1135</v>
+        <v>1139</v>
       </c>
       <c r="C77" s="41" t="s">
         <v>30</v>
@@ -23982,10 +24548,10 @@
         <v>535</v>
       </c>
       <c r="E77" s="34" t="s">
-        <v>1136</v>
+        <v>1140</v>
       </c>
       <c r="F77" s="36" t="s">
-        <v>1137</v>
+        <v>1141</v>
       </c>
       <c r="G77" s="34"/>
       <c r="H77" s="34"/>
@@ -24000,7 +24566,7 @@
     <row r="78" customFormat="1" ht="15.5" spans="1:15">
       <c r="A78" s="37"/>
       <c r="B78" s="40" t="s">
-        <v>1138</v>
+        <v>1142</v>
       </c>
       <c r="C78" s="41" t="s">
         <v>30</v>
@@ -24009,10 +24575,10 @@
         <v>535</v>
       </c>
       <c r="E78" s="34" t="s">
-        <v>1139</v>
+        <v>1143</v>
       </c>
       <c r="F78" s="34" t="s">
-        <v>1140</v>
+        <v>1144</v>
       </c>
       <c r="G78" s="34"/>
       <c r="H78" s="34"/>
@@ -24118,7 +24684,7 @@
         <v>941</v>
       </c>
       <c r="F82" s="34" t="s">
-        <v>1141</v>
+        <v>1145</v>
       </c>
       <c r="G82" s="34"/>
       <c r="H82" s="34"/>
@@ -24145,7 +24711,7 @@
         <v>944</v>
       </c>
       <c r="F83" s="34" t="s">
-        <v>1140</v>
+        <v>1144</v>
       </c>
       <c r="G83" s="34"/>
       <c r="H83" s="34"/>
@@ -24361,7 +24927,7 @@
         <v>968</v>
       </c>
       <c r="F91" s="34" t="s">
-        <v>1142</v>
+        <v>1146</v>
       </c>
       <c r="G91" s="34"/>
       <c r="H91" s="34"/>
@@ -24388,7 +24954,7 @@
         <v>970</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="G92" s="34"/>
       <c r="H92" s="34"/>
@@ -24604,7 +25170,7 @@
         <v>984</v>
       </c>
       <c r="F100" s="61" t="s">
-        <v>1143</v>
+        <v>1147</v>
       </c>
       <c r="G100" s="34"/>
       <c r="H100" s="34"/>
@@ -24631,7 +25197,7 @@
         <v>986</v>
       </c>
       <c r="F101" s="34" t="s">
-        <v>1119</v>
+        <v>1123</v>
       </c>
       <c r="G101" s="34"/>
       <c r="H101" s="34"/>
@@ -24685,7 +25251,7 @@
         <v>990</v>
       </c>
       <c r="F103" s="34" t="s">
-        <v>1144</v>
+        <v>1148</v>
       </c>
       <c r="G103" s="34"/>
       <c r="H103" s="34"/>
@@ -24712,7 +25278,7 @@
         <v>993</v>
       </c>
       <c r="F104" s="34" t="s">
-        <v>1145</v>
+        <v>1149</v>
       </c>
       <c r="G104" s="34"/>
       <c r="H104" s="34"/>
@@ -24739,7 +25305,7 @@
         <v>996</v>
       </c>
       <c r="F105" s="34" t="s">
-        <v>1146</v>
+        <v>1150</v>
       </c>
       <c r="G105" s="34"/>
       <c r="H105" s="34"/>
@@ -24820,7 +25386,7 @@
         <v>1004</v>
       </c>
       <c r="F108" s="34" t="s">
-        <v>1147</v>
+        <v>1151</v>
       </c>
       <c r="G108" s="34"/>
       <c r="H108" s="34"/>
@@ -24982,7 +25548,7 @@
         <v>1021</v>
       </c>
       <c r="F114" s="34" t="s">
-        <v>1147</v>
+        <v>1151</v>
       </c>
       <c r="G114" s="34"/>
       <c r="H114" s="34"/>
@@ -25063,7 +25629,7 @@
         <v>1027</v>
       </c>
       <c r="F117" s="34" t="s">
-        <v>1147</v>
+        <v>1151</v>
       </c>
       <c r="G117" s="34"/>
       <c r="H117" s="34"/>
@@ -25090,7 +25656,7 @@
         <v>1029</v>
       </c>
       <c r="F118" s="34" t="s">
-        <v>1148</v>
+        <v>1152</v>
       </c>
       <c r="G118" s="34"/>
       <c r="H118" s="34"/>
@@ -25117,7 +25683,7 @@
         <v>1031</v>
       </c>
       <c r="F119" s="34" t="s">
-        <v>1149</v>
+        <v>1153</v>
       </c>
       <c r="G119" s="34"/>
       <c r="H119" s="34"/>

--- a/tests/artifact/script/Mobile-Purchase_SaleOrder.xlsx
+++ b/tests/artifact/script/Mobile-Purchase_SaleOrder.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6950" tabRatio="888" firstSheet="2" activeTab="3"/>
+    <workbookView windowWidth="18350" windowHeight="6950" tabRatio="888" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3408" uniqueCount="1170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3400" uniqueCount="1176">
   <si>
     <t>target</t>
   </si>
@@ -3397,6 +3397,9 @@
     <t>${StockOnHand.ProductQty}</t>
   </si>
   <si>
+    <t>Create purchase Order with Supplier details</t>
+  </si>
+  <si>
     <t>Custard (StockQty)</t>
   </si>
   <si>
@@ -3416,6 +3419,15 @@
   </si>
   <si>
     <t>${Item.Discount}</t>
+  </si>
+  <si>
+    <t>Select the purchase Order with Supplier Buyer details from the list</t>
+  </si>
+  <si>
+    <t>Verify the View functionality of recent created purchase Order with Supplier Buyer details</t>
+  </si>
+  <si>
+    <t>Verify Print button</t>
   </si>
   <si>
     <t>Click oprint button from print window</t>
@@ -3595,7 +3607,7 @@
     <t>Paid By Cash</t>
   </si>
   <si>
-    <t>CreatePurchaseOrder</t>
+    <t>CreatePurchaseOrder  with Customer Buyer details</t>
   </si>
   <si>
     <t>Select the Purchase option</t>
@@ -3641,6 +3653,12 @@
   </si>
   <si>
     <t>Close the Purchase Order page</t>
+  </si>
+  <si>
+    <t>Select the Purchase Order with Customer Buyer details from the list</t>
+  </si>
+  <si>
+    <t>Verify the View functionality of recent created Purchase Order with Customer Buyer details</t>
   </si>
 </sst>
 </file>
@@ -3653,7 +3671,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="40">
+  <fonts count="47">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3745,15 +3763,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF1F1F1F"/>
-      <name val="Consolas"/>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.95"/>
-      <color rgb="FF212529"/>
-      <name val="Segoe UI"/>
+      <b/>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3761,6 +3783,53 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="11"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9.95"/>
+      <color rgb="FF212529"/>
+      <name val="Segoe UI"/>
       <charset val="134"/>
     </font>
     <font>
@@ -4314,135 +4383,135 @@
     <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4650,19 +4719,30 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4676,23 +4756,30 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4709,6 +4796,65 @@
     </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -7888,7 +8034,7 @@
       <c r="E5" s="30" t="s">
         <v>747</v>
       </c>
-      <c r="F5" s="83" t="s">
+      <c r="F5" s="108" t="s">
         <v>748</v>
       </c>
       <c r="G5" s="30"/>
@@ -7960,7 +8106,7 @@
   <dimension ref="A1:O164"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="B72" sqref="B72"/>
     </sheetView>
@@ -9625,7 +9771,7 @@
       <c r="D62" s="34" t="s">
         <v>253</v>
       </c>
-      <c r="E62" s="66"/>
+      <c r="E62" s="88"/>
       <c r="F62" s="34"/>
       <c r="G62" s="34"/>
       <c r="H62" s="34"/>
@@ -11352,7 +11498,7 @@
       <c r="E130" s="34" t="s">
         <v>1031</v>
       </c>
-      <c r="F130" s="67" t="s">
+      <c r="F130" s="89" t="s">
         <v>1032</v>
       </c>
       <c r="G130" s="34"/>
@@ -11379,7 +11525,7 @@
       <c r="E131" s="34" t="s">
         <v>1034</v>
       </c>
-      <c r="F131" s="68" t="s">
+      <c r="F131" s="90" t="s">
         <v>1035</v>
       </c>
       <c r="G131" s="34"/>
@@ -11433,7 +11579,7 @@
       <c r="E133" s="34" t="s">
         <v>1040</v>
       </c>
-      <c r="F133" s="68" t="s">
+      <c r="F133" s="90" t="s">
         <v>1041</v>
       </c>
       <c r="G133" s="34"/>
@@ -11511,7 +11657,7 @@
       <c r="D136" s="34" t="s">
         <v>486</v>
       </c>
-      <c r="E136" s="69" t="s">
+      <c r="E136" s="102" t="s">
         <v>1049</v>
       </c>
       <c r="F136" s="34" t="s">
@@ -11541,7 +11687,7 @@
       <c r="D137" s="34" t="s">
         <v>576</v>
       </c>
-      <c r="E137" s="66" t="s">
+      <c r="E137" s="88" t="s">
         <v>1054</v>
       </c>
       <c r="F137" s="34" t="s">
@@ -11557,7 +11703,7 @@
       <c r="N137" s="59"/>
       <c r="O137" s="49"/>
     </row>
-    <row r="138" s="64" customFormat="1" ht="31" spans="1:15">
+    <row r="138" s="100" customFormat="1" ht="31" spans="1:15">
       <c r="A138" s="22"/>
       <c r="B138" s="23" t="s">
         <v>1055</v>
@@ -11568,10 +11714,10 @@
       <c r="D138" s="30" t="s">
         <v>482</v>
       </c>
-      <c r="E138" s="74" t="s">
+      <c r="E138" s="103" t="s">
         <v>1056</v>
       </c>
-      <c r="F138" s="74"/>
+      <c r="F138" s="103"/>
       <c r="G138" s="47"/>
       <c r="H138" s="30"/>
       <c r="I138" s="30"/>
@@ -11582,7 +11728,7 @@
       <c r="N138" s="26"/>
       <c r="O138" s="25"/>
     </row>
-    <row r="139" s="64" customFormat="1" ht="36" customHeight="1" spans="1:15">
+    <row r="139" s="100" customFormat="1" ht="36" customHeight="1" spans="1:15">
       <c r="A139" s="22"/>
       <c r="B139" s="23" t="s">
         <v>1057</v>
@@ -11593,10 +11739,10 @@
       <c r="D139" s="30" t="s">
         <v>655</v>
       </c>
-      <c r="E139" s="64" t="s">
+      <c r="E139" s="100" t="s">
         <v>1058</v>
       </c>
-      <c r="F139" s="75" t="s">
+      <c r="F139" s="104" t="s">
         <v>1059</v>
       </c>
       <c r="G139" s="47"/>
@@ -11609,7 +11755,7 @@
       <c r="N139" s="26"/>
       <c r="O139" s="25"/>
     </row>
-    <row r="140" s="64" customFormat="1" ht="31" spans="1:15">
+    <row r="140" s="100" customFormat="1" ht="31" spans="1:15">
       <c r="A140" s="22"/>
       <c r="B140" s="23" t="s">
         <v>1060</v>
@@ -11620,10 +11766,10 @@
       <c r="D140" s="30" t="s">
         <v>655</v>
       </c>
-      <c r="E140" s="74" t="s">
+      <c r="E140" s="103" t="s">
         <v>1061</v>
       </c>
-      <c r="F140" s="75" t="s">
+      <c r="F140" s="104" t="s">
         <v>1059</v>
       </c>
       <c r="G140" s="47"/>
@@ -11636,8 +11782,8 @@
       <c r="N140" s="26"/>
       <c r="O140" s="25"/>
     </row>
-    <row r="141" s="65" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A141" s="76"/>
+    <row r="141" s="101" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A141" s="105"/>
       <c r="B141" s="28" t="s">
         <v>1062</v>
       </c>
@@ -11647,7 +11793,7 @@
       <c r="D141" s="30" t="s">
         <v>337</v>
       </c>
-      <c r="E141" s="75" t="s">
+      <c r="E141" s="104" t="s">
         <v>1063</v>
       </c>
       <c r="F141" s="28"/>
@@ -11661,8 +11807,8 @@
       <c r="N141" s="26"/>
       <c r="O141" s="25"/>
     </row>
-    <row r="142" s="65" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A142" s="76"/>
+    <row r="142" s="101" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A142" s="105"/>
       <c r="B142" s="28" t="s">
         <v>771</v>
       </c>
@@ -11672,7 +11818,7 @@
       <c r="D142" s="30" t="s">
         <v>540</v>
       </c>
-      <c r="E142" s="77">
+      <c r="E142" s="106">
         <v>3000</v>
       </c>
       <c r="F142" s="28"/>
@@ -11686,8 +11832,8 @@
       <c r="N142" s="26"/>
       <c r="O142" s="25"/>
     </row>
-    <row r="143" s="65" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A143" s="78"/>
+    <row r="143" s="101" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A143" s="107"/>
       <c r="B143" s="28" t="s">
         <v>1064</v>
       </c>
@@ -11697,10 +11843,10 @@
       <c r="D143" s="30" t="s">
         <v>349</v>
       </c>
-      <c r="E143" s="75" t="s">
+      <c r="E143" s="104" t="s">
         <v>1065</v>
       </c>
-      <c r="F143" s="75" t="s">
+      <c r="F143" s="104" t="s">
         <v>1063</v>
       </c>
       <c r="G143" s="47"/>
@@ -12875,12 +13021,12 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O173"/>
+  <dimension ref="A1:O172"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C158" sqref="$A158:$XFD159"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="$A8:$XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -13099,306 +13245,306 @@
       <c r="N7" s="26"/>
       <c r="O7" s="25"/>
     </row>
-    <row r="8" s="4" customFormat="1" ht="29" customHeight="1" spans="1:15">
-      <c r="A8" s="37" t="s">
+    <row r="8" s="63" customFormat="1" ht="29" customHeight="1" spans="1:15">
+      <c r="A8" s="68" t="s">
         <v>1066</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="69" t="s">
         <v>1067</v>
       </c>
-      <c r="C8" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="30" t="s">
+      <c r="C8" s="70" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="42" t="s">
         <v>576</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="42" t="s">
         <v>1068</v>
       </c>
-      <c r="F8" s="32">
+      <c r="F8" s="71">
         <v>1500</v>
       </c>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="25"/>
-    </row>
-    <row r="9" s="4" customFormat="1" ht="28" customHeight="1" spans="1:15">
-      <c r="A9" s="33"/>
-      <c r="B9" s="23" t="s">
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="80"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="82"/>
+      <c r="M8" s="83"/>
+      <c r="N8" s="82"/>
+      <c r="O8" s="81"/>
+    </row>
+    <row r="9" s="63" customFormat="1" ht="28" customHeight="1" spans="1:15">
+      <c r="A9" s="72"/>
+      <c r="B9" s="69" t="s">
         <v>1069</v>
       </c>
-      <c r="C9" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="30" t="s">
+      <c r="C9" s="70" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="42" t="s">
         <v>253</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="42" t="s">
         <v>1070</v>
       </c>
-      <c r="F9" s="32"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="25"/>
-    </row>
-    <row r="10" s="4" customFormat="1" ht="28" customHeight="1" spans="1:15">
-      <c r="A10" s="33"/>
-      <c r="B10" s="23" t="s">
+      <c r="F9" s="71"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="81"/>
+      <c r="L9" s="82"/>
+      <c r="M9" s="83"/>
+      <c r="N9" s="82"/>
+      <c r="O9" s="81"/>
+    </row>
+    <row r="10" s="63" customFormat="1" ht="28" customHeight="1" spans="1:15">
+      <c r="A10" s="72"/>
+      <c r="B10" s="69" t="s">
         <v>1071</v>
       </c>
-      <c r="C10" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="30" t="s">
+      <c r="C10" s="70" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="42" t="s">
         <v>706</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="42" t="s">
         <v>1072</v>
       </c>
-      <c r="F10" s="32" t="s">
+      <c r="F10" s="71" t="s">
         <v>1073</v>
       </c>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="25"/>
-    </row>
-    <row r="11" ht="23" customHeight="1" spans="1:15">
-      <c r="A11" s="37"/>
-      <c r="B11" s="40" t="s">
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="80"/>
+      <c r="K10" s="81"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="83"/>
+      <c r="N10" s="82"/>
+      <c r="O10" s="81"/>
+    </row>
+    <row r="11" s="64" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A11" s="68"/>
+      <c r="B11" s="73" t="s">
         <v>1074</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="75" t="s">
         <v>486</v>
       </c>
-      <c r="E11" s="34" t="s">
+      <c r="E11" s="75" t="s">
         <v>1075</v>
       </c>
-      <c r="F11" s="34" t="s">
+      <c r="F11" s="75" t="s">
         <v>752</v>
       </c>
-      <c r="G11" s="34" t="s">
+      <c r="G11" s="75" t="s">
         <v>1073</v>
       </c>
-      <c r="H11" s="34" t="s">
+      <c r="H11" s="75" t="s">
         <v>1076</v>
       </c>
-      <c r="I11" s="34"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="59"/>
-      <c r="M11" s="60"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="49"/>
-    </row>
-    <row r="12" ht="23" customHeight="1" spans="1:15">
-      <c r="A12" s="37"/>
-      <c r="B12" s="40" t="s">
+      <c r="I11" s="75"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="86"/>
+      <c r="M11" s="87"/>
+      <c r="N11" s="86"/>
+      <c r="O11" s="85"/>
+    </row>
+    <row r="12" s="64" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A12" s="68"/>
+      <c r="B12" s="73" t="s">
         <v>1077</v>
       </c>
-      <c r="C12" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="34" t="s">
+      <c r="C12" s="74" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="75" t="s">
         <v>363</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="75" t="s">
         <v>1078</v>
       </c>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="59"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="59"/>
-      <c r="O12" s="49"/>
-    </row>
-    <row r="13" ht="23" customHeight="1" spans="1:15">
-      <c r="A13" s="37"/>
-      <c r="B13" s="40" t="s">
+      <c r="F12" s="75"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="84"/>
+      <c r="K12" s="85"/>
+      <c r="L12" s="86"/>
+      <c r="M12" s="87"/>
+      <c r="N12" s="86"/>
+      <c r="O12" s="85"/>
+    </row>
+    <row r="13" s="64" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A13" s="68"/>
+      <c r="B13" s="73" t="s">
         <v>1079</v>
       </c>
-      <c r="C13" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="34" t="s">
+      <c r="C13" s="74" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="75" t="s">
         <v>535</v>
       </c>
-      <c r="E13" s="34" t="s">
+      <c r="E13" s="75" t="s">
         <v>1080</v>
       </c>
-      <c r="F13" s="34" t="s">
+      <c r="F13" s="75" t="s">
         <v>1081</v>
       </c>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="60"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="49"/>
-    </row>
-    <row r="14" customFormat="1" ht="45" customHeight="1" spans="1:15">
-      <c r="A14" s="37"/>
-      <c r="B14" s="40" t="s">
+      <c r="G13" s="75"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="84"/>
+      <c r="K13" s="85"/>
+      <c r="L13" s="86"/>
+      <c r="M13" s="87"/>
+      <c r="N13" s="86"/>
+      <c r="O13" s="85"/>
+    </row>
+    <row r="14" s="65" customFormat="1" ht="45" customHeight="1" spans="1:15">
+      <c r="A14" s="68"/>
+      <c r="B14" s="73" t="s">
         <v>899</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="44" t="s">
+      <c r="D14" s="77" t="s">
         <v>471</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="78" t="s">
         <v>900</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="79" t="s">
         <v>971</v>
       </c>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="49"/>
-    </row>
-    <row r="15" ht="23" customHeight="1" spans="1:15">
-      <c r="A15" s="37"/>
-      <c r="B15" s="40" t="s">
+      <c r="G14" s="75"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="85"/>
+      <c r="L14" s="86"/>
+      <c r="M14" s="87"/>
+      <c r="N14" s="86"/>
+      <c r="O14" s="85"/>
+    </row>
+    <row r="15" s="64" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A15" s="68"/>
+      <c r="B15" s="73" t="s">
         <v>1082</v>
       </c>
-      <c r="C15" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="34" t="s">
+      <c r="C15" s="74" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="75" t="s">
         <v>535</v>
       </c>
-      <c r="E15" s="34" t="s">
+      <c r="E15" s="75" t="s">
         <v>1083</v>
       </c>
-      <c r="F15" s="34" t="s">
+      <c r="F15" s="75" t="s">
         <v>904</v>
       </c>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="60"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="49"/>
-    </row>
-    <row r="16" ht="23" customHeight="1" spans="1:15">
-      <c r="A16" s="37"/>
-      <c r="B16" s="40" t="s">
+      <c r="G15" s="75"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="84"/>
+      <c r="K15" s="85"/>
+      <c r="L15" s="86"/>
+      <c r="M15" s="87"/>
+      <c r="N15" s="86"/>
+      <c r="O15" s="85"/>
+    </row>
+    <row r="16" s="64" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A16" s="68"/>
+      <c r="B16" s="73" t="s">
         <v>1084</v>
       </c>
-      <c r="C16" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="34" t="s">
+      <c r="C16" s="74" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="75" t="s">
         <v>363</v>
       </c>
-      <c r="E16" s="34" t="s">
+      <c r="E16" s="75" t="s">
         <v>1085</v>
       </c>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="59"/>
-      <c r="O16" s="49"/>
-    </row>
-    <row r="17" ht="23" customHeight="1" spans="1:15">
-      <c r="A17" s="37"/>
-      <c r="B17" s="40" t="s">
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="84"/>
+      <c r="K16" s="85"/>
+      <c r="L16" s="86"/>
+      <c r="M16" s="87"/>
+      <c r="N16" s="86"/>
+      <c r="O16" s="85"/>
+    </row>
+    <row r="17" s="64" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A17" s="68"/>
+      <c r="B17" s="73" t="s">
         <v>1086</v>
       </c>
-      <c r="C17" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="34" t="s">
+      <c r="C17" s="74" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="75" t="s">
         <v>535</v>
       </c>
-      <c r="E17" s="34" t="s">
+      <c r="E17" s="75" t="s">
         <v>1087</v>
       </c>
-      <c r="F17" s="32" t="s">
+      <c r="F17" s="71" t="s">
         <v>1073</v>
       </c>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="60"/>
-      <c r="N17" s="59"/>
-      <c r="O17" s="49"/>
-    </row>
-    <row r="18" ht="23" customHeight="1" spans="1:15">
-      <c r="A18" s="37"/>
-      <c r="B18" s="40" t="s">
+      <c r="G17" s="75"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="84"/>
+      <c r="K17" s="85"/>
+      <c r="L17" s="86"/>
+      <c r="M17" s="87"/>
+      <c r="N17" s="86"/>
+      <c r="O17" s="85"/>
+    </row>
+    <row r="18" s="64" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A18" s="68"/>
+      <c r="B18" s="73" t="s">
         <v>1088</v>
       </c>
-      <c r="C18" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="34" t="s">
+      <c r="C18" s="74" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="75" t="s">
         <v>493</v>
       </c>
-      <c r="E18" s="34" t="s">
+      <c r="E18" s="75" t="s">
         <v>1089</v>
       </c>
-      <c r="F18" s="34" t="s">
+      <c r="F18" s="75" t="s">
         <v>1090</v>
       </c>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="59"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="59"/>
-      <c r="O18" s="49"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="84"/>
+      <c r="K18" s="85"/>
+      <c r="L18" s="86"/>
+      <c r="M18" s="87"/>
+      <c r="N18" s="86"/>
+      <c r="O18" s="85"/>
     </row>
     <row r="19" s="4" customFormat="1" ht="29" customHeight="1" spans="1:15">
       <c r="A19" s="22" t="s">
-        <v>759</v>
+        <v>1091</v>
       </c>
       <c r="B19" s="23" t="s">
         <v>760</v>
@@ -14078,7 +14224,7 @@
         <v>818</v>
       </c>
       <c r="F44" s="30" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="G44" s="42"/>
       <c r="H44" s="9"/>
@@ -14102,7 +14248,7 @@
         <v>692</v>
       </c>
       <c r="E45" s="34" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="F45" s="34" t="s">
         <v>822</v>
@@ -14129,7 +14275,7 @@
         <v>706</v>
       </c>
       <c r="E46" s="34" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="F46" s="34" t="s">
         <v>828</v>
@@ -14156,10 +14302,10 @@
         <v>493</v>
       </c>
       <c r="E47" s="34" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="F47" s="34" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="G47" s="34"/>
       <c r="H47" s="9"/>
@@ -14183,10 +14329,10 @@
         <v>493</v>
       </c>
       <c r="E48" s="34" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="F48" s="35" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="G48" s="34"/>
       <c r="H48" s="9"/>
@@ -14788,7 +14934,7 @@
       <c r="D71" s="34" t="s">
         <v>253</v>
       </c>
-      <c r="E71" s="66"/>
+      <c r="E71" s="88"/>
       <c r="F71" s="34"/>
       <c r="G71" s="34"/>
       <c r="H71" s="34"/>
@@ -14855,7 +15001,7 @@
     </row>
     <row r="74" s="5" customFormat="1" ht="70" spans="1:15">
       <c r="A74" s="22" t="s">
-        <v>885</v>
+        <v>1099</v>
       </c>
       <c r="B74" s="40" t="s">
         <v>886</v>
@@ -15265,7 +15411,7 @@
     </row>
     <row r="93" ht="84" spans="1:15">
       <c r="A93" s="37" t="s">
-        <v>919</v>
+        <v>1100</v>
       </c>
       <c r="B93" s="40" t="s">
         <v>920</v>
@@ -16515,7 +16661,7 @@
       <c r="E139" s="34" t="s">
         <v>1031</v>
       </c>
-      <c r="F139" s="67" t="s">
+      <c r="F139" s="89" t="s">
         <v>1032</v>
       </c>
       <c r="G139" s="34"/>
@@ -16542,7 +16688,7 @@
       <c r="E140" s="34" t="s">
         <v>1034</v>
       </c>
-      <c r="F140" s="68" t="s">
+      <c r="F140" s="90" t="s">
         <v>1035</v>
       </c>
       <c r="G140" s="34"/>
@@ -16596,7 +16742,7 @@
       <c r="E142" s="34" t="s">
         <v>1040</v>
       </c>
-      <c r="F142" s="68" t="s">
+      <c r="F142" s="90" t="s">
         <v>1041</v>
       </c>
       <c r="G142" s="34"/>
@@ -16661,31 +16807,25 @@
       <c r="N144" s="59"/>
       <c r="O144" s="49"/>
     </row>
-    <row r="145" ht="28" spans="1:15">
+    <row r="145" s="5" customFormat="1" ht="28" spans="1:15">
       <c r="A145" s="37" t="s">
         <v>1047</v>
       </c>
       <c r="B145" s="40" t="s">
-        <v>1048</v>
+        <v>1101</v>
       </c>
       <c r="C145" s="41" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D145" s="34" t="s">
-        <v>486</v>
-      </c>
-      <c r="E145" s="69" t="s">
-        <v>1049</v>
-      </c>
-      <c r="F145" s="34" t="s">
-        <v>1050</v>
-      </c>
-      <c r="G145" s="34" t="s">
-        <v>1051</v>
-      </c>
-      <c r="H145" s="34" t="s">
-        <v>1052</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="E145" s="88" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F145" s="34"/>
+      <c r="G145" s="34"/>
+      <c r="H145" s="34"/>
       <c r="I145" s="34"/>
       <c r="J145" s="58"/>
       <c r="K145" s="49"/>
@@ -16694,551 +16834,542 @@
       <c r="N145" s="59"/>
       <c r="O145" s="49"/>
     </row>
-    <row r="146" s="63" customFormat="1" ht="15.5" spans="2:15">
-      <c r="B146" s="70" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C146" s="71" t="s">
-        <v>30</v>
-      </c>
-      <c r="D146" s="72" t="s">
-        <v>576</v>
-      </c>
-      <c r="E146" s="73" t="s">
-        <v>1054</v>
-      </c>
-      <c r="F146" s="72" t="s">
-        <v>772</v>
-      </c>
-      <c r="G146" s="72"/>
-      <c r="H146" s="72"/>
-      <c r="I146" s="72"/>
-      <c r="J146" s="79"/>
-      <c r="K146" s="80"/>
-      <c r="L146" s="81"/>
-      <c r="M146" s="82"/>
-      <c r="N146" s="81"/>
-      <c r="O146" s="80"/>
-    </row>
-    <row r="147" customFormat="1" spans="2:15">
-      <c r="B147" s="40" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C147" s="41" t="s">
+    <row r="146" s="65" customFormat="1" ht="15.5" spans="2:15">
+      <c r="B146" s="73" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C146" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="D147" s="34" t="s">
+      <c r="D146" s="75" t="s">
         <v>656</v>
       </c>
-      <c r="E147" s="66" t="s">
-        <v>1099</v>
-      </c>
-      <c r="F147" s="66" t="s">
-        <v>1100</v>
-      </c>
-      <c r="G147" s="66"/>
-      <c r="H147" s="34"/>
-      <c r="I147" s="34"/>
-      <c r="J147" s="58"/>
-      <c r="K147" s="49"/>
-      <c r="L147" s="59"/>
-      <c r="M147" s="60"/>
-      <c r="N147" s="59"/>
-      <c r="O147" s="49"/>
-    </row>
-    <row r="148" customFormat="1" spans="2:15">
-      <c r="B148" s="40" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C148" s="41" t="s">
+      <c r="E146" s="91" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F146" s="91" t="s">
+        <v>1104</v>
+      </c>
+      <c r="G146" s="91"/>
+      <c r="H146" s="75"/>
+      <c r="I146" s="75"/>
+      <c r="J146" s="84"/>
+      <c r="K146" s="85"/>
+      <c r="L146" s="86"/>
+      <c r="M146" s="87"/>
+      <c r="N146" s="86"/>
+      <c r="O146" s="85"/>
+    </row>
+    <row r="147" s="65" customFormat="1" ht="15.5" spans="2:15">
+      <c r="B147" s="73" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C147" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="D148" s="34" t="s">
+      <c r="D147" s="75" t="s">
         <v>656</v>
       </c>
-      <c r="E148" s="66" t="s">
-        <v>1099</v>
-      </c>
-      <c r="F148" s="66" t="s">
-        <v>1100</v>
-      </c>
-      <c r="G148" s="66"/>
-      <c r="H148" s="34"/>
-      <c r="I148" s="34"/>
-      <c r="J148" s="58"/>
-      <c r="K148" s="49"/>
-      <c r="L148" s="59"/>
-      <c r="M148" s="60"/>
-      <c r="N148" s="59"/>
-      <c r="O148" s="49"/>
-    </row>
-    <row r="149" customFormat="1" spans="2:15">
-      <c r="B149" s="40" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C149" s="41" t="s">
+      <c r="E147" s="91" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F147" s="91" t="s">
+        <v>1104</v>
+      </c>
+      <c r="G147" s="91"/>
+      <c r="H147" s="75"/>
+      <c r="I147" s="75"/>
+      <c r="J147" s="84"/>
+      <c r="K147" s="85"/>
+      <c r="L147" s="86"/>
+      <c r="M147" s="87"/>
+      <c r="N147" s="86"/>
+      <c r="O147" s="85"/>
+    </row>
+    <row r="148" s="65" customFormat="1" ht="15.5" spans="2:15">
+      <c r="B148" s="73" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C148" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="D149" s="34" t="s">
+      <c r="D148" s="75" t="s">
         <v>656</v>
       </c>
-      <c r="E149" s="66" t="s">
-        <v>1099</v>
-      </c>
-      <c r="F149" s="66" t="s">
-        <v>1100</v>
-      </c>
-      <c r="G149" s="66"/>
-      <c r="H149" s="34"/>
-      <c r="I149" s="34"/>
-      <c r="J149" s="58"/>
-      <c r="K149" s="49"/>
-      <c r="L149" s="59"/>
-      <c r="M149" s="60"/>
-      <c r="N149" s="59"/>
-      <c r="O149" s="49"/>
-    </row>
-    <row r="150" customFormat="1" spans="2:15">
-      <c r="B150" s="40" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C150" s="41" t="s">
+      <c r="E148" s="91" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F148" s="91" t="s">
+        <v>1104</v>
+      </c>
+      <c r="G148" s="91"/>
+      <c r="H148" s="75"/>
+      <c r="I148" s="75"/>
+      <c r="J148" s="84"/>
+      <c r="K148" s="85"/>
+      <c r="L148" s="86"/>
+      <c r="M148" s="87"/>
+      <c r="N148" s="86"/>
+      <c r="O148" s="85"/>
+    </row>
+    <row r="149" s="65" customFormat="1" ht="15.5" spans="2:15">
+      <c r="B149" s="73" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C149" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="D150" s="34" t="s">
+      <c r="D149" s="75" t="s">
         <v>656</v>
       </c>
-      <c r="E150" s="66" t="s">
-        <v>1099</v>
-      </c>
-      <c r="F150" s="66" t="s">
-        <v>1100</v>
-      </c>
-      <c r="G150" s="66"/>
-      <c r="H150" s="34"/>
-      <c r="I150" s="34"/>
-      <c r="J150" s="58"/>
-      <c r="K150" s="49"/>
-      <c r="L150" s="59"/>
-      <c r="M150" s="60"/>
-      <c r="N150" s="59"/>
-      <c r="O150" s="49"/>
-    </row>
-    <row r="151" customFormat="1" spans="2:15">
-      <c r="B151" s="40" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C151" s="41" t="s">
+      <c r="E149" s="91" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F149" s="91" t="s">
+        <v>1104</v>
+      </c>
+      <c r="G149" s="91"/>
+      <c r="H149" s="75"/>
+      <c r="I149" s="75"/>
+      <c r="J149" s="84"/>
+      <c r="K149" s="85"/>
+      <c r="L149" s="86"/>
+      <c r="M149" s="87"/>
+      <c r="N149" s="86"/>
+      <c r="O149" s="85"/>
+    </row>
+    <row r="150" s="65" customFormat="1" ht="15.5" spans="2:15">
+      <c r="B150" s="73" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C150" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="D151" s="34" t="s">
+      <c r="D150" s="75" t="s">
         <v>656</v>
       </c>
-      <c r="E151" s="66" t="s">
-        <v>1099</v>
-      </c>
-      <c r="F151" s="66" t="s">
-        <v>1100</v>
-      </c>
-      <c r="G151" s="66"/>
-      <c r="H151" s="34"/>
-      <c r="I151" s="34"/>
-      <c r="J151" s="58"/>
-      <c r="K151" s="49"/>
-      <c r="L151" s="59"/>
-      <c r="M151" s="60"/>
-      <c r="N151" s="59"/>
-      <c r="O151" s="49"/>
-    </row>
-    <row r="152" customFormat="1" spans="2:15">
-      <c r="B152" s="40" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C152" s="41" t="s">
+      <c r="E150" s="91" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F150" s="91" t="s">
+        <v>1104</v>
+      </c>
+      <c r="G150" s="91"/>
+      <c r="H150" s="75"/>
+      <c r="I150" s="75"/>
+      <c r="J150" s="84"/>
+      <c r="K150" s="85"/>
+      <c r="L150" s="86"/>
+      <c r="M150" s="87"/>
+      <c r="N150" s="86"/>
+      <c r="O150" s="85"/>
+    </row>
+    <row r="151" s="65" customFormat="1" ht="15.5" spans="2:15">
+      <c r="B151" s="73" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C151" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="D152" s="34" t="s">
+      <c r="D151" s="75" t="s">
         <v>656</v>
       </c>
-      <c r="E152" s="66" t="s">
-        <v>1099</v>
-      </c>
-      <c r="F152" s="66" t="s">
-        <v>1100</v>
-      </c>
-      <c r="G152" s="66"/>
-      <c r="H152" s="34"/>
-      <c r="I152" s="34"/>
-      <c r="J152" s="58"/>
-      <c r="K152" s="49"/>
-      <c r="L152" s="59"/>
-      <c r="M152" s="60"/>
-      <c r="N152" s="59"/>
-      <c r="O152" s="49"/>
-    </row>
-    <row r="153" customFormat="1" spans="2:15">
-      <c r="B153" s="40" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C153" s="41" t="s">
+      <c r="E151" s="91" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F151" s="91" t="s">
+        <v>1104</v>
+      </c>
+      <c r="G151" s="91"/>
+      <c r="H151" s="75"/>
+      <c r="I151" s="75"/>
+      <c r="J151" s="84"/>
+      <c r="K151" s="85"/>
+      <c r="L151" s="86"/>
+      <c r="M151" s="87"/>
+      <c r="N151" s="86"/>
+      <c r="O151" s="85"/>
+    </row>
+    <row r="152" s="65" customFormat="1" ht="15.5" spans="2:15">
+      <c r="B152" s="73" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C152" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="D153" s="34" t="s">
+      <c r="D152" s="75" t="s">
         <v>656</v>
       </c>
-      <c r="E153" s="66" t="s">
-        <v>1099</v>
-      </c>
-      <c r="F153" s="66" t="s">
-        <v>1100</v>
-      </c>
-      <c r="G153" s="66"/>
-      <c r="H153" s="34"/>
-      <c r="I153" s="34"/>
-      <c r="J153" s="58"/>
-      <c r="K153" s="49"/>
-      <c r="L153" s="59"/>
-      <c r="M153" s="60"/>
-      <c r="N153" s="59"/>
-      <c r="O153" s="49"/>
-    </row>
-    <row r="154" customFormat="1" spans="2:15">
-      <c r="B154" s="40" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C154" s="41" t="s">
+      <c r="E152" s="91" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F152" s="91" t="s">
+        <v>1104</v>
+      </c>
+      <c r="G152" s="91"/>
+      <c r="H152" s="75"/>
+      <c r="I152" s="75"/>
+      <c r="J152" s="84"/>
+      <c r="K152" s="85"/>
+      <c r="L152" s="86"/>
+      <c r="M152" s="87"/>
+      <c r="N152" s="86"/>
+      <c r="O152" s="85"/>
+    </row>
+    <row r="153" s="65" customFormat="1" ht="15.5" spans="2:15">
+      <c r="B153" s="73" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C153" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="D154" s="34" t="s">
+      <c r="D153" s="75" t="s">
         <v>656</v>
       </c>
-      <c r="E154" s="66" t="s">
-        <v>1099</v>
-      </c>
-      <c r="F154" s="66" t="s">
-        <v>1100</v>
-      </c>
-      <c r="G154" s="66"/>
-      <c r="H154" s="34"/>
-      <c r="I154" s="34"/>
-      <c r="J154" s="58"/>
-      <c r="K154" s="49"/>
-      <c r="L154" s="59"/>
-      <c r="M154" s="60"/>
-      <c r="N154" s="59"/>
-      <c r="O154" s="49"/>
-    </row>
-    <row r="155" customFormat="1" spans="2:15">
-      <c r="B155" s="40" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C155" s="41" t="s">
+      <c r="E153" s="91" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F153" s="91" t="s">
+        <v>1104</v>
+      </c>
+      <c r="G153" s="91"/>
+      <c r="H153" s="75"/>
+      <c r="I153" s="75"/>
+      <c r="J153" s="84"/>
+      <c r="K153" s="85"/>
+      <c r="L153" s="86"/>
+      <c r="M153" s="87"/>
+      <c r="N153" s="86"/>
+      <c r="O153" s="85"/>
+    </row>
+    <row r="154" s="65" customFormat="1" ht="15.5" spans="2:15">
+      <c r="B154" s="73" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C154" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="D155" s="34" t="s">
+      <c r="D154" s="75" t="s">
         <v>656</v>
       </c>
-      <c r="E155" s="66" t="s">
-        <v>1099</v>
-      </c>
-      <c r="F155" s="66" t="s">
-        <v>1100</v>
-      </c>
-      <c r="G155" s="66"/>
-      <c r="H155" s="34"/>
-      <c r="I155" s="34"/>
-      <c r="J155" s="58"/>
-      <c r="K155" s="49"/>
-      <c r="L155" s="59"/>
-      <c r="M155" s="60"/>
-      <c r="N155" s="59"/>
-      <c r="O155" s="49"/>
-    </row>
-    <row r="156" customFormat="1" spans="2:15">
-      <c r="B156" s="40" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C156" s="41" t="s">
+      <c r="E154" s="91" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F154" s="91" t="s">
+        <v>1104</v>
+      </c>
+      <c r="G154" s="91"/>
+      <c r="H154" s="75"/>
+      <c r="I154" s="75"/>
+      <c r="J154" s="84"/>
+      <c r="K154" s="85"/>
+      <c r="L154" s="86"/>
+      <c r="M154" s="87"/>
+      <c r="N154" s="86"/>
+      <c r="O154" s="85"/>
+    </row>
+    <row r="155" s="65" customFormat="1" ht="15.5" spans="2:15">
+      <c r="B155" s="73" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C155" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="D156" s="34" t="s">
+      <c r="D155" s="75" t="s">
         <v>656</v>
       </c>
-      <c r="E156" s="66" t="s">
-        <v>1099</v>
-      </c>
-      <c r="F156" s="66" t="s">
-        <v>1100</v>
-      </c>
-      <c r="G156" s="66"/>
-      <c r="H156" s="34"/>
-      <c r="I156" s="34"/>
-      <c r="J156" s="58"/>
-      <c r="K156" s="49"/>
-      <c r="L156" s="59"/>
-      <c r="M156" s="60"/>
-      <c r="N156" s="59"/>
-      <c r="O156" s="49"/>
-    </row>
-    <row r="157" customFormat="1" spans="2:15">
-      <c r="B157" s="40" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C157" s="41" t="s">
+      <c r="E155" s="91" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F155" s="91" t="s">
+        <v>1104</v>
+      </c>
+      <c r="G155" s="91"/>
+      <c r="H155" s="75"/>
+      <c r="I155" s="75"/>
+      <c r="J155" s="84"/>
+      <c r="K155" s="85"/>
+      <c r="L155" s="86"/>
+      <c r="M155" s="87"/>
+      <c r="N155" s="86"/>
+      <c r="O155" s="85"/>
+    </row>
+    <row r="156" s="65" customFormat="1" ht="15.5" spans="2:15">
+      <c r="B156" s="73" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C156" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="D157" s="34" t="s">
+      <c r="D156" s="75" t="s">
         <v>656</v>
       </c>
-      <c r="E157" s="66" t="s">
-        <v>1099</v>
-      </c>
-      <c r="F157" s="66" t="s">
-        <v>1100</v>
-      </c>
-      <c r="G157" s="66"/>
-      <c r="H157" s="34"/>
-      <c r="I157" s="34"/>
-      <c r="J157" s="58"/>
-      <c r="K157" s="49"/>
-      <c r="L157" s="59"/>
-      <c r="M157" s="60"/>
-      <c r="N157" s="59"/>
-      <c r="O157" s="49"/>
-    </row>
-    <row r="158" customFormat="1" spans="2:15">
-      <c r="B158" s="40" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C158" s="41" t="s">
+      <c r="E156" s="91" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F156" s="91" t="s">
+        <v>1104</v>
+      </c>
+      <c r="G156" s="91"/>
+      <c r="H156" s="75"/>
+      <c r="I156" s="75"/>
+      <c r="J156" s="84"/>
+      <c r="K156" s="85"/>
+      <c r="L156" s="86"/>
+      <c r="M156" s="87"/>
+      <c r="N156" s="86"/>
+      <c r="O156" s="85"/>
+    </row>
+    <row r="157" s="65" customFormat="1" ht="15.5" spans="2:15">
+      <c r="B157" s="73" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C157" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="D158" s="34" t="s">
+      <c r="D157" s="75" t="s">
         <v>656</v>
       </c>
-      <c r="E158" s="66" t="s">
-        <v>1099</v>
-      </c>
-      <c r="F158" s="66" t="s">
-        <v>1100</v>
-      </c>
-      <c r="G158" s="66"/>
-      <c r="H158" s="34"/>
-      <c r="I158" s="34"/>
-      <c r="J158" s="58"/>
-      <c r="K158" s="49"/>
-      <c r="L158" s="59"/>
-      <c r="M158" s="60"/>
-      <c r="N158" s="59"/>
-      <c r="O158" s="49"/>
-    </row>
-    <row r="159" customFormat="1" spans="2:15">
-      <c r="B159" s="40" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C159" s="41" t="s">
+      <c r="E157" s="91" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F157" s="91" t="s">
+        <v>1104</v>
+      </c>
+      <c r="G157" s="91"/>
+      <c r="H157" s="75"/>
+      <c r="I157" s="75"/>
+      <c r="J157" s="84"/>
+      <c r="K157" s="85"/>
+      <c r="L157" s="86"/>
+      <c r="M157" s="87"/>
+      <c r="N157" s="86"/>
+      <c r="O157" s="85"/>
+    </row>
+    <row r="158" s="65" customFormat="1" ht="15.5" spans="2:15">
+      <c r="B158" s="73" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C158" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="D159" s="34" t="s">
+      <c r="D158" s="75" t="s">
         <v>656</v>
       </c>
-      <c r="E159" s="66" t="s">
-        <v>1099</v>
-      </c>
-      <c r="F159" s="66" t="s">
-        <v>1100</v>
-      </c>
-      <c r="G159" s="66"/>
-      <c r="H159" s="34"/>
-      <c r="I159" s="34"/>
-      <c r="J159" s="58"/>
-      <c r="K159" s="49"/>
-      <c r="L159" s="59"/>
-      <c r="M159" s="60"/>
-      <c r="N159" s="59"/>
-      <c r="O159" s="49"/>
-    </row>
-    <row r="160" customFormat="1" spans="2:15">
-      <c r="B160" s="40" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C160" s="41" t="s">
+      <c r="E158" s="91" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F158" s="91" t="s">
+        <v>1104</v>
+      </c>
+      <c r="G158" s="91"/>
+      <c r="H158" s="75"/>
+      <c r="I158" s="75"/>
+      <c r="J158" s="84"/>
+      <c r="K158" s="85"/>
+      <c r="L158" s="86"/>
+      <c r="M158" s="87"/>
+      <c r="N158" s="86"/>
+      <c r="O158" s="85"/>
+    </row>
+    <row r="159" s="65" customFormat="1" ht="15.5" spans="2:15">
+      <c r="B159" s="73" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C159" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="D160" s="34" t="s">
+      <c r="D159" s="75" t="s">
         <v>656</v>
       </c>
-      <c r="E160" s="66" t="s">
-        <v>1099</v>
-      </c>
-      <c r="F160" s="66" t="s">
-        <v>1101</v>
-      </c>
-      <c r="G160" s="66"/>
-      <c r="H160" s="34"/>
-      <c r="I160" s="34"/>
-      <c r="J160" s="58"/>
-      <c r="K160" s="49"/>
-      <c r="L160" s="59"/>
-      <c r="M160" s="60"/>
-      <c r="N160" s="59"/>
-      <c r="O160" s="49"/>
-    </row>
-    <row r="161" s="64" customFormat="1" ht="77.5" spans="1:15">
-      <c r="A161" s="22"/>
-      <c r="B161" s="23" t="s">
+      <c r="E159" s="91" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F159" s="91" t="s">
+        <v>1105</v>
+      </c>
+      <c r="G159" s="91"/>
+      <c r="H159" s="75"/>
+      <c r="I159" s="75"/>
+      <c r="J159" s="84"/>
+      <c r="K159" s="85"/>
+      <c r="L159" s="86"/>
+      <c r="M159" s="87"/>
+      <c r="N159" s="86"/>
+      <c r="O159" s="85"/>
+    </row>
+    <row r="160" s="66" customFormat="1" ht="77.5" spans="1:15">
+      <c r="A160" s="92"/>
+      <c r="B160" s="69" t="s">
         <v>1055</v>
       </c>
-      <c r="C161" s="29" t="s">
+      <c r="C160" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="D161" s="30" t="s">
+      <c r="D160" s="42" t="s">
         <v>482</v>
       </c>
-      <c r="E161" s="74" t="s">
-        <v>1102</v>
-      </c>
-      <c r="F161" s="74"/>
-      <c r="G161" s="47"/>
-      <c r="H161" s="30"/>
-      <c r="I161" s="30"/>
-      <c r="J161" s="57"/>
-      <c r="K161" s="25"/>
-      <c r="L161" s="26"/>
-      <c r="M161" s="24"/>
-      <c r="N161" s="26"/>
-      <c r="O161" s="25"/>
-    </row>
-    <row r="162" s="64" customFormat="1" ht="36" customHeight="1" spans="1:15">
-      <c r="A162" s="22"/>
-      <c r="B162" s="23" t="s">
+      <c r="E160" s="93" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F160" s="93"/>
+      <c r="G160" s="94"/>
+      <c r="H160" s="42"/>
+      <c r="I160" s="42"/>
+      <c r="J160" s="80"/>
+      <c r="K160" s="81"/>
+      <c r="L160" s="82"/>
+      <c r="M160" s="83"/>
+      <c r="N160" s="82"/>
+      <c r="O160" s="81"/>
+    </row>
+    <row r="161" s="66" customFormat="1" ht="36" customHeight="1" spans="1:15">
+      <c r="A161" s="92"/>
+      <c r="B161" s="69" t="s">
         <v>1057</v>
       </c>
-      <c r="C162" s="29" t="s">
+      <c r="C161" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="D162" s="30" t="s">
+      <c r="D161" s="42" t="s">
         <v>655</v>
       </c>
-      <c r="E162" s="64" t="s">
+      <c r="E161" s="66" t="s">
         <v>1058</v>
       </c>
-      <c r="F162" s="75" t="s">
+      <c r="F161" s="95" t="s">
         <v>1059</v>
       </c>
-      <c r="G162" s="47"/>
-      <c r="H162" s="30"/>
-      <c r="I162" s="30"/>
-      <c r="J162" s="57"/>
-      <c r="K162" s="25"/>
-      <c r="L162" s="26"/>
-      <c r="M162" s="24"/>
-      <c r="N162" s="26"/>
-      <c r="O162" s="25"/>
-    </row>
-    <row r="163" s="64" customFormat="1" ht="31" spans="1:15">
-      <c r="A163" s="22"/>
-      <c r="B163" s="23" t="s">
+      <c r="G161" s="94"/>
+      <c r="H161" s="42"/>
+      <c r="I161" s="42"/>
+      <c r="J161" s="80"/>
+      <c r="K161" s="81"/>
+      <c r="L161" s="82"/>
+      <c r="M161" s="83"/>
+      <c r="N161" s="82"/>
+      <c r="O161" s="81"/>
+    </row>
+    <row r="162" s="66" customFormat="1" ht="31" spans="1:15">
+      <c r="A162" s="92"/>
+      <c r="B162" s="69" t="s">
         <v>1060</v>
       </c>
-      <c r="C163" s="29" t="s">
+      <c r="C162" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="D163" s="30" t="s">
+      <c r="D162" s="42" t="s">
         <v>655</v>
       </c>
-      <c r="E163" s="74" t="s">
+      <c r="E162" s="93" t="s">
         <v>1061</v>
       </c>
-      <c r="F163" s="75" t="s">
+      <c r="F162" s="95" t="s">
         <v>1059</v>
       </c>
-      <c r="G163" s="47"/>
-      <c r="H163" s="30"/>
-      <c r="I163" s="30"/>
-      <c r="J163" s="57"/>
-      <c r="K163" s="25"/>
-      <c r="L163" s="26"/>
-      <c r="M163" s="24"/>
-      <c r="N163" s="26"/>
-      <c r="O163" s="25"/>
-    </row>
-    <row r="164" s="65" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A164" s="76"/>
-      <c r="B164" s="28" t="s">
+      <c r="G162" s="94"/>
+      <c r="H162" s="42"/>
+      <c r="I162" s="42"/>
+      <c r="J162" s="80"/>
+      <c r="K162" s="81"/>
+      <c r="L162" s="82"/>
+      <c r="M162" s="83"/>
+      <c r="N162" s="82"/>
+      <c r="O162" s="81"/>
+    </row>
+    <row r="163" s="67" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A163" s="96"/>
+      <c r="B163" s="97" t="s">
         <v>1062</v>
       </c>
-      <c r="C164" s="29" t="s">
+      <c r="C163" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D164" s="30" t="s">
+      <c r="D163" s="42" t="s">
         <v>337</v>
       </c>
-      <c r="E164" s="75" t="s">
+      <c r="E163" s="95" t="s">
         <v>1063</v>
       </c>
-      <c r="F164" s="28"/>
-      <c r="G164" s="47"/>
-      <c r="H164" s="30"/>
-      <c r="I164" s="30"/>
-      <c r="J164" s="57"/>
-      <c r="K164" s="25"/>
-      <c r="L164" s="26"/>
-      <c r="M164" s="24"/>
-      <c r="N164" s="26"/>
-      <c r="O164" s="25"/>
-    </row>
-    <row r="165" s="65" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A165" s="76"/>
-      <c r="B165" s="28" t="s">
+      <c r="F163" s="97"/>
+      <c r="G163" s="94"/>
+      <c r="H163" s="42"/>
+      <c r="I163" s="42"/>
+      <c r="J163" s="80"/>
+      <c r="K163" s="81"/>
+      <c r="L163" s="82"/>
+      <c r="M163" s="83"/>
+      <c r="N163" s="82"/>
+      <c r="O163" s="81"/>
+    </row>
+    <row r="164" s="67" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A164" s="96"/>
+      <c r="B164" s="97" t="s">
         <v>771</v>
       </c>
-      <c r="C165" s="29" t="s">
+      <c r="C164" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="D165" s="30" t="s">
+      <c r="D164" s="42" t="s">
         <v>540</v>
       </c>
-      <c r="E165" s="77">
+      <c r="E164" s="98">
         <v>3000</v>
       </c>
-      <c r="F165" s="28"/>
-      <c r="G165" s="47"/>
-      <c r="H165" s="30"/>
-      <c r="I165" s="30"/>
-      <c r="J165" s="57"/>
-      <c r="K165" s="25"/>
-      <c r="L165" s="26"/>
-      <c r="M165" s="24"/>
-      <c r="N165" s="26"/>
-      <c r="O165" s="25"/>
-    </row>
-    <row r="166" s="65" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A166" s="78"/>
-      <c r="B166" s="28" t="s">
+      <c r="F164" s="97"/>
+      <c r="G164" s="94"/>
+      <c r="H164" s="42"/>
+      <c r="I164" s="42"/>
+      <c r="J164" s="80"/>
+      <c r="K164" s="81"/>
+      <c r="L164" s="82"/>
+      <c r="M164" s="83"/>
+      <c r="N164" s="82"/>
+      <c r="O164" s="81"/>
+    </row>
+    <row r="165" s="67" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A165" s="99"/>
+      <c r="B165" s="97" t="s">
         <v>1064</v>
       </c>
-      <c r="C166" s="29" t="s">
+      <c r="C165" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D166" s="30" t="s">
+      <c r="D165" s="42" t="s">
         <v>349</v>
       </c>
-      <c r="E166" s="75" t="s">
+      <c r="E165" s="95" t="s">
         <v>1065</v>
       </c>
-      <c r="F166" s="75" t="s">
+      <c r="F165" s="95" t="s">
         <v>1063</v>
       </c>
-      <c r="G166" s="47"/>
-      <c r="H166" s="30"/>
-      <c r="I166" s="30"/>
-      <c r="J166" s="57"/>
-      <c r="K166" s="25"/>
-      <c r="L166" s="26"/>
-      <c r="M166" s="24"/>
-      <c r="N166" s="26"/>
-      <c r="O166" s="25"/>
+      <c r="G165" s="94"/>
+      <c r="H165" s="42"/>
+      <c r="I165" s="42"/>
+      <c r="J165" s="80"/>
+      <c r="K165" s="81"/>
+      <c r="L165" s="82"/>
+      <c r="M165" s="83"/>
+      <c r="N165" s="82"/>
+      <c r="O165" s="81"/>
+    </row>
+    <row r="166" ht="23" customHeight="1" spans="1:15">
+      <c r="A166" s="37"/>
+      <c r="B166" s="40"/>
+      <c r="C166" s="41"/>
+      <c r="D166" s="34"/>
+      <c r="E166" s="34"/>
+      <c r="F166" s="34"/>
+      <c r="G166" s="34"/>
+      <c r="H166" s="34"/>
+      <c r="I166" s="34"/>
+      <c r="J166" s="58"/>
+      <c r="K166" s="49"/>
+      <c r="L166" s="59"/>
+      <c r="M166" s="60"/>
+      <c r="N166" s="59"/>
+      <c r="O166" s="49"/>
     </row>
     <row r="167" ht="23" customHeight="1" spans="1:15">
       <c r="A167" s="37"/>
@@ -17342,23 +17473,6 @@
       <c r="N172" s="59"/>
       <c r="O172" s="49"/>
     </row>
-    <row r="173" ht="23" customHeight="1" spans="1:15">
-      <c r="A173" s="37"/>
-      <c r="B173" s="40"/>
-      <c r="C173" s="41"/>
-      <c r="D173" s="34"/>
-      <c r="E173" s="34"/>
-      <c r="F173" s="34"/>
-      <c r="G173" s="34"/>
-      <c r="H173" s="34"/>
-      <c r="I173" s="34"/>
-      <c r="J173" s="58"/>
-      <c r="K173" s="49"/>
-      <c r="L173" s="59"/>
-      <c r="M173" s="60"/>
-      <c r="N173" s="59"/>
-      <c r="O173" s="49"/>
-    </row>
   </sheetData>
   <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
   <mergeCells count="4">
@@ -17895,180 +18009,180 @@
       <formula>LEFT(N142,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="N147">
+    <cfRule type="beginsWith" dxfId="2" priority="34" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N147,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="35" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N147,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="36" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N147,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N148">
-    <cfRule type="beginsWith" dxfId="2" priority="34" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="31" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N148,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="35" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="32" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N148,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="36" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="33" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N148,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N149">
-    <cfRule type="beginsWith" dxfId="2" priority="31" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="28" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N149,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="32" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="29" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N149,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="33" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="30" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N149,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N150">
-    <cfRule type="beginsWith" dxfId="0" priority="30" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="25" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N150,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="26" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N150,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="27" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N150,LEN("PASS"))="PASS"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="29" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N150,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="28" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N150,LEN("WARN"))="WARN"</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N151">
-    <cfRule type="beginsWith" dxfId="0" priority="27" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="22" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N151,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="23" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N151,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="24" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N151,LEN("PASS"))="PASS"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="26" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N151,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="25" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N151,LEN("WARN"))="WARN"</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N152">
-    <cfRule type="beginsWith" dxfId="2" priority="22" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="19" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N152,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="23" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="20" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N152,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="24" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="21" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N152,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N153">
-    <cfRule type="beginsWith" dxfId="0" priority="21" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="16" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N153,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="17" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N153,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="18" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N153,LEN("PASS"))="PASS"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="20" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N153,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="19" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N153,LEN("WARN"))="WARN"</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N154">
-    <cfRule type="beginsWith" dxfId="2" priority="16" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="13" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N154,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="17" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="14" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N154,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="18" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="15" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N154,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N155">
-    <cfRule type="beginsWith" dxfId="2" priority="13" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="10" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N155,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="14" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="11" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N155,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="15" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="12" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N155,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N156">
-    <cfRule type="beginsWith" dxfId="2" priority="10" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="7" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N156,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="11" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="8" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N156,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="12" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="9" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N156,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N157">
-    <cfRule type="beginsWith" dxfId="2" priority="7" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="4" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N157,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="8" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="5" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N157,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="9" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="6" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N157,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N158">
-    <cfRule type="beginsWith" dxfId="0" priority="6" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N158,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N158,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="3" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N158,LEN("PASS"))="PASS"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="5" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N158,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="4" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N158,LEN("WARN"))="WARN"</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N159">
-    <cfRule type="beginsWith" dxfId="0" priority="3" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="37" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N159,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="38" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N159,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="39" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N159,LEN("PASS"))="PASS"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N159,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N159,LEN("WARN"))="WARN"</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N160">
-    <cfRule type="beginsWith" dxfId="2" priority="37" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="73" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N160,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="38" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="74" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N160,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="39" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="75" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N160,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N161">
-    <cfRule type="beginsWith" dxfId="2" priority="73" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="70" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N161,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="74" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="71" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N161,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="75" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="72" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N161,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N162">
-    <cfRule type="beginsWith" dxfId="2" priority="70" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="64" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N162,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="71" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="65" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N162,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="72" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="66" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N162,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N163">
-    <cfRule type="beginsWith" dxfId="2" priority="64" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N163,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="65" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N163,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="66" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N163,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3:N4">
@@ -18247,18 +18361,29 @@
       <formula>LEFT(N119,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N164:N166">
+  <conditionalFormatting sqref="N144:N146">
+    <cfRule type="beginsWith" dxfId="2" priority="133" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N144,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="134" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N144,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="135" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N144,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N163:N165">
     <cfRule type="beginsWith" dxfId="2" priority="67" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N164,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N163,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="68" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N164,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N163,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="0" priority="69" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N164,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N11:N13 N145 N17:N18 N167:N173">
+      <formula>LEFT(N163,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N11:N13 N17:N18 N166:N172">
     <cfRule type="beginsWith" dxfId="2" priority="271" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N11,LEN("WARN"))="WARN"</formula>
     </cfRule>
@@ -18335,22 +18460,11 @@
       <formula>LEFT(N139,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N144 N146:N147">
-    <cfRule type="beginsWith" dxfId="2" priority="133" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N144,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="134" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N144,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="135" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N144,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C14 C15 C16 C19 C20 C21 C22 C23 C24 C42 C43 C44 C45 C48 C49 C50 C51 C52 C53 C54 C55 C56 C59 C60 C61 C63 C64 C65 C66 C67 C68 C69 C70 C71 C72 C73 C74 C75 C76 C77 C78 C79 C80 C81 C82 C83 C84 C85 C86 C87 C88 C89 C90 C91 C92 C93 C94 C95 C96 C97 C98 C99 C100 C101 C102 C103 C104 C105 C106 C107 C108 C109 C110 C111 C112 C113 C114 C115 C116 C117 C118 C119 C120 C121 C122 C123 C124 C125 C126 C127 C128 C129 C130 C131 C132 C133 C134 C135 C136 C137 C138 C139 C140 C141 C142 C143 C144 C145 C146 C147 C148 C149 C150 C151 C152 C153 C154 C155 C156 C157 C158 C159 C160 C161 C162 C163 C164 C165 C166 C11:C13 C17:C18 C25:C26 C46:C47 C57:C58 C167:C173">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C14 C15 C16 C19 C20 C21 C22 C23 C24 C42 C43 C44 C45 C48 C49 C50 C51 C52 C53 C54 C55 C56 C59 C60 C61 C63 C64 C65 C66 C67 C68 C69 C70 C71 C72 C73 C74 C75 C76 C77 C78 C79 C80 C81 C82 C83 C84 C85 C86 C87 C88 C89 C90 C91 C92 C93 C94 C95 C96 C97 C98 C99 C100 C101 C102 C103 C104 C105 C106 C107 C108 C109 C110 C111 C112 C113 C114 C115 C116 C117 C118 C119 C120 C121 C122 C123 C124 C125 C126 C127 C128 C129 C130 C131 C132 C133 C134 C135 C136 C137 C138 C139 C140 C141 C142 C143 C144 C145 C146 C147 C148 C149 C150 C151 C152 C153 C154 C155 C156 C157 C158 C159 C160 C161 C162 C163 C164 C165 C11:C13 C17:C18 C25:C26 C46:C47 C57:C58 C166:C172">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D8 D9 D10 D14 D15 D16 D19 D20 D21 D22 D23 D24 D29 D42 D43 D44 D45 D48 D49 D50 D51 D52 D53 D54 D55 D56 D59 D60 D61 D63 D64 D65 D66 D68 D69 D70 D71 D72 D73 D74 D75 D76 D77 D78 D79 D80 D81 D82 D83 D84 D85 D86 D87 D88 D89 D90 D91 D92 D93 D94 D95 D96 D97 D98 D99 D100 D101 D102 D103 D104 D105 D106 D107 D108 D109 D110 D111 D112 D113 D114 D115 D116 D117 D118 D119 D120 D121 D122 D123 D124 D125 D126 D127 D128 D129 D130 D131 D132 D133 D134 D135 D136 D137 D138 D139 D140 D141 D142 D143 D144 D145 D146 D147 D148 D149 D150 D151 D152 D153 D154 D155 D156 D157 D158 D159 D160 D161 D162 D163 D164 D165 D166 D11:D13 D17:D18 D25:D26 D46:D47 D57:D58 D167:D173">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D8 D9 D10 D14 D15 D16 D19 D20 D21 D22 D23 D24 D29 D42 D43 D44 D45 D48 D49 D50 D51 D52 D53 D54 D55 D56 D59 D60 D61 D63 D64 D65 D66 D68 D69 D70 D71 D72 D73 D74 D75 D76 D77 D78 D79 D80 D81 D82 D83 D84 D85 D86 D87 D88 D89 D90 D91 D92 D93 D94 D95 D96 D97 D98 D99 D100 D101 D102 D103 D104 D105 D106 D107 D108 D109 D110 D111 D112 D113 D114 D115 D116 D117 D118 D119 D120 D121 D122 D123 D124 D125 D126 D127 D128 D129 D130 D131 D132 D133 D134 D135 D136 D137 D138 D139 D140 D141 D142 D143 D144 D145 D146 D147 D148 D149 D150 D151 D152 D153 D154 D155 D156 D157 D158 D159 D160 D161 D162 D163 D164 D165 D11:D13 D17:D18 D25:D26 D46:D47 D57:D58 D166:D172">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
@@ -18365,9 +18479,9 @@
   <dimension ref="A1:O146"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E33" sqref="E33:E39"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -18588,7 +18702,7 @@
     </row>
     <row r="8" s="4" customFormat="1" ht="29" customHeight="1" spans="1:15">
       <c r="A8" s="22" t="s">
-        <v>1103</v>
+        <v>1107</v>
       </c>
       <c r="B8" s="23" t="s">
         <v>760</v>
@@ -18680,7 +18794,7 @@
         <v>769</v>
       </c>
       <c r="F11" s="35" t="s">
-        <v>1104</v>
+        <v>1108</v>
       </c>
       <c r="G11" s="30"/>
       <c r="H11" s="30"/>
@@ -18986,7 +19100,7 @@
     <row r="24" ht="23" customHeight="1" spans="1:15">
       <c r="A24" s="37"/>
       <c r="B24" s="23" t="s">
-        <v>1105</v>
+        <v>1109</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>30</v>
@@ -18995,7 +19109,7 @@
         <v>576</v>
       </c>
       <c r="E24" s="34" t="s">
-        <v>1106</v>
+        <v>1110</v>
       </c>
       <c r="F24" s="39">
         <v>1500</v>
@@ -19256,7 +19370,7 @@
     <row r="34" s="3" customFormat="1" ht="19" customHeight="1" spans="1:15">
       <c r="A34" s="37"/>
       <c r="B34" s="23" t="s">
-        <v>1107</v>
+        <v>1111</v>
       </c>
       <c r="C34" s="41" t="s">
         <v>30</v>
@@ -19265,10 +19379,10 @@
         <v>706</v>
       </c>
       <c r="E34" s="34" t="s">
-        <v>1108</v>
+        <v>1112</v>
       </c>
       <c r="F34" s="34" t="s">
-        <v>1109</v>
+        <v>1113</v>
       </c>
       <c r="G34" s="34"/>
       <c r="H34" s="9"/>
@@ -19283,7 +19397,7 @@
     <row r="35" s="3" customFormat="1" ht="21" customHeight="1" spans="1:15">
       <c r="A35" s="37"/>
       <c r="B35" s="23" t="s">
-        <v>1110</v>
+        <v>1114</v>
       </c>
       <c r="C35" s="41" t="s">
         <v>30</v>
@@ -19292,10 +19406,10 @@
         <v>706</v>
       </c>
       <c r="E35" s="34" t="s">
-        <v>1111</v>
+        <v>1115</v>
       </c>
       <c r="F35" s="34" t="s">
-        <v>1112</v>
+        <v>1116</v>
       </c>
       <c r="G35" s="34"/>
       <c r="H35" s="9"/>
@@ -19310,7 +19424,7 @@
     <row r="36" s="3" customFormat="1" ht="21" customHeight="1" spans="1:15">
       <c r="A36" s="37"/>
       <c r="B36" s="23" t="s">
-        <v>1113</v>
+        <v>1117</v>
       </c>
       <c r="C36" s="41" t="s">
         <v>30</v>
@@ -19319,10 +19433,10 @@
         <v>706</v>
       </c>
       <c r="E36" s="34" t="s">
-        <v>1114</v>
+        <v>1118</v>
       </c>
       <c r="F36" s="34" t="s">
-        <v>1115</v>
+        <v>1119</v>
       </c>
       <c r="G36" s="34"/>
       <c r="H36" s="9"/>
@@ -19349,7 +19463,7 @@
         <v>824</v>
       </c>
       <c r="F37" s="34" t="s">
-        <v>1115</v>
+        <v>1119</v>
       </c>
       <c r="G37" s="34"/>
       <c r="H37" s="9"/>
@@ -19376,7 +19490,7 @@
         <v>827</v>
       </c>
       <c r="F38" s="34" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
       <c r="G38" s="34"/>
       <c r="H38" s="9"/>
@@ -19469,7 +19583,7 @@
     <row r="42" s="3" customFormat="1" spans="1:15">
       <c r="A42" s="1"/>
       <c r="B42" s="23" t="s">
-        <v>1117</v>
+        <v>1121</v>
       </c>
       <c r="C42" s="29" t="s">
         <v>30</v>
@@ -19478,7 +19592,7 @@
         <v>253</v>
       </c>
       <c r="E42" s="30" t="s">
-        <v>1118</v>
+        <v>1122</v>
       </c>
       <c r="F42" s="35"/>
       <c r="G42" s="30"/>
@@ -19494,7 +19608,7 @@
     <row r="43" customFormat="1" ht="29" customHeight="1" spans="1:15">
       <c r="A43" s="37"/>
       <c r="B43" s="23" t="s">
-        <v>1119</v>
+        <v>1123</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>30</v>
@@ -19503,7 +19617,7 @@
         <v>576</v>
       </c>
       <c r="E43" s="34" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="F43" s="35">
         <v>1500</v>
@@ -19533,7 +19647,7 @@
         <v>847</v>
       </c>
       <c r="F44" s="35" t="s">
-        <v>1121</v>
+        <v>1125</v>
       </c>
       <c r="G44" s="34"/>
       <c r="H44" s="34"/>
@@ -19587,7 +19701,7 @@
         <v>862</v>
       </c>
       <c r="F46" s="35" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="G46" s="34"/>
       <c r="H46" s="34"/>
@@ -19614,7 +19728,7 @@
         <v>865</v>
       </c>
       <c r="F47" s="34" t="s">
-        <v>1123</v>
+        <v>1127</v>
       </c>
       <c r="G47" s="34"/>
       <c r="H47" s="34"/>
@@ -19771,7 +19885,7 @@
         <v>493</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>1124</v>
+        <v>1128</v>
       </c>
       <c r="F53" s="30" t="s">
         <v>882</v>
@@ -19789,7 +19903,7 @@
     <row r="54" s="3" customFormat="1" spans="1:15">
       <c r="A54" s="1"/>
       <c r="B54" s="23" t="s">
-        <v>1125</v>
+        <v>1129</v>
       </c>
       <c r="C54" s="29" t="s">
         <v>5</v>
@@ -19798,7 +19912,7 @@
         <v>536</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>1126</v>
+        <v>1130</v>
       </c>
       <c r="F54" s="30"/>
       <c r="G54" s="30"/>
@@ -19839,7 +19953,7 @@
     </row>
     <row r="56" s="5" customFormat="1" ht="28" spans="1:15">
       <c r="A56" s="22" t="s">
-        <v>1127</v>
+        <v>1131</v>
       </c>
       <c r="B56" s="40" t="s">
         <v>886</v>
@@ -19996,7 +20110,7 @@
         <v>363</v>
       </c>
       <c r="E63" s="30" t="s">
-        <v>1128</v>
+        <v>1132</v>
       </c>
       <c r="F63" s="46"/>
       <c r="G63" s="34"/>
@@ -20093,7 +20207,7 @@
         <v>752</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>1126</v>
+        <v>1130</v>
       </c>
       <c r="H67" s="5" t="s">
         <v>910</v>
@@ -20180,7 +20294,7 @@
         <v>917</v>
       </c>
       <c r="F71" t="s">
-        <v>1129</v>
+        <v>1133</v>
       </c>
       <c r="G71" s="34"/>
       <c r="H71" s="5"/>
@@ -20189,10 +20303,10 @@
     </row>
     <row r="72" ht="42" spans="1:15">
       <c r="A72" s="37" t="s">
-        <v>1130</v>
+        <v>1134</v>
       </c>
       <c r="B72" s="40" t="s">
-        <v>1131</v>
+        <v>1135</v>
       </c>
       <c r="C72" s="41" t="s">
         <v>30</v>
@@ -20201,7 +20315,7 @@
         <v>253</v>
       </c>
       <c r="E72" s="34" t="s">
-        <v>1132</v>
+        <v>1136</v>
       </c>
       <c r="F72" s="34"/>
       <c r="G72" s="34"/>
@@ -20217,7 +20331,7 @@
     <row r="73" customFormat="1" ht="15.5" spans="1:15">
       <c r="A73" s="37"/>
       <c r="B73" s="40" t="s">
-        <v>1133</v>
+        <v>1137</v>
       </c>
       <c r="C73" s="41" t="s">
         <v>30</v>
@@ -20226,10 +20340,10 @@
         <v>319</v>
       </c>
       <c r="E73" s="34" t="s">
-        <v>1134</v>
+        <v>1138</v>
       </c>
       <c r="F73" s="34" t="s">
-        <v>1104</v>
+        <v>1108</v>
       </c>
       <c r="G73" s="34"/>
       <c r="H73" s="34"/>
@@ -20244,7 +20358,7 @@
     <row r="74" customFormat="1" ht="15.5" spans="1:15">
       <c r="A74" s="37"/>
       <c r="B74" s="40" t="s">
-        <v>1135</v>
+        <v>1139</v>
       </c>
       <c r="C74" s="41" t="s">
         <v>30</v>
@@ -20253,7 +20367,7 @@
         <v>319</v>
       </c>
       <c r="E74" s="34" t="s">
-        <v>1136</v>
+        <v>1140</v>
       </c>
       <c r="F74" s="35" t="s">
         <v>777</v>
@@ -20271,7 +20385,7 @@
     <row r="75" customFormat="1" ht="15.5" spans="1:15">
       <c r="A75" s="37"/>
       <c r="B75" s="40" t="s">
-        <v>1137</v>
+        <v>1141</v>
       </c>
       <c r="C75" s="41" t="s">
         <v>30</v>
@@ -20280,7 +20394,7 @@
         <v>319</v>
       </c>
       <c r="E75" s="34" t="s">
-        <v>1138</v>
+        <v>1142</v>
       </c>
       <c r="F75" s="9" t="s">
         <v>785</v>
@@ -20298,7 +20412,7 @@
     <row r="76" customFormat="1" ht="15.5" spans="1:15">
       <c r="A76" s="37"/>
       <c r="B76" s="40" t="s">
-        <v>1139</v>
+        <v>1143</v>
       </c>
       <c r="C76" s="41" t="s">
         <v>30</v>
@@ -20307,10 +20421,10 @@
         <v>535</v>
       </c>
       <c r="E76" s="34" t="s">
-        <v>1140</v>
+        <v>1144</v>
       </c>
       <c r="F76" s="36" t="s">
-        <v>1141</v>
+        <v>1145</v>
       </c>
       <c r="G76" s="34"/>
       <c r="H76" s="34"/>
@@ -20325,7 +20439,7 @@
     <row r="77" customFormat="1" ht="15.5" spans="1:15">
       <c r="A77" s="37"/>
       <c r="B77" s="40" t="s">
-        <v>1142</v>
+        <v>1146</v>
       </c>
       <c r="C77" s="41" t="s">
         <v>30</v>
@@ -20334,10 +20448,10 @@
         <v>535</v>
       </c>
       <c r="E77" s="34" t="s">
-        <v>1143</v>
+        <v>1147</v>
       </c>
       <c r="F77" s="34" t="s">
-        <v>1144</v>
+        <v>1148</v>
       </c>
       <c r="G77" s="34"/>
       <c r="H77" s="34"/>
@@ -20443,7 +20557,7 @@
         <v>941</v>
       </c>
       <c r="F81" s="34" t="s">
-        <v>1145</v>
+        <v>1149</v>
       </c>
       <c r="G81" s="34"/>
       <c r="H81" s="34"/>
@@ -20470,7 +20584,7 @@
         <v>944</v>
       </c>
       <c r="F82" s="34" t="s">
-        <v>1144</v>
+        <v>1148</v>
       </c>
       <c r="G82" s="34"/>
       <c r="H82" s="34"/>
@@ -20686,7 +20800,7 @@
         <v>968</v>
       </c>
       <c r="F90" s="34" t="s">
-        <v>1146</v>
+        <v>1150</v>
       </c>
       <c r="G90" s="34"/>
       <c r="H90" s="34"/>
@@ -20713,7 +20827,7 @@
         <v>970</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>1126</v>
+        <v>1130</v>
       </c>
       <c r="G91" s="34"/>
       <c r="H91" s="34"/>
@@ -20929,7 +21043,7 @@
         <v>984</v>
       </c>
       <c r="F99" s="61" t="s">
-        <v>1147</v>
+        <v>1151</v>
       </c>
       <c r="G99" s="34"/>
       <c r="H99" s="34"/>
@@ -20956,7 +21070,7 @@
         <v>986</v>
       </c>
       <c r="F100" s="34" t="s">
-        <v>1123</v>
+        <v>1127</v>
       </c>
       <c r="G100" s="34"/>
       <c r="H100" s="34"/>
@@ -21010,7 +21124,7 @@
         <v>990</v>
       </c>
       <c r="F102" s="34" t="s">
-        <v>1148</v>
+        <v>1152</v>
       </c>
       <c r="G102" s="34"/>
       <c r="H102" s="34"/>
@@ -21037,7 +21151,7 @@
         <v>993</v>
       </c>
       <c r="F103" s="34" t="s">
-        <v>1149</v>
+        <v>1153</v>
       </c>
       <c r="G103" s="34"/>
       <c r="H103" s="34"/>
@@ -21064,7 +21178,7 @@
         <v>996</v>
       </c>
       <c r="F104" s="34" t="s">
-        <v>1150</v>
+        <v>1154</v>
       </c>
       <c r="G104" s="34"/>
       <c r="H104" s="34"/>
@@ -21145,7 +21259,7 @@
         <v>1004</v>
       </c>
       <c r="F107" s="34" t="s">
-        <v>1151</v>
+        <v>1155</v>
       </c>
       <c r="G107" s="34"/>
       <c r="H107" s="34"/>
@@ -21307,7 +21421,7 @@
         <v>1021</v>
       </c>
       <c r="F113" s="34" t="s">
-        <v>1151</v>
+        <v>1155</v>
       </c>
       <c r="G113" s="34"/>
       <c r="H113" s="34"/>
@@ -21388,7 +21502,7 @@
         <v>1027</v>
       </c>
       <c r="F116" s="34" t="s">
-        <v>1151</v>
+        <v>1155</v>
       </c>
       <c r="G116" s="34"/>
       <c r="H116" s="34"/>
@@ -21415,7 +21529,7 @@
         <v>1029</v>
       </c>
       <c r="F117" s="34" t="s">
-        <v>1152</v>
+        <v>1156</v>
       </c>
       <c r="G117" s="34"/>
       <c r="H117" s="34"/>
@@ -21442,7 +21556,7 @@
         <v>1031</v>
       </c>
       <c r="F118" s="34" t="s">
-        <v>1153</v>
+        <v>1157</v>
       </c>
       <c r="G118" s="34"/>
       <c r="H118" s="34"/>
@@ -22591,10 +22705,10 @@
   <sheetPr/>
   <dimension ref="A1:O191"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B62" sqref="B62"/>
+      <selection pane="bottomLeft" activeCell="C111" sqref="C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -22814,7 +22928,7 @@
     </row>
     <row r="8" s="4" customFormat="1" ht="29" customHeight="1" spans="1:15">
       <c r="A8" s="22" t="s">
-        <v>1154</v>
+        <v>1158</v>
       </c>
       <c r="B8" s="23" t="s">
         <v>760</v>
@@ -22894,7 +23008,7 @@
     </row>
     <row r="11" s="1" customFormat="1" spans="2:15">
       <c r="B11" s="23" t="s">
-        <v>1155</v>
+        <v>1159</v>
       </c>
       <c r="C11" s="29" t="s">
         <v>30</v>
@@ -22903,7 +23017,7 @@
         <v>363</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>1156</v>
+        <v>1160</v>
       </c>
       <c r="F11" s="35"/>
       <c r="G11" s="30"/>
@@ -22954,7 +23068,7 @@
         <v>769</v>
       </c>
       <c r="F13" s="35" t="s">
-        <v>1157</v>
+        <v>1161</v>
       </c>
       <c r="G13" s="30"/>
       <c r="H13" s="30"/>
@@ -23030,7 +23144,7 @@
         <v>776</v>
       </c>
       <c r="F16" s="35" t="s">
-        <v>1158</v>
+        <v>1162</v>
       </c>
       <c r="G16" s="30"/>
       <c r="H16" s="30"/>
@@ -23073,7 +23187,7 @@
         <v>781</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>1159</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="19" ht="22" customHeight="1" spans="2:6">
@@ -23090,7 +23204,7 @@
         <v>784</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>1160</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="20" customFormat="1" ht="19" customHeight="1" spans="1:15">
@@ -23108,7 +23222,7 @@
         <v>787</v>
       </c>
       <c r="F20" s="34" t="s">
-        <v>1161</v>
+        <v>1165</v>
       </c>
       <c r="G20" s="34"/>
       <c r="H20" s="34"/>
@@ -23150,7 +23264,7 @@
     <row r="22" customFormat="1" ht="29" customHeight="1" spans="1:15">
       <c r="A22" s="37"/>
       <c r="B22" s="23" t="s">
-        <v>1162</v>
+        <v>1166</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>30</v>
@@ -23159,7 +23273,7 @@
         <v>576</v>
       </c>
       <c r="E22" s="34" t="s">
-        <v>1163</v>
+        <v>1167</v>
       </c>
       <c r="F22" s="35">
         <v>1500</v>
@@ -23231,7 +23345,7 @@
     <row r="25" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A25" s="37"/>
       <c r="B25" s="23" t="s">
-        <v>1164</v>
+        <v>1168</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>30</v>
@@ -23283,7 +23397,7 @@
     <row r="27" ht="23" customHeight="1" spans="1:15">
       <c r="A27" s="37"/>
       <c r="B27" s="23" t="s">
-        <v>1105</v>
+        <v>1109</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>30</v>
@@ -23292,7 +23406,7 @@
         <v>576</v>
       </c>
       <c r="E27" s="34" t="s">
-        <v>1106</v>
+        <v>1110</v>
       </c>
       <c r="F27" s="39">
         <v>1500</v>
@@ -23337,7 +23451,7 @@
     <row r="29" ht="23" customHeight="1" spans="1:15">
       <c r="A29" s="37"/>
       <c r="B29" s="40" t="s">
-        <v>1165</v>
+        <v>1169</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>30</v>
@@ -23349,7 +23463,7 @@
         <v>813</v>
       </c>
       <c r="F29" s="34" t="s">
-        <v>1161</v>
+        <v>1165</v>
       </c>
       <c r="G29" s="34"/>
       <c r="H29" s="34"/>
@@ -23376,7 +23490,7 @@
         <v>809</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>1160</v>
+        <v>1164</v>
       </c>
       <c r="G30" s="34"/>
       <c r="H30" s="34"/>
@@ -23499,7 +23613,7 @@
     <row r="35" s="3" customFormat="1" ht="19" customHeight="1" spans="1:15">
       <c r="A35" s="37"/>
       <c r="B35" s="23" t="s">
-        <v>1107</v>
+        <v>1111</v>
       </c>
       <c r="C35" s="41" t="s">
         <v>30</v>
@@ -23508,10 +23622,10 @@
         <v>706</v>
       </c>
       <c r="E35" s="34" t="s">
-        <v>1108</v>
+        <v>1112</v>
       </c>
       <c r="F35" s="34" t="s">
-        <v>1109</v>
+        <v>1113</v>
       </c>
       <c r="G35" s="34"/>
       <c r="H35" s="9"/>
@@ -23526,7 +23640,7 @@
     <row r="36" s="3" customFormat="1" ht="21" customHeight="1" spans="1:15">
       <c r="A36" s="37"/>
       <c r="B36" s="23" t="s">
-        <v>1110</v>
+        <v>1114</v>
       </c>
       <c r="C36" s="41" t="s">
         <v>30</v>
@@ -23535,10 +23649,10 @@
         <v>706</v>
       </c>
       <c r="E36" s="34" t="s">
-        <v>1111</v>
+        <v>1115</v>
       </c>
       <c r="F36" s="34" t="s">
-        <v>1112</v>
+        <v>1116</v>
       </c>
       <c r="G36" s="34"/>
       <c r="H36" s="9"/>
@@ -23553,7 +23667,7 @@
     <row r="37" s="3" customFormat="1" ht="21" customHeight="1" spans="1:15">
       <c r="A37" s="37"/>
       <c r="B37" s="23" t="s">
-        <v>1113</v>
+        <v>1117</v>
       </c>
       <c r="C37" s="41" t="s">
         <v>30</v>
@@ -23562,10 +23676,10 @@
         <v>706</v>
       </c>
       <c r="E37" s="34" t="s">
-        <v>1114</v>
+        <v>1118</v>
       </c>
       <c r="F37" s="34" t="s">
-        <v>1115</v>
+        <v>1119</v>
       </c>
       <c r="G37" s="34"/>
       <c r="H37" s="9"/>
@@ -23580,7 +23694,7 @@
     <row r="38" s="3" customFormat="1" ht="21" customHeight="1" spans="1:15">
       <c r="A38" s="37"/>
       <c r="B38" s="23" t="s">
-        <v>1166</v>
+        <v>1170</v>
       </c>
       <c r="C38" s="41" t="s">
         <v>30</v>
@@ -23592,7 +23706,7 @@
         <v>824</v>
       </c>
       <c r="F38" s="34" t="s">
-        <v>1115</v>
+        <v>1119</v>
       </c>
       <c r="G38" s="34"/>
       <c r="H38" s="9"/>
@@ -23619,7 +23733,7 @@
         <v>827</v>
       </c>
       <c r="F39" s="34" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
       <c r="G39" s="34"/>
       <c r="H39" s="9"/>
@@ -23710,7 +23824,7 @@
     <row r="43" s="3" customFormat="1" spans="1:15">
       <c r="A43" s="1"/>
       <c r="B43" s="23" t="s">
-        <v>1117</v>
+        <v>1121</v>
       </c>
       <c r="C43" s="29" t="s">
         <v>30</v>
@@ -23719,7 +23833,7 @@
         <v>253</v>
       </c>
       <c r="E43" s="30" t="s">
-        <v>1118</v>
+        <v>1122</v>
       </c>
       <c r="F43" s="35"/>
       <c r="G43" s="30"/>
@@ -23735,7 +23849,7 @@
     <row r="44" customFormat="1" ht="29" customHeight="1" spans="1:15">
       <c r="A44" s="37"/>
       <c r="B44" s="23" t="s">
-        <v>1119</v>
+        <v>1123</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>30</v>
@@ -23744,7 +23858,7 @@
         <v>576</v>
       </c>
       <c r="E44" s="34" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="F44" s="35">
         <v>1500</v>
@@ -23774,7 +23888,7 @@
         <v>847</v>
       </c>
       <c r="F45" s="35" t="s">
-        <v>1121</v>
+        <v>1125</v>
       </c>
       <c r="G45" s="34"/>
       <c r="H45" s="34"/>
@@ -23828,7 +23942,7 @@
         <v>862</v>
       </c>
       <c r="F47" s="35" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="G47" s="34"/>
       <c r="H47" s="34"/>
@@ -23855,7 +23969,7 @@
         <v>865</v>
       </c>
       <c r="F48" s="34" t="s">
-        <v>1123</v>
+        <v>1127</v>
       </c>
       <c r="G48" s="34"/>
       <c r="H48" s="34"/>
@@ -23987,7 +24101,7 @@
         <v>253</v>
       </c>
       <c r="E53" s="34" t="s">
-        <v>1167</v>
+        <v>1171</v>
       </c>
       <c r="F53" s="34"/>
       <c r="G53" s="34"/>
@@ -24003,7 +24117,7 @@
     <row r="54" s="3" customFormat="1" spans="1:15">
       <c r="A54" s="1"/>
       <c r="B54" s="23" t="s">
-        <v>1168</v>
+        <v>1172</v>
       </c>
       <c r="C54" s="29" t="s">
         <v>30</v>
@@ -24012,7 +24126,7 @@
         <v>493</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>1124</v>
+        <v>1128</v>
       </c>
       <c r="F54" s="30" t="s">
         <v>882</v>
@@ -24030,7 +24144,7 @@
     <row r="55" s="3" customFormat="1" spans="1:15">
       <c r="A55" s="1"/>
       <c r="B55" s="23" t="s">
-        <v>1125</v>
+        <v>1129</v>
       </c>
       <c r="C55" s="29" t="s">
         <v>5</v>
@@ -24039,7 +24153,7 @@
         <v>536</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>1126</v>
+        <v>1130</v>
       </c>
       <c r="F55" s="30"/>
       <c r="G55" s="30"/>
@@ -24054,7 +24168,7 @@
     </row>
     <row r="56" s="1" customFormat="1" spans="2:15">
       <c r="B56" s="23" t="s">
-        <v>1169</v>
+        <v>1173</v>
       </c>
       <c r="C56" s="29" t="s">
         <v>30</v>
@@ -24080,7 +24194,7 @@
     </row>
     <row r="57" s="5" customFormat="1" ht="42" spans="1:15">
       <c r="A57" s="22" t="s">
-        <v>1127</v>
+        <v>1174</v>
       </c>
       <c r="B57" s="40" t="s">
         <v>886</v>
@@ -24237,7 +24351,7 @@
         <v>363</v>
       </c>
       <c r="E64" s="30" t="s">
-        <v>1128</v>
+        <v>1132</v>
       </c>
       <c r="F64" s="46"/>
       <c r="G64" s="34"/>
@@ -24334,7 +24448,7 @@
         <v>752</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>1126</v>
+        <v>1130</v>
       </c>
       <c r="H68" s="5" t="s">
         <v>910</v>
@@ -24421,7 +24535,7 @@
         <v>917</v>
       </c>
       <c r="F72" t="s">
-        <v>1129</v>
+        <v>1133</v>
       </c>
       <c r="G72" s="34"/>
       <c r="H72" s="5"/>
@@ -24430,10 +24544,10 @@
     </row>
     <row r="73" ht="42" spans="1:15">
       <c r="A73" s="37" t="s">
-        <v>1130</v>
+        <v>1175</v>
       </c>
       <c r="B73" s="40" t="s">
-        <v>1131</v>
+        <v>1135</v>
       </c>
       <c r="C73" s="41" t="s">
         <v>30</v>
@@ -24442,7 +24556,7 @@
         <v>253</v>
       </c>
       <c r="E73" s="34" t="s">
-        <v>1132</v>
+        <v>1136</v>
       </c>
       <c r="F73" s="34"/>
       <c r="G73" s="34"/>
@@ -24458,7 +24572,7 @@
     <row r="74" customFormat="1" ht="15.5" spans="1:15">
       <c r="A74" s="37"/>
       <c r="B74" s="40" t="s">
-        <v>1133</v>
+        <v>1137</v>
       </c>
       <c r="C74" s="41" t="s">
         <v>30</v>
@@ -24467,10 +24581,10 @@
         <v>319</v>
       </c>
       <c r="E74" s="34" t="s">
-        <v>1134</v>
+        <v>1138</v>
       </c>
       <c r="F74" s="34" t="s">
-        <v>1104</v>
+        <v>1108</v>
       </c>
       <c r="G74" s="34"/>
       <c r="H74" s="34"/>
@@ -24485,7 +24599,7 @@
     <row r="75" customFormat="1" ht="15.5" spans="1:15">
       <c r="A75" s="37"/>
       <c r="B75" s="40" t="s">
-        <v>1135</v>
+        <v>1139</v>
       </c>
       <c r="C75" s="41" t="s">
         <v>30</v>
@@ -24494,7 +24608,7 @@
         <v>319</v>
       </c>
       <c r="E75" s="34" t="s">
-        <v>1136</v>
+        <v>1140</v>
       </c>
       <c r="F75" s="35" t="s">
         <v>777</v>
@@ -24512,7 +24626,7 @@
     <row r="76" customFormat="1" ht="15.5" spans="1:15">
       <c r="A76" s="37"/>
       <c r="B76" s="40" t="s">
-        <v>1137</v>
+        <v>1141</v>
       </c>
       <c r="C76" s="41" t="s">
         <v>30</v>
@@ -24521,7 +24635,7 @@
         <v>319</v>
       </c>
       <c r="E76" s="34" t="s">
-        <v>1138</v>
+        <v>1142</v>
       </c>
       <c r="F76" s="9" t="s">
         <v>785</v>
@@ -24539,7 +24653,7 @@
     <row r="77" customFormat="1" ht="15.5" spans="1:15">
       <c r="A77" s="37"/>
       <c r="B77" s="40" t="s">
-        <v>1139</v>
+        <v>1143</v>
       </c>
       <c r="C77" s="41" t="s">
         <v>30</v>
@@ -24548,10 +24662,10 @@
         <v>535</v>
       </c>
       <c r="E77" s="34" t="s">
-        <v>1140</v>
+        <v>1144</v>
       </c>
       <c r="F77" s="36" t="s">
-        <v>1141</v>
+        <v>1145</v>
       </c>
       <c r="G77" s="34"/>
       <c r="H77" s="34"/>
@@ -24566,7 +24680,7 @@
     <row r="78" customFormat="1" ht="15.5" spans="1:15">
       <c r="A78" s="37"/>
       <c r="B78" s="40" t="s">
-        <v>1142</v>
+        <v>1146</v>
       </c>
       <c r="C78" s="41" t="s">
         <v>30</v>
@@ -24575,10 +24689,10 @@
         <v>535</v>
       </c>
       <c r="E78" s="34" t="s">
-        <v>1143</v>
+        <v>1147</v>
       </c>
       <c r="F78" s="34" t="s">
-        <v>1144</v>
+        <v>1148</v>
       </c>
       <c r="G78" s="34"/>
       <c r="H78" s="34"/>
@@ -24684,7 +24798,7 @@
         <v>941</v>
       </c>
       <c r="F82" s="34" t="s">
-        <v>1145</v>
+        <v>1149</v>
       </c>
       <c r="G82" s="34"/>
       <c r="H82" s="34"/>
@@ -24711,7 +24825,7 @@
         <v>944</v>
       </c>
       <c r="F83" s="34" t="s">
-        <v>1144</v>
+        <v>1148</v>
       </c>
       <c r="G83" s="34"/>
       <c r="H83" s="34"/>
@@ -24927,7 +25041,7 @@
         <v>968</v>
       </c>
       <c r="F91" s="34" t="s">
-        <v>1146</v>
+        <v>1150</v>
       </c>
       <c r="G91" s="34"/>
       <c r="H91" s="34"/>
@@ -24954,7 +25068,7 @@
         <v>970</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>1126</v>
+        <v>1130</v>
       </c>
       <c r="G92" s="34"/>
       <c r="H92" s="34"/>
@@ -25170,7 +25284,7 @@
         <v>984</v>
       </c>
       <c r="F100" s="61" t="s">
-        <v>1147</v>
+        <v>1151</v>
       </c>
       <c r="G100" s="34"/>
       <c r="H100" s="34"/>
@@ -25197,7 +25311,7 @@
         <v>986</v>
       </c>
       <c r="F101" s="34" t="s">
-        <v>1123</v>
+        <v>1127</v>
       </c>
       <c r="G101" s="34"/>
       <c r="H101" s="34"/>
@@ -25251,7 +25365,7 @@
         <v>990</v>
       </c>
       <c r="F103" s="34" t="s">
-        <v>1148</v>
+        <v>1152</v>
       </c>
       <c r="G103" s="34"/>
       <c r="H103" s="34"/>
@@ -25278,7 +25392,7 @@
         <v>993</v>
       </c>
       <c r="F104" s="34" t="s">
-        <v>1149</v>
+        <v>1153</v>
       </c>
       <c r="G104" s="34"/>
       <c r="H104" s="34"/>
@@ -25305,7 +25419,7 @@
         <v>996</v>
       </c>
       <c r="F105" s="34" t="s">
-        <v>1150</v>
+        <v>1154</v>
       </c>
       <c r="G105" s="34"/>
       <c r="H105" s="34"/>
@@ -25386,7 +25500,7 @@
         <v>1004</v>
       </c>
       <c r="F108" s="34" t="s">
-        <v>1151</v>
+        <v>1155</v>
       </c>
       <c r="G108" s="34"/>
       <c r="H108" s="34"/>
@@ -25548,7 +25662,7 @@
         <v>1021</v>
       </c>
       <c r="F114" s="34" t="s">
-        <v>1151</v>
+        <v>1155</v>
       </c>
       <c r="G114" s="34"/>
       <c r="H114" s="34"/>
@@ -25629,7 +25743,7 @@
         <v>1027</v>
       </c>
       <c r="F117" s="34" t="s">
-        <v>1151</v>
+        <v>1155</v>
       </c>
       <c r="G117" s="34"/>
       <c r="H117" s="34"/>
@@ -25656,7 +25770,7 @@
         <v>1029</v>
       </c>
       <c r="F118" s="34" t="s">
-        <v>1152</v>
+        <v>1156</v>
       </c>
       <c r="G118" s="34"/>
       <c r="H118" s="34"/>
@@ -25683,7 +25797,7 @@
         <v>1031</v>
       </c>
       <c r="F119" s="34" t="s">
-        <v>1153</v>
+        <v>1157</v>
       </c>
       <c r="G119" s="34"/>
       <c r="H119" s="34"/>

--- a/tests/artifact/script/Mobile-Purchase_SaleOrder.xlsx
+++ b/tests/artifact/script/Mobile-Purchase_SaleOrder.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6950" tabRatio="888" firstSheet="2" activeTab="1"/>
+    <workbookView windowWidth="18350" windowHeight="6920" tabRatio="888" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -60,7 +60,20 @@
     <definedName name="javaui">'#system'!$N$2:$N$16</definedName>
     <definedName name="browserstack">'#system'!$G$2:$G$7</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -3892,12 +3905,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="40">
     <font>
@@ -4546,16 +4559,16 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -8024,8 +8037,8 @@
   <sheetPr/>
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="15.5" outlineLevelRow="4"/>
@@ -8231,12 +8244,12 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O147"/>
+  <dimension ref="A1:O121"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomLeft" activeCell="A122" sqref="$A122:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -11405,448 +11418,6 @@
       <c r="N121" s="57"/>
       <c r="O121" s="47"/>
     </row>
-    <row r="122" ht="23" customHeight="1" spans="1:15">
-      <c r="A122" s="30"/>
-      <c r="B122" s="35"/>
-      <c r="C122" s="36"/>
-      <c r="D122" s="37"/>
-      <c r="E122" s="37"/>
-      <c r="F122" s="37"/>
-      <c r="G122" s="37"/>
-      <c r="H122" s="37"/>
-      <c r="I122" s="37"/>
-      <c r="J122" s="56"/>
-      <c r="K122" s="47"/>
-      <c r="L122" s="57"/>
-      <c r="M122" s="58"/>
-      <c r="N122" s="57"/>
-      <c r="O122" s="47"/>
-    </row>
-    <row r="123" ht="23" customHeight="1" spans="1:15">
-      <c r="A123" s="30"/>
-      <c r="B123" s="35"/>
-      <c r="C123" s="36"/>
-      <c r="D123" s="37"/>
-      <c r="E123" s="37"/>
-      <c r="F123" s="37"/>
-      <c r="G123" s="37"/>
-      <c r="H123" s="37"/>
-      <c r="I123" s="37"/>
-      <c r="J123" s="56"/>
-      <c r="K123" s="47"/>
-      <c r="L123" s="57"/>
-      <c r="M123" s="58"/>
-      <c r="N123" s="57"/>
-      <c r="O123" s="47"/>
-    </row>
-    <row r="124" ht="23" customHeight="1" spans="1:15">
-      <c r="A124" s="30"/>
-      <c r="B124" s="35"/>
-      <c r="C124" s="36"/>
-      <c r="D124" s="37"/>
-      <c r="E124" s="37"/>
-      <c r="F124" s="37"/>
-      <c r="G124" s="37"/>
-      <c r="H124" s="37"/>
-      <c r="I124" s="37"/>
-      <c r="J124" s="56"/>
-      <c r="K124" s="47"/>
-      <c r="L124" s="57"/>
-      <c r="M124" s="58"/>
-      <c r="N124" s="57"/>
-      <c r="O124" s="47"/>
-    </row>
-    <row r="125" ht="23" customHeight="1" spans="1:15">
-      <c r="A125" s="30"/>
-      <c r="B125" s="35"/>
-      <c r="C125" s="36"/>
-      <c r="D125" s="37"/>
-      <c r="E125" s="37"/>
-      <c r="F125" s="37"/>
-      <c r="G125" s="37"/>
-      <c r="H125" s="37"/>
-      <c r="I125" s="37"/>
-      <c r="J125" s="56"/>
-      <c r="K125" s="47"/>
-      <c r="L125" s="57"/>
-      <c r="M125" s="58"/>
-      <c r="N125" s="57"/>
-      <c r="O125" s="47"/>
-    </row>
-    <row r="126" ht="23" customHeight="1" spans="1:15">
-      <c r="A126" s="30"/>
-      <c r="B126" s="35"/>
-      <c r="C126" s="36"/>
-      <c r="D126" s="37"/>
-      <c r="E126" s="37"/>
-      <c r="F126" s="37"/>
-      <c r="G126" s="37"/>
-      <c r="H126" s="37"/>
-      <c r="I126" s="37"/>
-      <c r="J126" s="56"/>
-      <c r="K126" s="47"/>
-      <c r="L126" s="57"/>
-      <c r="M126" s="58"/>
-      <c r="N126" s="57"/>
-      <c r="O126" s="47"/>
-    </row>
-    <row r="127" ht="23" customHeight="1" spans="1:15">
-      <c r="A127" s="30"/>
-      <c r="B127" s="35"/>
-      <c r="C127" s="36"/>
-      <c r="D127" s="37"/>
-      <c r="E127" s="37"/>
-      <c r="F127" s="37"/>
-      <c r="G127" s="37"/>
-      <c r="H127" s="37"/>
-      <c r="I127" s="37"/>
-      <c r="J127" s="56"/>
-      <c r="K127" s="47"/>
-      <c r="L127" s="57"/>
-      <c r="M127" s="58"/>
-      <c r="N127" s="57"/>
-      <c r="O127" s="47"/>
-    </row>
-    <row r="128" ht="23" customHeight="1" spans="1:15">
-      <c r="A128" s="30"/>
-      <c r="B128" s="35"/>
-      <c r="C128" s="36"/>
-      <c r="D128" s="37"/>
-      <c r="E128" s="37"/>
-      <c r="F128" s="37"/>
-      <c r="G128" s="37"/>
-      <c r="H128" s="37"/>
-      <c r="I128" s="37"/>
-      <c r="J128" s="56"/>
-      <c r="K128" s="47"/>
-      <c r="L128" s="57"/>
-      <c r="M128" s="58"/>
-      <c r="N128" s="57"/>
-      <c r="O128" s="47"/>
-    </row>
-    <row r="129" ht="23" customHeight="1" spans="1:15">
-      <c r="A129" s="30"/>
-      <c r="B129" s="35"/>
-      <c r="C129" s="36"/>
-      <c r="D129" s="37"/>
-      <c r="E129" s="37"/>
-      <c r="F129" s="37"/>
-      <c r="G129" s="37"/>
-      <c r="H129" s="37"/>
-      <c r="I129" s="37"/>
-      <c r="J129" s="56"/>
-      <c r="K129" s="47"/>
-      <c r="L129" s="57"/>
-      <c r="M129" s="58"/>
-      <c r="N129" s="57"/>
-      <c r="O129" s="47"/>
-    </row>
-    <row r="130" ht="23" customHeight="1" spans="1:15">
-      <c r="A130" s="30"/>
-      <c r="B130" s="35"/>
-      <c r="C130" s="36"/>
-      <c r="D130" s="37"/>
-      <c r="E130" s="37"/>
-      <c r="F130" s="37"/>
-      <c r="G130" s="37"/>
-      <c r="H130" s="37"/>
-      <c r="I130" s="37"/>
-      <c r="J130" s="56"/>
-      <c r="K130" s="47"/>
-      <c r="L130" s="57"/>
-      <c r="M130" s="58"/>
-      <c r="N130" s="57"/>
-      <c r="O130" s="47"/>
-    </row>
-    <row r="131" ht="23" customHeight="1" spans="1:15">
-      <c r="A131" s="30"/>
-      <c r="B131" s="35"/>
-      <c r="C131" s="36"/>
-      <c r="D131" s="37"/>
-      <c r="E131" s="37"/>
-      <c r="F131" s="37"/>
-      <c r="G131" s="37"/>
-      <c r="H131" s="37"/>
-      <c r="I131" s="37"/>
-      <c r="J131" s="56"/>
-      <c r="K131" s="47"/>
-      <c r="L131" s="57"/>
-      <c r="M131" s="58"/>
-      <c r="N131" s="57"/>
-      <c r="O131" s="47"/>
-    </row>
-    <row r="132" ht="23" customHeight="1" spans="1:15">
-      <c r="A132" s="30"/>
-      <c r="B132" s="35"/>
-      <c r="C132" s="36"/>
-      <c r="D132" s="37"/>
-      <c r="E132" s="37"/>
-      <c r="F132" s="37"/>
-      <c r="G132" s="37"/>
-      <c r="H132" s="37"/>
-      <c r="I132" s="37"/>
-      <c r="J132" s="56"/>
-      <c r="K132" s="47"/>
-      <c r="L132" s="57"/>
-      <c r="M132" s="58"/>
-      <c r="N132" s="57"/>
-      <c r="O132" s="47"/>
-    </row>
-    <row r="133" ht="23" customHeight="1" spans="1:15">
-      <c r="A133" s="30"/>
-      <c r="B133" s="35"/>
-      <c r="C133" s="36"/>
-      <c r="D133" s="37"/>
-      <c r="E133" s="37"/>
-      <c r="F133" s="37"/>
-      <c r="G133" s="37"/>
-      <c r="H133" s="37"/>
-      <c r="I133" s="37"/>
-      <c r="J133" s="56"/>
-      <c r="K133" s="47"/>
-      <c r="L133" s="57"/>
-      <c r="M133" s="58"/>
-      <c r="N133" s="57"/>
-      <c r="O133" s="47"/>
-    </row>
-    <row r="134" ht="23" customHeight="1" spans="1:15">
-      <c r="A134" s="30"/>
-      <c r="B134" s="35"/>
-      <c r="C134" s="36"/>
-      <c r="D134" s="37"/>
-      <c r="E134" s="37"/>
-      <c r="F134" s="37"/>
-      <c r="G134" s="37"/>
-      <c r="H134" s="37"/>
-      <c r="I134" s="37"/>
-      <c r="J134" s="56"/>
-      <c r="K134" s="47"/>
-      <c r="L134" s="57"/>
-      <c r="M134" s="58"/>
-      <c r="N134" s="57"/>
-      <c r="O134" s="47"/>
-    </row>
-    <row r="135" ht="23" customHeight="1" spans="1:15">
-      <c r="A135" s="30"/>
-      <c r="B135" s="35"/>
-      <c r="C135" s="36"/>
-      <c r="D135" s="37"/>
-      <c r="E135" s="37"/>
-      <c r="F135" s="37"/>
-      <c r="G135" s="37"/>
-      <c r="H135" s="37"/>
-      <c r="I135" s="37"/>
-      <c r="J135" s="56"/>
-      <c r="K135" s="47"/>
-      <c r="L135" s="57"/>
-      <c r="M135" s="58"/>
-      <c r="N135" s="57"/>
-      <c r="O135" s="47"/>
-    </row>
-    <row r="136" ht="23" customHeight="1" spans="1:15">
-      <c r="A136" s="30"/>
-      <c r="B136" s="35"/>
-      <c r="C136" s="36"/>
-      <c r="D136" s="37"/>
-      <c r="E136" s="37"/>
-      <c r="F136" s="37"/>
-      <c r="G136" s="37"/>
-      <c r="H136" s="37"/>
-      <c r="I136" s="37"/>
-      <c r="J136" s="56"/>
-      <c r="K136" s="47"/>
-      <c r="L136" s="57"/>
-      <c r="M136" s="58"/>
-      <c r="N136" s="57"/>
-      <c r="O136" s="47"/>
-    </row>
-    <row r="137" ht="23" customHeight="1" spans="1:15">
-      <c r="A137" s="30"/>
-      <c r="B137" s="35"/>
-      <c r="C137" s="36"/>
-      <c r="D137" s="37"/>
-      <c r="E137" s="37"/>
-      <c r="F137" s="37"/>
-      <c r="G137" s="37"/>
-      <c r="H137" s="37"/>
-      <c r="I137" s="37"/>
-      <c r="J137" s="56"/>
-      <c r="K137" s="47"/>
-      <c r="L137" s="57"/>
-      <c r="M137" s="58"/>
-      <c r="N137" s="57"/>
-      <c r="O137" s="47"/>
-    </row>
-    <row r="138" ht="23" customHeight="1" spans="1:15">
-      <c r="A138" s="30"/>
-      <c r="B138" s="35"/>
-      <c r="C138" s="36"/>
-      <c r="D138" s="37"/>
-      <c r="E138" s="37"/>
-      <c r="F138" s="37"/>
-      <c r="G138" s="37"/>
-      <c r="H138" s="37"/>
-      <c r="I138" s="37"/>
-      <c r="J138" s="56"/>
-      <c r="K138" s="47"/>
-      <c r="L138" s="57"/>
-      <c r="M138" s="58"/>
-      <c r="N138" s="57"/>
-      <c r="O138" s="47"/>
-    </row>
-    <row r="139" ht="23" customHeight="1" spans="1:15">
-      <c r="A139" s="30"/>
-      <c r="B139" s="35"/>
-      <c r="C139" s="36"/>
-      <c r="D139" s="37"/>
-      <c r="E139" s="37"/>
-      <c r="F139" s="37"/>
-      <c r="G139" s="37"/>
-      <c r="H139" s="37"/>
-      <c r="I139" s="37"/>
-      <c r="J139" s="56"/>
-      <c r="K139" s="47"/>
-      <c r="L139" s="57"/>
-      <c r="M139" s="58"/>
-      <c r="N139" s="57"/>
-      <c r="O139" s="47"/>
-    </row>
-    <row r="140" ht="23" customHeight="1" spans="1:15">
-      <c r="A140" s="30"/>
-      <c r="B140" s="35"/>
-      <c r="C140" s="36"/>
-      <c r="D140" s="37"/>
-      <c r="E140" s="37"/>
-      <c r="F140" s="37"/>
-      <c r="G140" s="37"/>
-      <c r="H140" s="37"/>
-      <c r="I140" s="37"/>
-      <c r="J140" s="56"/>
-      <c r="K140" s="47"/>
-      <c r="L140" s="57"/>
-      <c r="M140" s="58"/>
-      <c r="N140" s="57"/>
-      <c r="O140" s="47"/>
-    </row>
-    <row r="141" ht="23" customHeight="1" spans="1:15">
-      <c r="A141" s="30"/>
-      <c r="B141" s="35"/>
-      <c r="C141" s="36"/>
-      <c r="D141" s="37"/>
-      <c r="E141" s="37"/>
-      <c r="F141" s="37"/>
-      <c r="G141" s="37"/>
-      <c r="H141" s="37"/>
-      <c r="I141" s="37"/>
-      <c r="J141" s="56"/>
-      <c r="K141" s="47"/>
-      <c r="L141" s="57"/>
-      <c r="M141" s="58"/>
-      <c r="N141" s="57"/>
-      <c r="O141" s="47"/>
-    </row>
-    <row r="142" ht="23" customHeight="1" spans="1:15">
-      <c r="A142" s="30"/>
-      <c r="B142" s="35"/>
-      <c r="C142" s="36"/>
-      <c r="D142" s="37"/>
-      <c r="E142" s="37"/>
-      <c r="F142" s="37"/>
-      <c r="G142" s="37"/>
-      <c r="H142" s="37"/>
-      <c r="I142" s="37"/>
-      <c r="J142" s="56"/>
-      <c r="K142" s="47"/>
-      <c r="L142" s="57"/>
-      <c r="M142" s="58"/>
-      <c r="N142" s="57"/>
-      <c r="O142" s="47"/>
-    </row>
-    <row r="143" ht="23" customHeight="1" spans="1:15">
-      <c r="A143" s="30"/>
-      <c r="B143" s="35"/>
-      <c r="C143" s="36"/>
-      <c r="D143" s="37"/>
-      <c r="E143" s="37"/>
-      <c r="F143" s="37"/>
-      <c r="G143" s="37"/>
-      <c r="H143" s="37"/>
-      <c r="I143" s="37"/>
-      <c r="J143" s="56"/>
-      <c r="K143" s="47"/>
-      <c r="L143" s="57"/>
-      <c r="M143" s="58"/>
-      <c r="N143" s="57"/>
-      <c r="O143" s="47"/>
-    </row>
-    <row r="144" ht="23" customHeight="1" spans="1:15">
-      <c r="A144" s="30"/>
-      <c r="B144" s="35"/>
-      <c r="C144" s="36"/>
-      <c r="D144" s="37"/>
-      <c r="E144" s="37"/>
-      <c r="F144" s="37"/>
-      <c r="G144" s="37"/>
-      <c r="H144" s="37"/>
-      <c r="I144" s="37"/>
-      <c r="J144" s="56"/>
-      <c r="K144" s="47"/>
-      <c r="L144" s="57"/>
-      <c r="M144" s="58"/>
-      <c r="N144" s="57"/>
-      <c r="O144" s="47"/>
-    </row>
-    <row r="145" ht="23" customHeight="1" spans="1:15">
-      <c r="A145" s="30"/>
-      <c r="B145" s="35"/>
-      <c r="C145" s="36"/>
-      <c r="D145" s="37"/>
-      <c r="E145" s="37"/>
-      <c r="F145" s="37"/>
-      <c r="G145" s="37"/>
-      <c r="H145" s="37"/>
-      <c r="I145" s="37"/>
-      <c r="J145" s="56"/>
-      <c r="K145" s="47"/>
-      <c r="L145" s="57"/>
-      <c r="M145" s="58"/>
-      <c r="N145" s="57"/>
-      <c r="O145" s="47"/>
-    </row>
-    <row r="146" ht="23" customHeight="1" spans="1:15">
-      <c r="A146" s="30"/>
-      <c r="B146" s="35"/>
-      <c r="C146" s="36"/>
-      <c r="D146" s="37"/>
-      <c r="E146" s="37"/>
-      <c r="F146" s="37"/>
-      <c r="G146" s="37"/>
-      <c r="H146" s="37"/>
-      <c r="I146" s="37"/>
-      <c r="J146" s="56"/>
-      <c r="K146" s="47"/>
-      <c r="L146" s="57"/>
-      <c r="M146" s="58"/>
-      <c r="N146" s="57"/>
-      <c r="O146" s="47"/>
-    </row>
-    <row r="147" ht="23" customHeight="1" spans="1:15">
-      <c r="A147" s="30"/>
-      <c r="B147" s="35"/>
-      <c r="C147" s="36"/>
-      <c r="D147" s="37"/>
-      <c r="E147" s="37"/>
-      <c r="F147" s="37"/>
-      <c r="G147" s="37"/>
-      <c r="H147" s="37"/>
-      <c r="I147" s="37"/>
-      <c r="J147" s="56"/>
-      <c r="K147" s="47"/>
-      <c r="L147" s="57"/>
-      <c r="M147" s="58"/>
-      <c r="N147" s="57"/>
-      <c r="O147" s="47"/>
-    </row>
   </sheetData>
   <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
   <mergeCells count="4">
@@ -12438,17 +12009,6 @@
       <formula>LEFT(N99,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N122:N147">
-    <cfRule type="beginsWith" dxfId="2" priority="451" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N122,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="452" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N122,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="453" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N122,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="N1 N25:N28 N51:N53 N32 N84:N88 N73:N76">
     <cfRule type="beginsWith" dxfId="2" priority="454" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
@@ -12494,10 +12054,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11 C12 C13 C33 C34 C35 C38 C41 C42 C43 C44 C45 C47 C48 C49 C50 C51 C52 C53 C54 C55 C56 C57 C58 C59 C60 C61 C62 C63 C64 C65 C66 C67 C68 C69 C70 C71 C72 C73 C74 C75 C76 C77 C78 C79 C80 C81 C82 C83 C84 C85 C86 C87 C88 C89 C90 C91 C92 C93 C94 C95 C96 C97 C98 C99 C100 C101 C102 C103 C104 C105 C106 C107 C108 C109 C110 C111 C112 C113 C114 C115 C116 C117 C118 C119 C120 C121 C14:C15 C36:C37 C39:C40 C122:C147">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11 C12 C13 C33 C34 C35 C38 C41 C42 C43 C44 C45 C47 C48 C49 C50 C51 C52 C53 C54 C55 C56 C57 C58 C59 C60 C61 C62 C63 C64 C65 C66 C67 C68 C69 C70 C71 C72 C73 C74 C75 C76 C77 C78 C79 C80 C81 C82 C83 C84 C85 C86 C87 C88 C89 C90 C91 C92 C93 C94 C95 C96 C97 C98 C99 C100 C101 C102 C103 C104 C105 C106 C107 C108 C109 C110 C111 C112 C113 C114 C115 C116 C117 C118 C119 C120 C121 C14:C15 C36:C37 C39:C40">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D8 D9 D10 D11 D12 D13 D18 D33 D34 D35 D38 D43 D44 D45 D47 D48 D49 D50 D51 D52 D53 D54 D55 D56 D57 D58 D59 D60 D61 D62 D63 D64 D65 D66 D67 D68 D69 D70 D71 D72 D73 D74 D75 D76 D77 D78 D79 D80 D81 D82 D83 D84 D85 D86 D87 D88 D89 D90 D91 D92 D93 D94 D95 D96 D97 D98 D99 D100 D101 D102 D103 D104 D105 D106 D107 D108 D109 D110 D111 D112 D113 D114 D115 D116 D117 D118 D119 D120 D121 D14:D15 D36:D37 D39:D40 D41:D42 D122:D147">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D8 D9 D10 D11 D12 D13 D18 D33 D34 D35 D38 D43 D44 D45 D47 D48 D49 D50 D51 D52 D53 D54 D55 D56 D57 D58 D59 D60 D61 D62 D63 D64 D65 D66 D67 D68 D69 D70 D71 D72 D73 D74 D75 D76 D77 D78 D79 D80 D81 D82 D83 D84 D85 D86 D87 D88 D89 D90 D91 D92 D93 D94 D95 D96 D97 D98 D99 D100 D101 D102 D103 D104 D105 D106 D107 D108 D109 D110 D111 D112 D113 D114 D115 D116 D117 D118 D119 D120 D121 D14:D15 D36:D37 D39:D40 D41:D42">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
@@ -12509,12 +12069,12 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O190"/>
+  <dimension ref="A1:O120"/>
   <sheetViews>
-    <sheetView zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomLeft" activeCell="B127" sqref="B127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -15656,1196 +15216,6 @@
       <c r="N120" s="57"/>
       <c r="O120" s="47"/>
     </row>
-    <row r="121" ht="23" customHeight="1" spans="1:15">
-      <c r="A121" s="30"/>
-      <c r="B121" s="35"/>
-      <c r="C121" s="36"/>
-      <c r="D121" s="37"/>
-      <c r="E121" s="37"/>
-      <c r="F121" s="37"/>
-      <c r="G121" s="37"/>
-      <c r="H121" s="37"/>
-      <c r="I121" s="37"/>
-      <c r="J121" s="56"/>
-      <c r="K121" s="47"/>
-      <c r="L121" s="57"/>
-      <c r="M121" s="58"/>
-      <c r="N121" s="57"/>
-      <c r="O121" s="47"/>
-    </row>
-    <row r="122" ht="23" customHeight="1" spans="1:15">
-      <c r="A122" s="30"/>
-      <c r="B122" s="35"/>
-      <c r="C122" s="36"/>
-      <c r="D122" s="37"/>
-      <c r="E122" s="37"/>
-      <c r="F122" s="37"/>
-      <c r="G122" s="37"/>
-      <c r="H122" s="37"/>
-      <c r="I122" s="37"/>
-      <c r="J122" s="56"/>
-      <c r="K122" s="47"/>
-      <c r="L122" s="57"/>
-      <c r="M122" s="58"/>
-      <c r="N122" s="57"/>
-      <c r="O122" s="47"/>
-    </row>
-    <row r="123" ht="23" customHeight="1" spans="1:15">
-      <c r="A123" s="30"/>
-      <c r="B123" s="35"/>
-      <c r="C123" s="36"/>
-      <c r="D123" s="37"/>
-      <c r="E123" s="37"/>
-      <c r="F123" s="37"/>
-      <c r="G123" s="37"/>
-      <c r="H123" s="37"/>
-      <c r="I123" s="37"/>
-      <c r="J123" s="56"/>
-      <c r="K123" s="47"/>
-      <c r="L123" s="57"/>
-      <c r="M123" s="58"/>
-      <c r="N123" s="57"/>
-      <c r="O123" s="47"/>
-    </row>
-    <row r="124" ht="23" customHeight="1" spans="1:15">
-      <c r="A124" s="30"/>
-      <c r="B124" s="35"/>
-      <c r="C124" s="36"/>
-      <c r="D124" s="37"/>
-      <c r="E124" s="37"/>
-      <c r="F124" s="37"/>
-      <c r="G124" s="37"/>
-      <c r="H124" s="37"/>
-      <c r="I124" s="37"/>
-      <c r="J124" s="56"/>
-      <c r="K124" s="47"/>
-      <c r="L124" s="57"/>
-      <c r="M124" s="58"/>
-      <c r="N124" s="57"/>
-      <c r="O124" s="47"/>
-    </row>
-    <row r="125" ht="23" customHeight="1" spans="1:15">
-      <c r="A125" s="30"/>
-      <c r="B125" s="35"/>
-      <c r="C125" s="36"/>
-      <c r="D125" s="37"/>
-      <c r="E125" s="37"/>
-      <c r="F125" s="37"/>
-      <c r="G125" s="37"/>
-      <c r="H125" s="37"/>
-      <c r="I125" s="37"/>
-      <c r="J125" s="56"/>
-      <c r="K125" s="47"/>
-      <c r="L125" s="57"/>
-      <c r="M125" s="58"/>
-      <c r="N125" s="57"/>
-      <c r="O125" s="47"/>
-    </row>
-    <row r="126" ht="23" customHeight="1" spans="1:15">
-      <c r="A126" s="30"/>
-      <c r="B126" s="35"/>
-      <c r="C126" s="36"/>
-      <c r="D126" s="37"/>
-      <c r="E126" s="37"/>
-      <c r="F126" s="37"/>
-      <c r="G126" s="37"/>
-      <c r="H126" s="37"/>
-      <c r="I126" s="37"/>
-      <c r="J126" s="56"/>
-      <c r="K126" s="47"/>
-      <c r="L126" s="57"/>
-      <c r="M126" s="58"/>
-      <c r="N126" s="57"/>
-      <c r="O126" s="47"/>
-    </row>
-    <row r="127" ht="23" customHeight="1" spans="1:15">
-      <c r="A127" s="30"/>
-      <c r="B127" s="35"/>
-      <c r="C127" s="36"/>
-      <c r="D127" s="37"/>
-      <c r="E127" s="37"/>
-      <c r="F127" s="37"/>
-      <c r="G127" s="37"/>
-      <c r="H127" s="37"/>
-      <c r="I127" s="37"/>
-      <c r="J127" s="56"/>
-      <c r="K127" s="47"/>
-      <c r="L127" s="57"/>
-      <c r="M127" s="58"/>
-      <c r="N127" s="57"/>
-      <c r="O127" s="47"/>
-    </row>
-    <row r="128" ht="23" customHeight="1" spans="1:15">
-      <c r="A128" s="30"/>
-      <c r="B128" s="35"/>
-      <c r="C128" s="36"/>
-      <c r="D128" s="37"/>
-      <c r="E128" s="37"/>
-      <c r="F128" s="37"/>
-      <c r="G128" s="37"/>
-      <c r="H128" s="37"/>
-      <c r="I128" s="37"/>
-      <c r="J128" s="56"/>
-      <c r="K128" s="47"/>
-      <c r="L128" s="57"/>
-      <c r="M128" s="58"/>
-      <c r="N128" s="57"/>
-      <c r="O128" s="47"/>
-    </row>
-    <row r="129" ht="23" customHeight="1" spans="1:15">
-      <c r="A129" s="30"/>
-      <c r="B129" s="35"/>
-      <c r="C129" s="36"/>
-      <c r="D129" s="37"/>
-      <c r="E129" s="37"/>
-      <c r="F129" s="37"/>
-      <c r="G129" s="37"/>
-      <c r="H129" s="37"/>
-      <c r="I129" s="37"/>
-      <c r="J129" s="56"/>
-      <c r="K129" s="47"/>
-      <c r="L129" s="57"/>
-      <c r="M129" s="58"/>
-      <c r="N129" s="57"/>
-      <c r="O129" s="47"/>
-    </row>
-    <row r="130" ht="23" customHeight="1" spans="1:15">
-      <c r="A130" s="30"/>
-      <c r="B130" s="35"/>
-      <c r="C130" s="36"/>
-      <c r="D130" s="37"/>
-      <c r="E130" s="37"/>
-      <c r="F130" s="37"/>
-      <c r="G130" s="37"/>
-      <c r="H130" s="37"/>
-      <c r="I130" s="37"/>
-      <c r="J130" s="56"/>
-      <c r="K130" s="47"/>
-      <c r="L130" s="57"/>
-      <c r="M130" s="58"/>
-      <c r="N130" s="57"/>
-      <c r="O130" s="47"/>
-    </row>
-    <row r="131" ht="23" customHeight="1" spans="1:15">
-      <c r="A131" s="30"/>
-      <c r="B131" s="35"/>
-      <c r="C131" s="36"/>
-      <c r="D131" s="37"/>
-      <c r="E131" s="37"/>
-      <c r="F131" s="37"/>
-      <c r="G131" s="37"/>
-      <c r="H131" s="37"/>
-      <c r="I131" s="37"/>
-      <c r="J131" s="56"/>
-      <c r="K131" s="47"/>
-      <c r="L131" s="57"/>
-      <c r="M131" s="58"/>
-      <c r="N131" s="57"/>
-      <c r="O131" s="47"/>
-    </row>
-    <row r="132" ht="23" customHeight="1" spans="1:15">
-      <c r="A132" s="30"/>
-      <c r="B132" s="35"/>
-      <c r="C132" s="36"/>
-      <c r="D132" s="37"/>
-      <c r="E132" s="37"/>
-      <c r="F132" s="37"/>
-      <c r="G132" s="37"/>
-      <c r="H132" s="37"/>
-      <c r="I132" s="37"/>
-      <c r="J132" s="56"/>
-      <c r="K132" s="47"/>
-      <c r="L132" s="57"/>
-      <c r="M132" s="58"/>
-      <c r="N132" s="57"/>
-      <c r="O132" s="47"/>
-    </row>
-    <row r="133" ht="23" customHeight="1" spans="1:15">
-      <c r="A133" s="30"/>
-      <c r="B133" s="35"/>
-      <c r="C133" s="36"/>
-      <c r="D133" s="37"/>
-      <c r="E133" s="37"/>
-      <c r="F133" s="37"/>
-      <c r="G133" s="37"/>
-      <c r="H133" s="37"/>
-      <c r="I133" s="37"/>
-      <c r="J133" s="56"/>
-      <c r="K133" s="47"/>
-      <c r="L133" s="57"/>
-      <c r="M133" s="58"/>
-      <c r="N133" s="57"/>
-      <c r="O133" s="47"/>
-    </row>
-    <row r="134" ht="23" customHeight="1" spans="1:15">
-      <c r="A134" s="30"/>
-      <c r="B134" s="35"/>
-      <c r="C134" s="36"/>
-      <c r="D134" s="37"/>
-      <c r="E134" s="37"/>
-      <c r="F134" s="37"/>
-      <c r="G134" s="37"/>
-      <c r="H134" s="37"/>
-      <c r="I134" s="37"/>
-      <c r="J134" s="56"/>
-      <c r="K134" s="47"/>
-      <c r="L134" s="57"/>
-      <c r="M134" s="58"/>
-      <c r="N134" s="57"/>
-      <c r="O134" s="47"/>
-    </row>
-    <row r="135" ht="23" customHeight="1" spans="1:15">
-      <c r="A135" s="30"/>
-      <c r="B135" s="35"/>
-      <c r="C135" s="36"/>
-      <c r="D135" s="37"/>
-      <c r="E135" s="37"/>
-      <c r="F135" s="37"/>
-      <c r="G135" s="37"/>
-      <c r="H135" s="37"/>
-      <c r="I135" s="37"/>
-      <c r="J135" s="56"/>
-      <c r="K135" s="47"/>
-      <c r="L135" s="57"/>
-      <c r="M135" s="58"/>
-      <c r="N135" s="57"/>
-      <c r="O135" s="47"/>
-    </row>
-    <row r="136" ht="23" customHeight="1" spans="1:15">
-      <c r="A136" s="30"/>
-      <c r="B136" s="35"/>
-      <c r="C136" s="36"/>
-      <c r="D136" s="37"/>
-      <c r="E136" s="37"/>
-      <c r="F136" s="37"/>
-      <c r="G136" s="37"/>
-      <c r="H136" s="37"/>
-      <c r="I136" s="37"/>
-      <c r="J136" s="56"/>
-      <c r="K136" s="47"/>
-      <c r="L136" s="57"/>
-      <c r="M136" s="58"/>
-      <c r="N136" s="57"/>
-      <c r="O136" s="47"/>
-    </row>
-    <row r="137" ht="23" customHeight="1" spans="1:15">
-      <c r="A137" s="30"/>
-      <c r="B137" s="35"/>
-      <c r="C137" s="36"/>
-      <c r="D137" s="37"/>
-      <c r="E137" s="37"/>
-      <c r="F137" s="37"/>
-      <c r="G137" s="37"/>
-      <c r="H137" s="37"/>
-      <c r="I137" s="37"/>
-      <c r="J137" s="56"/>
-      <c r="K137" s="47"/>
-      <c r="L137" s="57"/>
-      <c r="M137" s="58"/>
-      <c r="N137" s="57"/>
-      <c r="O137" s="47"/>
-    </row>
-    <row r="138" ht="23" customHeight="1" spans="1:15">
-      <c r="A138" s="30"/>
-      <c r="B138" s="35"/>
-      <c r="C138" s="36"/>
-      <c r="D138" s="37"/>
-      <c r="E138" s="37"/>
-      <c r="F138" s="37"/>
-      <c r="G138" s="37"/>
-      <c r="H138" s="37"/>
-      <c r="I138" s="37"/>
-      <c r="J138" s="56"/>
-      <c r="K138" s="47"/>
-      <c r="L138" s="57"/>
-      <c r="M138" s="58"/>
-      <c r="N138" s="57"/>
-      <c r="O138" s="47"/>
-    </row>
-    <row r="139" ht="23" customHeight="1" spans="1:15">
-      <c r="A139" s="30"/>
-      <c r="B139" s="35"/>
-      <c r="C139" s="36"/>
-      <c r="D139" s="37"/>
-      <c r="E139" s="37"/>
-      <c r="F139" s="37"/>
-      <c r="G139" s="37"/>
-      <c r="H139" s="37"/>
-      <c r="I139" s="37"/>
-      <c r="J139" s="56"/>
-      <c r="K139" s="47"/>
-      <c r="L139" s="57"/>
-      <c r="M139" s="58"/>
-      <c r="N139" s="57"/>
-      <c r="O139" s="47"/>
-    </row>
-    <row r="140" ht="23" customHeight="1" spans="1:15">
-      <c r="A140" s="30"/>
-      <c r="B140" s="35"/>
-      <c r="C140" s="36"/>
-      <c r="D140" s="37"/>
-      <c r="E140" s="37"/>
-      <c r="F140" s="37"/>
-      <c r="G140" s="37"/>
-      <c r="H140" s="37"/>
-      <c r="I140" s="37"/>
-      <c r="J140" s="56"/>
-      <c r="K140" s="47"/>
-      <c r="L140" s="57"/>
-      <c r="M140" s="58"/>
-      <c r="N140" s="57"/>
-      <c r="O140" s="47"/>
-    </row>
-    <row r="141" ht="23" customHeight="1" spans="1:15">
-      <c r="A141" s="30"/>
-      <c r="B141" s="35"/>
-      <c r="C141" s="36"/>
-      <c r="D141" s="37"/>
-      <c r="E141" s="37"/>
-      <c r="F141" s="37"/>
-      <c r="G141" s="37"/>
-      <c r="H141" s="37"/>
-      <c r="I141" s="37"/>
-      <c r="J141" s="56"/>
-      <c r="K141" s="47"/>
-      <c r="L141" s="57"/>
-      <c r="M141" s="58"/>
-      <c r="N141" s="57"/>
-      <c r="O141" s="47"/>
-    </row>
-    <row r="142" ht="23" customHeight="1" spans="1:15">
-      <c r="A142" s="30"/>
-      <c r="B142" s="35"/>
-      <c r="C142" s="36"/>
-      <c r="D142" s="37"/>
-      <c r="E142" s="37"/>
-      <c r="F142" s="37"/>
-      <c r="G142" s="37"/>
-      <c r="H142" s="37"/>
-      <c r="I142" s="37"/>
-      <c r="J142" s="56"/>
-      <c r="K142" s="47"/>
-      <c r="L142" s="57"/>
-      <c r="M142" s="58"/>
-      <c r="N142" s="57"/>
-      <c r="O142" s="47"/>
-    </row>
-    <row r="143" ht="23" customHeight="1" spans="1:15">
-      <c r="A143" s="30"/>
-      <c r="B143" s="35"/>
-      <c r="C143" s="36"/>
-      <c r="D143" s="37"/>
-      <c r="E143" s="37"/>
-      <c r="F143" s="37"/>
-      <c r="G143" s="37"/>
-      <c r="H143" s="37"/>
-      <c r="I143" s="37"/>
-      <c r="J143" s="56"/>
-      <c r="K143" s="47"/>
-      <c r="L143" s="57"/>
-      <c r="M143" s="58"/>
-      <c r="N143" s="57"/>
-      <c r="O143" s="47"/>
-    </row>
-    <row r="144" ht="23" customHeight="1" spans="1:15">
-      <c r="A144" s="30"/>
-      <c r="B144" s="35"/>
-      <c r="C144" s="36"/>
-      <c r="D144" s="37"/>
-      <c r="E144" s="37"/>
-      <c r="F144" s="37"/>
-      <c r="G144" s="37"/>
-      <c r="H144" s="37"/>
-      <c r="I144" s="37"/>
-      <c r="J144" s="56"/>
-      <c r="K144" s="47"/>
-      <c r="L144" s="57"/>
-      <c r="M144" s="58"/>
-      <c r="N144" s="57"/>
-      <c r="O144" s="47"/>
-    </row>
-    <row r="145" ht="23" customHeight="1" spans="1:15">
-      <c r="A145" s="30"/>
-      <c r="B145" s="35"/>
-      <c r="C145" s="36"/>
-      <c r="D145" s="37"/>
-      <c r="E145" s="37"/>
-      <c r="F145" s="37"/>
-      <c r="G145" s="37"/>
-      <c r="H145" s="37"/>
-      <c r="I145" s="37"/>
-      <c r="J145" s="56"/>
-      <c r="K145" s="47"/>
-      <c r="L145" s="57"/>
-      <c r="M145" s="58"/>
-      <c r="N145" s="57"/>
-      <c r="O145" s="47"/>
-    </row>
-    <row r="146" ht="23" customHeight="1" spans="1:15">
-      <c r="A146" s="30"/>
-      <c r="B146" s="35"/>
-      <c r="C146" s="36"/>
-      <c r="D146" s="37"/>
-      <c r="E146" s="37"/>
-      <c r="F146" s="37"/>
-      <c r="G146" s="37"/>
-      <c r="H146" s="37"/>
-      <c r="I146" s="37"/>
-      <c r="J146" s="56"/>
-      <c r="K146" s="47"/>
-      <c r="L146" s="57"/>
-      <c r="M146" s="58"/>
-      <c r="N146" s="57"/>
-      <c r="O146" s="47"/>
-    </row>
-    <row r="147" ht="23" customHeight="1" spans="1:15">
-      <c r="A147" s="30"/>
-      <c r="B147" s="35"/>
-      <c r="C147" s="36"/>
-      <c r="D147" s="37"/>
-      <c r="E147" s="37"/>
-      <c r="F147" s="37"/>
-      <c r="G147" s="37"/>
-      <c r="H147" s="37"/>
-      <c r="I147" s="37"/>
-      <c r="J147" s="56"/>
-      <c r="K147" s="47"/>
-      <c r="L147" s="57"/>
-      <c r="M147" s="58"/>
-      <c r="N147" s="57"/>
-      <c r="O147" s="47"/>
-    </row>
-    <row r="148" ht="23" customHeight="1" spans="1:15">
-      <c r="A148" s="30"/>
-      <c r="B148" s="35"/>
-      <c r="C148" s="36"/>
-      <c r="D148" s="37"/>
-      <c r="E148" s="37"/>
-      <c r="F148" s="37"/>
-      <c r="G148" s="37"/>
-      <c r="H148" s="37"/>
-      <c r="I148" s="37"/>
-      <c r="J148" s="56"/>
-      <c r="K148" s="47"/>
-      <c r="L148" s="57"/>
-      <c r="M148" s="58"/>
-      <c r="N148" s="57"/>
-      <c r="O148" s="47"/>
-    </row>
-    <row r="149" ht="23" customHeight="1" spans="1:15">
-      <c r="A149" s="30"/>
-      <c r="B149" s="35"/>
-      <c r="C149" s="36"/>
-      <c r="D149" s="37"/>
-      <c r="E149" s="37"/>
-      <c r="F149" s="37"/>
-      <c r="G149" s="37"/>
-      <c r="H149" s="37"/>
-      <c r="I149" s="37"/>
-      <c r="J149" s="56"/>
-      <c r="K149" s="47"/>
-      <c r="L149" s="57"/>
-      <c r="M149" s="58"/>
-      <c r="N149" s="57"/>
-      <c r="O149" s="47"/>
-    </row>
-    <row r="150" ht="23" customHeight="1" spans="1:15">
-      <c r="A150" s="30"/>
-      <c r="B150" s="35"/>
-      <c r="C150" s="36"/>
-      <c r="D150" s="37"/>
-      <c r="E150" s="37"/>
-      <c r="F150" s="37"/>
-      <c r="G150" s="37"/>
-      <c r="H150" s="37"/>
-      <c r="I150" s="37"/>
-      <c r="J150" s="56"/>
-      <c r="K150" s="47"/>
-      <c r="L150" s="57"/>
-      <c r="M150" s="58"/>
-      <c r="N150" s="57"/>
-      <c r="O150" s="47"/>
-    </row>
-    <row r="151" ht="23" customHeight="1" spans="1:15">
-      <c r="A151" s="30"/>
-      <c r="B151" s="35"/>
-      <c r="C151" s="36"/>
-      <c r="D151" s="37"/>
-      <c r="E151" s="37"/>
-      <c r="F151" s="37"/>
-      <c r="G151" s="37"/>
-      <c r="H151" s="37"/>
-      <c r="I151" s="37"/>
-      <c r="J151" s="56"/>
-      <c r="K151" s="47"/>
-      <c r="L151" s="57"/>
-      <c r="M151" s="58"/>
-      <c r="N151" s="57"/>
-      <c r="O151" s="47"/>
-    </row>
-    <row r="152" ht="23" customHeight="1" spans="1:15">
-      <c r="A152" s="30"/>
-      <c r="B152" s="35"/>
-      <c r="C152" s="36"/>
-      <c r="D152" s="37"/>
-      <c r="E152" s="37"/>
-      <c r="F152" s="37"/>
-      <c r="G152" s="37"/>
-      <c r="H152" s="37"/>
-      <c r="I152" s="37"/>
-      <c r="J152" s="56"/>
-      <c r="K152" s="47"/>
-      <c r="L152" s="57"/>
-      <c r="M152" s="58"/>
-      <c r="N152" s="57"/>
-      <c r="O152" s="47"/>
-    </row>
-    <row r="153" ht="23" customHeight="1" spans="1:15">
-      <c r="A153" s="30"/>
-      <c r="B153" s="35"/>
-      <c r="C153" s="36"/>
-      <c r="D153" s="37"/>
-      <c r="E153" s="37"/>
-      <c r="F153" s="37"/>
-      <c r="G153" s="37"/>
-      <c r="H153" s="37"/>
-      <c r="I153" s="37"/>
-      <c r="J153" s="56"/>
-      <c r="K153" s="47"/>
-      <c r="L153" s="57"/>
-      <c r="M153" s="58"/>
-      <c r="N153" s="57"/>
-      <c r="O153" s="47"/>
-    </row>
-    <row r="154" ht="23" customHeight="1" spans="1:15">
-      <c r="A154" s="30"/>
-      <c r="B154" s="35"/>
-      <c r="C154" s="36"/>
-      <c r="D154" s="37"/>
-      <c r="E154" s="37"/>
-      <c r="F154" s="37"/>
-      <c r="G154" s="37"/>
-      <c r="H154" s="37"/>
-      <c r="I154" s="37"/>
-      <c r="J154" s="56"/>
-      <c r="K154" s="47"/>
-      <c r="L154" s="57"/>
-      <c r="M154" s="58"/>
-      <c r="N154" s="57"/>
-      <c r="O154" s="47"/>
-    </row>
-    <row r="155" ht="23" customHeight="1" spans="1:15">
-      <c r="A155" s="30"/>
-      <c r="B155" s="35"/>
-      <c r="C155" s="36"/>
-      <c r="D155" s="37"/>
-      <c r="E155" s="37"/>
-      <c r="F155" s="37"/>
-      <c r="G155" s="37"/>
-      <c r="H155" s="37"/>
-      <c r="I155" s="37"/>
-      <c r="J155" s="56"/>
-      <c r="K155" s="47"/>
-      <c r="L155" s="57"/>
-      <c r="M155" s="58"/>
-      <c r="N155" s="57"/>
-      <c r="O155" s="47"/>
-    </row>
-    <row r="156" ht="23" customHeight="1" spans="1:15">
-      <c r="A156" s="30"/>
-      <c r="B156" s="35"/>
-      <c r="C156" s="36"/>
-      <c r="D156" s="37"/>
-      <c r="E156" s="37"/>
-      <c r="F156" s="37"/>
-      <c r="G156" s="37"/>
-      <c r="H156" s="37"/>
-      <c r="I156" s="37"/>
-      <c r="J156" s="56"/>
-      <c r="K156" s="47"/>
-      <c r="L156" s="57"/>
-      <c r="M156" s="58"/>
-      <c r="N156" s="57"/>
-      <c r="O156" s="47"/>
-    </row>
-    <row r="157" ht="23" customHeight="1" spans="1:15">
-      <c r="A157" s="30"/>
-      <c r="B157" s="35"/>
-      <c r="C157" s="36"/>
-      <c r="D157" s="37"/>
-      <c r="E157" s="37"/>
-      <c r="F157" s="37"/>
-      <c r="G157" s="37"/>
-      <c r="H157" s="37"/>
-      <c r="I157" s="37"/>
-      <c r="J157" s="56"/>
-      <c r="K157" s="47"/>
-      <c r="L157" s="57"/>
-      <c r="M157" s="58"/>
-      <c r="N157" s="57"/>
-      <c r="O157" s="47"/>
-    </row>
-    <row r="158" ht="23" customHeight="1" spans="1:15">
-      <c r="A158" s="30"/>
-      <c r="B158" s="35"/>
-      <c r="C158" s="36"/>
-      <c r="D158" s="37"/>
-      <c r="E158" s="37"/>
-      <c r="F158" s="37"/>
-      <c r="G158" s="37"/>
-      <c r="H158" s="37"/>
-      <c r="I158" s="37"/>
-      <c r="J158" s="56"/>
-      <c r="K158" s="47"/>
-      <c r="L158" s="57"/>
-      <c r="M158" s="58"/>
-      <c r="N158" s="57"/>
-      <c r="O158" s="47"/>
-    </row>
-    <row r="159" ht="23" customHeight="1" spans="1:15">
-      <c r="A159" s="30"/>
-      <c r="B159" s="35"/>
-      <c r="C159" s="36"/>
-      <c r="D159" s="37"/>
-      <c r="E159" s="37"/>
-      <c r="F159" s="37"/>
-      <c r="G159" s="37"/>
-      <c r="H159" s="37"/>
-      <c r="I159" s="37"/>
-      <c r="J159" s="56"/>
-      <c r="K159" s="47"/>
-      <c r="L159" s="57"/>
-      <c r="M159" s="58"/>
-      <c r="N159" s="57"/>
-      <c r="O159" s="47"/>
-    </row>
-    <row r="160" ht="23" customHeight="1" spans="1:15">
-      <c r="A160" s="30"/>
-      <c r="B160" s="35"/>
-      <c r="C160" s="36"/>
-      <c r="D160" s="37"/>
-      <c r="E160" s="37"/>
-      <c r="F160" s="37"/>
-      <c r="G160" s="37"/>
-      <c r="H160" s="37"/>
-      <c r="I160" s="37"/>
-      <c r="J160" s="56"/>
-      <c r="K160" s="47"/>
-      <c r="L160" s="57"/>
-      <c r="M160" s="58"/>
-      <c r="N160" s="57"/>
-      <c r="O160" s="47"/>
-    </row>
-    <row r="161" ht="23" customHeight="1" spans="1:15">
-      <c r="A161" s="30"/>
-      <c r="B161" s="35"/>
-      <c r="C161" s="36"/>
-      <c r="D161" s="37"/>
-      <c r="E161" s="37"/>
-      <c r="F161" s="37"/>
-      <c r="G161" s="37"/>
-      <c r="H161" s="37"/>
-      <c r="I161" s="37"/>
-      <c r="J161" s="56"/>
-      <c r="K161" s="47"/>
-      <c r="L161" s="57"/>
-      <c r="M161" s="58"/>
-      <c r="N161" s="57"/>
-      <c r="O161" s="47"/>
-    </row>
-    <row r="162" ht="23" customHeight="1" spans="1:15">
-      <c r="A162" s="30"/>
-      <c r="B162" s="35"/>
-      <c r="C162" s="36"/>
-      <c r="D162" s="37"/>
-      <c r="E162" s="37"/>
-      <c r="F162" s="37"/>
-      <c r="G162" s="37"/>
-      <c r="H162" s="37"/>
-      <c r="I162" s="37"/>
-      <c r="J162" s="56"/>
-      <c r="K162" s="47"/>
-      <c r="L162" s="57"/>
-      <c r="M162" s="58"/>
-      <c r="N162" s="57"/>
-      <c r="O162" s="47"/>
-    </row>
-    <row r="163" ht="23" customHeight="1" spans="1:15">
-      <c r="A163" s="30"/>
-      <c r="B163" s="35"/>
-      <c r="C163" s="36"/>
-      <c r="D163" s="37"/>
-      <c r="E163" s="37"/>
-      <c r="F163" s="37"/>
-      <c r="G163" s="37"/>
-      <c r="H163" s="37"/>
-      <c r="I163" s="37"/>
-      <c r="J163" s="56"/>
-      <c r="K163" s="47"/>
-      <c r="L163" s="57"/>
-      <c r="M163" s="58"/>
-      <c r="N163" s="57"/>
-      <c r="O163" s="47"/>
-    </row>
-    <row r="164" ht="23" customHeight="1" spans="1:15">
-      <c r="A164" s="30"/>
-      <c r="B164" s="35"/>
-      <c r="C164" s="36"/>
-      <c r="D164" s="37"/>
-      <c r="E164" s="37"/>
-      <c r="F164" s="37"/>
-      <c r="G164" s="37"/>
-      <c r="H164" s="37"/>
-      <c r="I164" s="37"/>
-      <c r="J164" s="56"/>
-      <c r="K164" s="47"/>
-      <c r="L164" s="57"/>
-      <c r="M164" s="58"/>
-      <c r="N164" s="57"/>
-      <c r="O164" s="47"/>
-    </row>
-    <row r="165" ht="23" customHeight="1" spans="1:15">
-      <c r="A165" s="30"/>
-      <c r="B165" s="35"/>
-      <c r="C165" s="36"/>
-      <c r="D165" s="37"/>
-      <c r="E165" s="37"/>
-      <c r="F165" s="37"/>
-      <c r="G165" s="37"/>
-      <c r="H165" s="37"/>
-      <c r="I165" s="37"/>
-      <c r="J165" s="56"/>
-      <c r="K165" s="47"/>
-      <c r="L165" s="57"/>
-      <c r="M165" s="58"/>
-      <c r="N165" s="57"/>
-      <c r="O165" s="47"/>
-    </row>
-    <row r="166" ht="23" customHeight="1" spans="1:15">
-      <c r="A166" s="30"/>
-      <c r="B166" s="35"/>
-      <c r="C166" s="36"/>
-      <c r="D166" s="37"/>
-      <c r="E166" s="37"/>
-      <c r="F166" s="37"/>
-      <c r="G166" s="37"/>
-      <c r="H166" s="37"/>
-      <c r="I166" s="37"/>
-      <c r="J166" s="56"/>
-      <c r="K166" s="47"/>
-      <c r="L166" s="57"/>
-      <c r="M166" s="58"/>
-      <c r="N166" s="57"/>
-      <c r="O166" s="47"/>
-    </row>
-    <row r="167" ht="23" customHeight="1" spans="1:15">
-      <c r="A167" s="30"/>
-      <c r="B167" s="35"/>
-      <c r="C167" s="36"/>
-      <c r="D167" s="37"/>
-      <c r="E167" s="37"/>
-      <c r="F167" s="37"/>
-      <c r="G167" s="37"/>
-      <c r="H167" s="37"/>
-      <c r="I167" s="37"/>
-      <c r="J167" s="56"/>
-      <c r="K167" s="47"/>
-      <c r="L167" s="57"/>
-      <c r="M167" s="58"/>
-      <c r="N167" s="57"/>
-      <c r="O167" s="47"/>
-    </row>
-    <row r="168" ht="23" customHeight="1" spans="1:15">
-      <c r="A168" s="30"/>
-      <c r="B168" s="35"/>
-      <c r="C168" s="36"/>
-      <c r="D168" s="37"/>
-      <c r="E168" s="37"/>
-      <c r="F168" s="37"/>
-      <c r="G168" s="37"/>
-      <c r="H168" s="37"/>
-      <c r="I168" s="37"/>
-      <c r="J168" s="56"/>
-      <c r="K168" s="47"/>
-      <c r="L168" s="57"/>
-      <c r="M168" s="58"/>
-      <c r="N168" s="57"/>
-      <c r="O168" s="47"/>
-    </row>
-    <row r="169" ht="23" customHeight="1" spans="1:15">
-      <c r="A169" s="30"/>
-      <c r="B169" s="35"/>
-      <c r="C169" s="36"/>
-      <c r="D169" s="37"/>
-      <c r="E169" s="37"/>
-      <c r="F169" s="37"/>
-      <c r="G169" s="37"/>
-      <c r="H169" s="37"/>
-      <c r="I169" s="37"/>
-      <c r="J169" s="56"/>
-      <c r="K169" s="47"/>
-      <c r="L169" s="57"/>
-      <c r="M169" s="58"/>
-      <c r="N169" s="57"/>
-      <c r="O169" s="47"/>
-    </row>
-    <row r="170" ht="23" customHeight="1" spans="1:15">
-      <c r="A170" s="30"/>
-      <c r="B170" s="35"/>
-      <c r="C170" s="36"/>
-      <c r="D170" s="37"/>
-      <c r="E170" s="37"/>
-      <c r="F170" s="37"/>
-      <c r="G170" s="37"/>
-      <c r="H170" s="37"/>
-      <c r="I170" s="37"/>
-      <c r="J170" s="56"/>
-      <c r="K170" s="47"/>
-      <c r="L170" s="57"/>
-      <c r="M170" s="58"/>
-      <c r="N170" s="57"/>
-      <c r="O170" s="47"/>
-    </row>
-    <row r="171" ht="23" customHeight="1" spans="1:15">
-      <c r="A171" s="30"/>
-      <c r="B171" s="35"/>
-      <c r="C171" s="36"/>
-      <c r="D171" s="37"/>
-      <c r="E171" s="37"/>
-      <c r="F171" s="37"/>
-      <c r="G171" s="37"/>
-      <c r="H171" s="37"/>
-      <c r="I171" s="37"/>
-      <c r="J171" s="56"/>
-      <c r="K171" s="47"/>
-      <c r="L171" s="57"/>
-      <c r="M171" s="58"/>
-      <c r="N171" s="57"/>
-      <c r="O171" s="47"/>
-    </row>
-    <row r="172" ht="23" customHeight="1" spans="1:15">
-      <c r="A172" s="30"/>
-      <c r="B172" s="35"/>
-      <c r="C172" s="36"/>
-      <c r="D172" s="37"/>
-      <c r="E172" s="37"/>
-      <c r="F172" s="37"/>
-      <c r="G172" s="37"/>
-      <c r="H172" s="37"/>
-      <c r="I172" s="37"/>
-      <c r="J172" s="56"/>
-      <c r="K172" s="47"/>
-      <c r="L172" s="57"/>
-      <c r="M172" s="58"/>
-      <c r="N172" s="57"/>
-      <c r="O172" s="47"/>
-    </row>
-    <row r="173" ht="23" customHeight="1" spans="1:15">
-      <c r="A173" s="30"/>
-      <c r="B173" s="35"/>
-      <c r="C173" s="36"/>
-      <c r="D173" s="37"/>
-      <c r="E173" s="37"/>
-      <c r="F173" s="37"/>
-      <c r="G173" s="37"/>
-      <c r="H173" s="37"/>
-      <c r="I173" s="37"/>
-      <c r="J173" s="56"/>
-      <c r="K173" s="47"/>
-      <c r="L173" s="57"/>
-      <c r="M173" s="58"/>
-      <c r="N173" s="57"/>
-      <c r="O173" s="47"/>
-    </row>
-    <row r="174" ht="23" customHeight="1" spans="1:15">
-      <c r="A174" s="30"/>
-      <c r="B174" s="35"/>
-      <c r="C174" s="36"/>
-      <c r="D174" s="37"/>
-      <c r="E174" s="37"/>
-      <c r="F174" s="37"/>
-      <c r="G174" s="37"/>
-      <c r="H174" s="37"/>
-      <c r="I174" s="37"/>
-      <c r="J174" s="56"/>
-      <c r="K174" s="47"/>
-      <c r="L174" s="57"/>
-      <c r="M174" s="58"/>
-      <c r="N174" s="57"/>
-      <c r="O174" s="47"/>
-    </row>
-    <row r="175" ht="23" customHeight="1" spans="1:15">
-      <c r="A175" s="30"/>
-      <c r="B175" s="35"/>
-      <c r="C175" s="36"/>
-      <c r="D175" s="37"/>
-      <c r="E175" s="37"/>
-      <c r="F175" s="37"/>
-      <c r="G175" s="37"/>
-      <c r="H175" s="37"/>
-      <c r="I175" s="37"/>
-      <c r="J175" s="56"/>
-      <c r="K175" s="47"/>
-      <c r="L175" s="57"/>
-      <c r="M175" s="58"/>
-      <c r="N175" s="57"/>
-      <c r="O175" s="47"/>
-    </row>
-    <row r="176" ht="23" customHeight="1" spans="1:15">
-      <c r="A176" s="30"/>
-      <c r="B176" s="35"/>
-      <c r="C176" s="36"/>
-      <c r="D176" s="37"/>
-      <c r="E176" s="37"/>
-      <c r="F176" s="37"/>
-      <c r="G176" s="37"/>
-      <c r="H176" s="37"/>
-      <c r="I176" s="37"/>
-      <c r="J176" s="56"/>
-      <c r="K176" s="47"/>
-      <c r="L176" s="57"/>
-      <c r="M176" s="58"/>
-      <c r="N176" s="57"/>
-      <c r="O176" s="47"/>
-    </row>
-    <row r="177" ht="23" customHeight="1" spans="1:15">
-      <c r="A177" s="30"/>
-      <c r="B177" s="35"/>
-      <c r="C177" s="36"/>
-      <c r="D177" s="37"/>
-      <c r="E177" s="37"/>
-      <c r="F177" s="37"/>
-      <c r="G177" s="37"/>
-      <c r="H177" s="37"/>
-      <c r="I177" s="37"/>
-      <c r="J177" s="56"/>
-      <c r="K177" s="47"/>
-      <c r="L177" s="57"/>
-      <c r="M177" s="58"/>
-      <c r="N177" s="57"/>
-      <c r="O177" s="47"/>
-    </row>
-    <row r="178" ht="23" customHeight="1" spans="1:15">
-      <c r="A178" s="30"/>
-      <c r="B178" s="35"/>
-      <c r="C178" s="36"/>
-      <c r="D178" s="37"/>
-      <c r="E178" s="37"/>
-      <c r="F178" s="37"/>
-      <c r="G178" s="37"/>
-      <c r="H178" s="37"/>
-      <c r="I178" s="37"/>
-      <c r="J178" s="56"/>
-      <c r="K178" s="47"/>
-      <c r="L178" s="57"/>
-      <c r="M178" s="58"/>
-      <c r="N178" s="57"/>
-      <c r="O178" s="47"/>
-    </row>
-    <row r="179" ht="23" customHeight="1" spans="1:15">
-      <c r="A179" s="30"/>
-      <c r="B179" s="35"/>
-      <c r="C179" s="36"/>
-      <c r="D179" s="37"/>
-      <c r="E179" s="37"/>
-      <c r="F179" s="37"/>
-      <c r="G179" s="37"/>
-      <c r="H179" s="37"/>
-      <c r="I179" s="37"/>
-      <c r="J179" s="56"/>
-      <c r="K179" s="47"/>
-      <c r="L179" s="57"/>
-      <c r="M179" s="58"/>
-      <c r="N179" s="57"/>
-      <c r="O179" s="47"/>
-    </row>
-    <row r="180" ht="23" customHeight="1" spans="1:15">
-      <c r="A180" s="30"/>
-      <c r="B180" s="35"/>
-      <c r="C180" s="36"/>
-      <c r="D180" s="37"/>
-      <c r="E180" s="37"/>
-      <c r="F180" s="37"/>
-      <c r="G180" s="37"/>
-      <c r="H180" s="37"/>
-      <c r="I180" s="37"/>
-      <c r="J180" s="56"/>
-      <c r="K180" s="47"/>
-      <c r="L180" s="57"/>
-      <c r="M180" s="58"/>
-      <c r="N180" s="57"/>
-      <c r="O180" s="47"/>
-    </row>
-    <row r="181" ht="23" customHeight="1" spans="1:15">
-      <c r="A181" s="30"/>
-      <c r="B181" s="35"/>
-      <c r="C181" s="36"/>
-      <c r="D181" s="37"/>
-      <c r="E181" s="37"/>
-      <c r="F181" s="37"/>
-      <c r="G181" s="37"/>
-      <c r="H181" s="37"/>
-      <c r="I181" s="37"/>
-      <c r="J181" s="56"/>
-      <c r="K181" s="47"/>
-      <c r="L181" s="57"/>
-      <c r="M181" s="58"/>
-      <c r="N181" s="57"/>
-      <c r="O181" s="47"/>
-    </row>
-    <row r="182" ht="23" customHeight="1" spans="1:15">
-      <c r="A182" s="30"/>
-      <c r="B182" s="35"/>
-      <c r="C182" s="36"/>
-      <c r="D182" s="37"/>
-      <c r="E182" s="37"/>
-      <c r="F182" s="37"/>
-      <c r="G182" s="37"/>
-      <c r="H182" s="37"/>
-      <c r="I182" s="37"/>
-      <c r="J182" s="56"/>
-      <c r="K182" s="47"/>
-      <c r="L182" s="57"/>
-      <c r="M182" s="58"/>
-      <c r="N182" s="57"/>
-      <c r="O182" s="47"/>
-    </row>
-    <row r="183" ht="23" customHeight="1" spans="1:15">
-      <c r="A183" s="30"/>
-      <c r="B183" s="35"/>
-      <c r="C183" s="36"/>
-      <c r="D183" s="37"/>
-      <c r="E183" s="37"/>
-      <c r="F183" s="37"/>
-      <c r="G183" s="37"/>
-      <c r="H183" s="37"/>
-      <c r="I183" s="37"/>
-      <c r="J183" s="56"/>
-      <c r="K183" s="47"/>
-      <c r="L183" s="57"/>
-      <c r="M183" s="58"/>
-      <c r="N183" s="57"/>
-      <c r="O183" s="47"/>
-    </row>
-    <row r="184" ht="23" customHeight="1" spans="1:15">
-      <c r="A184" s="30"/>
-      <c r="B184" s="35"/>
-      <c r="C184" s="36"/>
-      <c r="D184" s="37"/>
-      <c r="E184" s="37"/>
-      <c r="F184" s="37"/>
-      <c r="G184" s="37"/>
-      <c r="H184" s="37"/>
-      <c r="I184" s="37"/>
-      <c r="J184" s="56"/>
-      <c r="K184" s="47"/>
-      <c r="L184" s="57"/>
-      <c r="M184" s="58"/>
-      <c r="N184" s="57"/>
-      <c r="O184" s="47"/>
-    </row>
-    <row r="185" ht="23" customHeight="1" spans="1:15">
-      <c r="A185" s="30"/>
-      <c r="B185" s="35"/>
-      <c r="C185" s="36"/>
-      <c r="D185" s="37"/>
-      <c r="E185" s="37"/>
-      <c r="F185" s="37"/>
-      <c r="G185" s="37"/>
-      <c r="H185" s="37"/>
-      <c r="I185" s="37"/>
-      <c r="J185" s="56"/>
-      <c r="K185" s="47"/>
-      <c r="L185" s="57"/>
-      <c r="M185" s="58"/>
-      <c r="N185" s="57"/>
-      <c r="O185" s="47"/>
-    </row>
-    <row r="186" ht="23" customHeight="1" spans="1:15">
-      <c r="A186" s="30"/>
-      <c r="B186" s="35"/>
-      <c r="C186" s="36"/>
-      <c r="D186" s="37"/>
-      <c r="E186" s="37"/>
-      <c r="F186" s="37"/>
-      <c r="G186" s="37"/>
-      <c r="H186" s="37"/>
-      <c r="I186" s="37"/>
-      <c r="J186" s="56"/>
-      <c r="K186" s="47"/>
-      <c r="L186" s="57"/>
-      <c r="M186" s="58"/>
-      <c r="N186" s="57"/>
-      <c r="O186" s="47"/>
-    </row>
-    <row r="187" ht="23" customHeight="1" spans="1:15">
-      <c r="A187" s="30"/>
-      <c r="B187" s="35"/>
-      <c r="C187" s="36"/>
-      <c r="D187" s="37"/>
-      <c r="E187" s="37"/>
-      <c r="F187" s="37"/>
-      <c r="G187" s="37"/>
-      <c r="H187" s="37"/>
-      <c r="I187" s="37"/>
-      <c r="J187" s="56"/>
-      <c r="K187" s="47"/>
-      <c r="L187" s="57"/>
-      <c r="M187" s="58"/>
-      <c r="N187" s="57"/>
-      <c r="O187" s="47"/>
-    </row>
-    <row r="188" ht="23" customHeight="1" spans="1:15">
-      <c r="A188" s="30"/>
-      <c r="B188" s="35"/>
-      <c r="C188" s="36"/>
-      <c r="D188" s="37"/>
-      <c r="E188" s="37"/>
-      <c r="F188" s="37"/>
-      <c r="G188" s="37"/>
-      <c r="H188" s="37"/>
-      <c r="I188" s="37"/>
-      <c r="J188" s="56"/>
-      <c r="K188" s="47"/>
-      <c r="L188" s="57"/>
-      <c r="M188" s="58"/>
-      <c r="N188" s="57"/>
-      <c r="O188" s="47"/>
-    </row>
-    <row r="189" ht="23" customHeight="1" spans="1:15">
-      <c r="A189" s="30"/>
-      <c r="B189" s="35"/>
-      <c r="C189" s="36"/>
-      <c r="D189" s="37"/>
-      <c r="E189" s="37"/>
-      <c r="F189" s="37"/>
-      <c r="G189" s="37"/>
-      <c r="H189" s="37"/>
-      <c r="I189" s="37"/>
-      <c r="J189" s="56"/>
-      <c r="K189" s="47"/>
-      <c r="L189" s="57"/>
-      <c r="M189" s="58"/>
-      <c r="N189" s="57"/>
-      <c r="O189" s="47"/>
-    </row>
-    <row r="190" ht="23" customHeight="1" spans="1:15">
-      <c r="A190" s="30"/>
-      <c r="B190" s="35"/>
-      <c r="C190" s="36"/>
-      <c r="D190" s="37"/>
-      <c r="E190" s="37"/>
-      <c r="F190" s="37"/>
-      <c r="G190" s="37"/>
-      <c r="H190" s="37"/>
-      <c r="I190" s="37"/>
-      <c r="J190" s="56"/>
-      <c r="K190" s="47"/>
-      <c r="L190" s="57"/>
-      <c r="M190" s="58"/>
-      <c r="N190" s="57"/>
-      <c r="O190" s="47"/>
-    </row>
   </sheetData>
   <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
   <mergeCells count="4">
@@ -17492,17 +15862,6 @@
       <formula>LEFT(N99,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N121:N190">
-    <cfRule type="beginsWith" dxfId="2" priority="370" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N121,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="371" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N121,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="372" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N121,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="N25:N27 N31">
     <cfRule type="beginsWith" dxfId="2" priority="13" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N25,LEN("WARN"))="WARN"</formula>
@@ -17570,10 +15929,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11 C12 C32 C33 C34 C37 C40 C41 C42 C43 C44 C46 C47 C48 C49 C50 C51 C52 C53 C54 C55 C56 C57 C58 C59 C60 C61 C62 C63 C64 C65 C66 C67 C68 C69 C70 C71 C72 C73 C74 C75 C76 C77 C78 C79 C80 C81 C82 C83 C84 C85 C86 C87 C88 C89 C90 C91 C92 C93 C94 C95 C96 C97 C98 C99 C100 C101 C102 C103 C104 C105 C106 C107 C108 C109 C110 C111 C112 C113 C114 C115 C116 C117 C118 C119 C120 C13:C14 C35:C36 C38:C39 C121:C190">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11 C12 C32 C33 C34 C37 C40 C41 C42 C43 C44 C46 C47 C48 C49 C50 C51 C52 C53 C54 C55 C56 C57 C58 C59 C60 C61 C62 C63 C64 C65 C66 C67 C68 C69 C70 C71 C72 C73 C74 C75 C76 C77 C78 C79 C80 C81 C82 C83 C84 C85 C86 C87 C88 C89 C90 C91 C92 C93 C94 C95 C96 C97 C98 C99 C100 C101 C102 C103 C104 C105 C106 C107 C108 C109 C110 C111 C112 C113 C114 C115 C116 C117 C118 C119 C120 C13:C14 C35:C36 C38:C39">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D8 D9 D10 D11 D12 D17 D32 D33 D34 D37 D42 D43 D44 D46 D47 D48 D49 D50 D51 D52 D53 D54 D55 D56 D57 D58 D59 D60 D61 D62 D63 D64 D65 D66 D67 D68 D69 D70 D71 D72 D73 D74 D75 D76 D77 D78 D79 D80 D81 D82 D83 D84 D85 D86 D87 D88 D89 D90 D91 D92 D93 D94 D95 D96 D97 D98 D99 D100 D101 D102 D103 D104 D105 D106 D107 D108 D109 D110 D111 D112 D113 D114 D115 D116 D117 D118 D119 D120 D13:D14 D35:D36 D38:D39 D40:D41 D121:D190">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D8 D9 D10 D11 D12 D17 D32 D33 D34 D37 D42 D43 D44 D46 D47 D48 D49 D50 D51 D52 D53 D54 D55 D56 D57 D58 D59 D60 D61 D62 D63 D64 D65 D66 D67 D68 D69 D70 D71 D72 D73 D74 D75 D76 D77 D78 D79 D80 D81 D82 D83 D84 D85 D86 D87 D88 D89 D90 D91 D92 D93 D94 D95 D96 D97 D98 D99 D100 D101 D102 D103 D104 D105 D106 D107 D108 D109 D110 D111 D112 D113 D114 D115 D116 D117 D118 D119 D120 D13:D14 D35:D36 D38:D39 D40:D41">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
@@ -17585,12 +15944,12 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O153"/>
+  <dimension ref="A1:O132"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A133" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B59" sqref="B59"/>
+      <selection pane="bottomLeft" activeCell="D151" sqref="D151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -21054,363 +19413,6 @@
       <c r="N132" s="57"/>
       <c r="O132" s="47"/>
     </row>
-    <row r="133" ht="23" customHeight="1" spans="1:15">
-      <c r="A133" s="30"/>
-      <c r="B133" s="35"/>
-      <c r="C133" s="36"/>
-      <c r="D133" s="37"/>
-      <c r="E133" s="37"/>
-      <c r="F133" s="37"/>
-      <c r="G133" s="37"/>
-      <c r="H133" s="37"/>
-      <c r="I133" s="37"/>
-      <c r="J133" s="56"/>
-      <c r="K133" s="47"/>
-      <c r="L133" s="57"/>
-      <c r="M133" s="58"/>
-      <c r="N133" s="57"/>
-      <c r="O133" s="47"/>
-    </row>
-    <row r="134" ht="23" customHeight="1" spans="1:15">
-      <c r="A134" s="30"/>
-      <c r="B134" s="35"/>
-      <c r="C134" s="36"/>
-      <c r="D134" s="37"/>
-      <c r="E134" s="37"/>
-      <c r="F134" s="37"/>
-      <c r="G134" s="37"/>
-      <c r="H134" s="37"/>
-      <c r="I134" s="37"/>
-      <c r="J134" s="56"/>
-      <c r="K134" s="47"/>
-      <c r="L134" s="57"/>
-      <c r="M134" s="58"/>
-      <c r="N134" s="57"/>
-      <c r="O134" s="47"/>
-    </row>
-    <row r="135" ht="23" customHeight="1" spans="1:15">
-      <c r="A135" s="30"/>
-      <c r="B135" s="35"/>
-      <c r="C135" s="36"/>
-      <c r="D135" s="37"/>
-      <c r="E135" s="37"/>
-      <c r="F135" s="37"/>
-      <c r="G135" s="37"/>
-      <c r="H135" s="37"/>
-      <c r="I135" s="37"/>
-      <c r="J135" s="56"/>
-      <c r="K135" s="47"/>
-      <c r="L135" s="57"/>
-      <c r="M135" s="58"/>
-      <c r="N135" s="57"/>
-      <c r="O135" s="47"/>
-    </row>
-    <row r="136" ht="23" customHeight="1" spans="1:15">
-      <c r="A136" s="30"/>
-      <c r="B136" s="35"/>
-      <c r="C136" s="36"/>
-      <c r="D136" s="37"/>
-      <c r="E136" s="37"/>
-      <c r="F136" s="37"/>
-      <c r="G136" s="37"/>
-      <c r="H136" s="37"/>
-      <c r="I136" s="37"/>
-      <c r="J136" s="56"/>
-      <c r="K136" s="47"/>
-      <c r="L136" s="57"/>
-      <c r="M136" s="58"/>
-      <c r="N136" s="57"/>
-      <c r="O136" s="47"/>
-    </row>
-    <row r="137" ht="23" customHeight="1" spans="1:15">
-      <c r="A137" s="30"/>
-      <c r="B137" s="35"/>
-      <c r="C137" s="36"/>
-      <c r="D137" s="37"/>
-      <c r="E137" s="37"/>
-      <c r="F137" s="37"/>
-      <c r="G137" s="37"/>
-      <c r="H137" s="37"/>
-      <c r="I137" s="37"/>
-      <c r="J137" s="56"/>
-      <c r="K137" s="47"/>
-      <c r="L137" s="57"/>
-      <c r="M137" s="58"/>
-      <c r="N137" s="57"/>
-      <c r="O137" s="47"/>
-    </row>
-    <row r="138" ht="23" customHeight="1" spans="1:15">
-      <c r="A138" s="30"/>
-      <c r="B138" s="35"/>
-      <c r="C138" s="36"/>
-      <c r="D138" s="37"/>
-      <c r="E138" s="37"/>
-      <c r="F138" s="37"/>
-      <c r="G138" s="37"/>
-      <c r="H138" s="37"/>
-      <c r="I138" s="37"/>
-      <c r="J138" s="56"/>
-      <c r="K138" s="47"/>
-      <c r="L138" s="57"/>
-      <c r="M138" s="58"/>
-      <c r="N138" s="57"/>
-      <c r="O138" s="47"/>
-    </row>
-    <row r="139" ht="23" customHeight="1" spans="1:15">
-      <c r="A139" s="30"/>
-      <c r="B139" s="35"/>
-      <c r="C139" s="36"/>
-      <c r="D139" s="37"/>
-      <c r="E139" s="37"/>
-      <c r="F139" s="37"/>
-      <c r="G139" s="37"/>
-      <c r="H139" s="37"/>
-      <c r="I139" s="37"/>
-      <c r="J139" s="56"/>
-      <c r="K139" s="47"/>
-      <c r="L139" s="57"/>
-      <c r="M139" s="58"/>
-      <c r="N139" s="57"/>
-      <c r="O139" s="47"/>
-    </row>
-    <row r="140" ht="23" customHeight="1" spans="1:15">
-      <c r="A140" s="30"/>
-      <c r="B140" s="35"/>
-      <c r="C140" s="36"/>
-      <c r="D140" s="37"/>
-      <c r="E140" s="37"/>
-      <c r="F140" s="37"/>
-      <c r="G140" s="37"/>
-      <c r="H140" s="37"/>
-      <c r="I140" s="37"/>
-      <c r="J140" s="56"/>
-      <c r="K140" s="47"/>
-      <c r="L140" s="57"/>
-      <c r="M140" s="58"/>
-      <c r="N140" s="57"/>
-      <c r="O140" s="47"/>
-    </row>
-    <row r="141" ht="23" customHeight="1" spans="1:15">
-      <c r="A141" s="30"/>
-      <c r="B141" s="35"/>
-      <c r="C141" s="36"/>
-      <c r="D141" s="37"/>
-      <c r="E141" s="37"/>
-      <c r="F141" s="37"/>
-      <c r="G141" s="37"/>
-      <c r="H141" s="37"/>
-      <c r="I141" s="37"/>
-      <c r="J141" s="56"/>
-      <c r="K141" s="47"/>
-      <c r="L141" s="57"/>
-      <c r="M141" s="58"/>
-      <c r="N141" s="57"/>
-      <c r="O141" s="47"/>
-    </row>
-    <row r="142" ht="23" customHeight="1" spans="1:15">
-      <c r="A142" s="30"/>
-      <c r="B142" s="35"/>
-      <c r="C142" s="36"/>
-      <c r="D142" s="37"/>
-      <c r="E142" s="37"/>
-      <c r="F142" s="37"/>
-      <c r="G142" s="37"/>
-      <c r="H142" s="37"/>
-      <c r="I142" s="37"/>
-      <c r="J142" s="56"/>
-      <c r="K142" s="47"/>
-      <c r="L142" s="57"/>
-      <c r="M142" s="58"/>
-      <c r="N142" s="57"/>
-      <c r="O142" s="47"/>
-    </row>
-    <row r="143" ht="23" customHeight="1" spans="1:15">
-      <c r="A143" s="30"/>
-      <c r="B143" s="35"/>
-      <c r="C143" s="36"/>
-      <c r="D143" s="37"/>
-      <c r="E143" s="37"/>
-      <c r="F143" s="37"/>
-      <c r="G143" s="37"/>
-      <c r="H143" s="37"/>
-      <c r="I143" s="37"/>
-      <c r="J143" s="56"/>
-      <c r="K143" s="47"/>
-      <c r="L143" s="57"/>
-      <c r="M143" s="58"/>
-      <c r="N143" s="57"/>
-      <c r="O143" s="47"/>
-    </row>
-    <row r="144" ht="23" customHeight="1" spans="1:15">
-      <c r="A144" s="30"/>
-      <c r="B144" s="35"/>
-      <c r="C144" s="36"/>
-      <c r="D144" s="37"/>
-      <c r="E144" s="37"/>
-      <c r="F144" s="37"/>
-      <c r="G144" s="37"/>
-      <c r="H144" s="37"/>
-      <c r="I144" s="37"/>
-      <c r="J144" s="56"/>
-      <c r="K144" s="47"/>
-      <c r="L144" s="57"/>
-      <c r="M144" s="58"/>
-      <c r="N144" s="57"/>
-      <c r="O144" s="47"/>
-    </row>
-    <row r="145" ht="23" customHeight="1" spans="1:15">
-      <c r="A145" s="30"/>
-      <c r="B145" s="35"/>
-      <c r="C145" s="36"/>
-      <c r="D145" s="37"/>
-      <c r="E145" s="37"/>
-      <c r="F145" s="37"/>
-      <c r="G145" s="37"/>
-      <c r="H145" s="37"/>
-      <c r="I145" s="37"/>
-      <c r="J145" s="56"/>
-      <c r="K145" s="47"/>
-      <c r="L145" s="57"/>
-      <c r="M145" s="58"/>
-      <c r="N145" s="57"/>
-      <c r="O145" s="47"/>
-    </row>
-    <row r="146" ht="23" customHeight="1" spans="1:15">
-      <c r="A146" s="30"/>
-      <c r="B146" s="35"/>
-      <c r="C146" s="36"/>
-      <c r="D146" s="37"/>
-      <c r="E146" s="37"/>
-      <c r="F146" s="37"/>
-      <c r="G146" s="37"/>
-      <c r="H146" s="37"/>
-      <c r="I146" s="37"/>
-      <c r="J146" s="56"/>
-      <c r="K146" s="47"/>
-      <c r="L146" s="57"/>
-      <c r="M146" s="58"/>
-      <c r="N146" s="57"/>
-      <c r="O146" s="47"/>
-    </row>
-    <row r="147" ht="23" customHeight="1" spans="1:15">
-      <c r="A147" s="30"/>
-      <c r="B147" s="35"/>
-      <c r="C147" s="36"/>
-      <c r="D147" s="37"/>
-      <c r="E147" s="37"/>
-      <c r="F147" s="37"/>
-      <c r="G147" s="37"/>
-      <c r="H147" s="37"/>
-      <c r="I147" s="37"/>
-      <c r="J147" s="56"/>
-      <c r="K147" s="47"/>
-      <c r="L147" s="57"/>
-      <c r="M147" s="58"/>
-      <c r="N147" s="57"/>
-      <c r="O147" s="47"/>
-    </row>
-    <row r="148" ht="23" customHeight="1" spans="1:15">
-      <c r="A148" s="30"/>
-      <c r="B148" s="35"/>
-      <c r="C148" s="36"/>
-      <c r="D148" s="37"/>
-      <c r="E148" s="37"/>
-      <c r="F148" s="37"/>
-      <c r="G148" s="37"/>
-      <c r="H148" s="37"/>
-      <c r="I148" s="37"/>
-      <c r="J148" s="56"/>
-      <c r="K148" s="47"/>
-      <c r="L148" s="57"/>
-      <c r="M148" s="58"/>
-      <c r="N148" s="57"/>
-      <c r="O148" s="47"/>
-    </row>
-    <row r="149" ht="23" customHeight="1" spans="1:15">
-      <c r="A149" s="30"/>
-      <c r="B149" s="35"/>
-      <c r="C149" s="36"/>
-      <c r="D149" s="37"/>
-      <c r="E149" s="37"/>
-      <c r="F149" s="37"/>
-      <c r="G149" s="37"/>
-      <c r="H149" s="37"/>
-      <c r="I149" s="37"/>
-      <c r="J149" s="56"/>
-      <c r="K149" s="47"/>
-      <c r="L149" s="57"/>
-      <c r="M149" s="58"/>
-      <c r="N149" s="57"/>
-      <c r="O149" s="47"/>
-    </row>
-    <row r="150" ht="23" customHeight="1" spans="1:15">
-      <c r="A150" s="30"/>
-      <c r="B150" s="35"/>
-      <c r="C150" s="36"/>
-      <c r="D150" s="37"/>
-      <c r="E150" s="37"/>
-      <c r="F150" s="37"/>
-      <c r="G150" s="37"/>
-      <c r="H150" s="37"/>
-      <c r="I150" s="37"/>
-      <c r="J150" s="56"/>
-      <c r="K150" s="47"/>
-      <c r="L150" s="57"/>
-      <c r="M150" s="58"/>
-      <c r="N150" s="57"/>
-      <c r="O150" s="47"/>
-    </row>
-    <row r="151" ht="23" customHeight="1" spans="1:15">
-      <c r="A151" s="30"/>
-      <c r="B151" s="35"/>
-      <c r="C151" s="36"/>
-      <c r="D151" s="37"/>
-      <c r="E151" s="37"/>
-      <c r="F151" s="37"/>
-      <c r="G151" s="37"/>
-      <c r="H151" s="37"/>
-      <c r="I151" s="37"/>
-      <c r="J151" s="56"/>
-      <c r="K151" s="47"/>
-      <c r="L151" s="57"/>
-      <c r="M151" s="58"/>
-      <c r="N151" s="57"/>
-      <c r="O151" s="47"/>
-    </row>
-    <row r="152" ht="23" customHeight="1" spans="1:15">
-      <c r="A152" s="30"/>
-      <c r="B152" s="35"/>
-      <c r="C152" s="36"/>
-      <c r="D152" s="37"/>
-      <c r="E152" s="37"/>
-      <c r="F152" s="37"/>
-      <c r="G152" s="37"/>
-      <c r="H152" s="37"/>
-      <c r="I152" s="37"/>
-      <c r="J152" s="56"/>
-      <c r="K152" s="47"/>
-      <c r="L152" s="57"/>
-      <c r="M152" s="58"/>
-      <c r="N152" s="57"/>
-      <c r="O152" s="47"/>
-    </row>
-    <row r="153" ht="23" customHeight="1" spans="1:15">
-      <c r="A153" s="30"/>
-      <c r="B153" s="35"/>
-      <c r="C153" s="36"/>
-      <c r="D153" s="37"/>
-      <c r="E153" s="37"/>
-      <c r="F153" s="37"/>
-      <c r="G153" s="37"/>
-      <c r="H153" s="37"/>
-      <c r="I153" s="37"/>
-      <c r="J153" s="56"/>
-      <c r="K153" s="47"/>
-      <c r="L153" s="57"/>
-      <c r="M153" s="58"/>
-      <c r="N153" s="57"/>
-      <c r="O153" s="47"/>
-    </row>
   </sheetData>
   <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
   <mergeCells count="4">
@@ -22057,17 +20059,6 @@
       <formula>LEFT(N106,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N133:N153">
-    <cfRule type="beginsWith" dxfId="2" priority="385" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N133,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="386" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N133,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="387" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N133,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="N22:N24 N55:N57 N26">
     <cfRule type="beginsWith" dxfId="2" priority="223" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N22,LEN("WARN"))="WARN"</formula>
@@ -22146,10 +20137,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C27 C28 C29 C30 C33 C34 C35 C36 C37 C38 C39 C40 C41 C42 C43 C46 C47 C48 C50 C51 C52 C53 C54 C55 C56 C57 C58 C59 C60 C61 C62 C63 C64 C65 C66 C67 C68 C69 C70 C71 C72 C73 C74 C75 C76 C77 C78 C79 C80 C81 C82 C83 C84 C85 C86 C87 C88 C89 C90 C91 C92 C93 C94 C95 C96 C97 C98 C99 C100 C101 C102 C103 C104 C105 C106 C107 C108 C109 C110 C111 C112 C113 C114 C115 C116 C117 C118 C119 C120 C121 C122 C123 C124 C125 C126 C127 C128 C129 C130 C131 C132 C11:C12 C31:C32 C44:C45 C133:C153">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C27 C28 C29 C30 C33 C34 C35 C36 C37 C38 C39 C40 C41 C42 C43 C46 C47 C48 C50 C51 C52 C53 C54 C55 C56 C57 C58 C59 C60 C61 C62 C63 C64 C65 C66 C67 C68 C69 C70 C71 C72 C73 C74 C75 C76 C77 C78 C79 C80 C81 C82 C83 C84 C85 C86 C87 C88 C89 C90 C91 C92 C93 C94 C95 C96 C97 C98 C99 C100 C101 C102 C103 C104 C105 C106 C107 C108 C109 C110 C111 C112 C113 C114 C115 C116 C117 C118 C119 C120 C121 C122 C123 C124 C125 C126 C127 C128 C129 C130 C131 C132 C11:C12 C31:C32 C44:C45">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D8 D9 D10 D15 D22 D27 D28 D29 D30 D35 D36 D37 D38 D39 D40 D41 D42 D43 D46 D47 D48 D50 D51 D52 D53 D55 D56 D57 D58 D59 D60 D61 D62 D63 D64 D65 D66 D67 D68 D69 D70 D71 D72 D73 D74 D75 D76 D77 D78 D79 D80 D81 D82 D83 D84 D85 D86 D87 D88 D89 D90 D91 D92 D93 D94 D95 D96 D97 D98 D99 D100 D101 D102 D103 D104 D105 D106 D107 D108 D109 D110 D111 D112 D113 D114 D115 D116 D117 D118 D119 D120 D121 D122 D123 D124 D125 D126 D127 D128 D129 D130 D131 D132 D11:D12 D23:D26 D31:D32 D33:D34 D44:D45 D133:D153">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D8 D9 D10 D15 D22 D27 D28 D29 D30 D35 D36 D37 D38 D39 D40 D41 D42 D43 D46 D47 D48 D50 D51 D52 D53 D55 D56 D57 D58 D59 D60 D61 D62 D63 D64 D65 D66 D67 D68 D69 D70 D71 D72 D73 D74 D75 D76 D77 D78 D79 D80 D81 D82 D83 D84 D85 D86 D87 D88 D89 D90 D91 D92 D93 D94 D95 D96 D97 D98 D99 D100 D101 D102 D103 D104 D105 D106 D107 D108 D109 D110 D111 D112 D113 D114 D115 D116 D117 D118 D119 D120 D121 D122 D123 D124 D125 D126 D127 D128 D129 D130 D131 D132 D11:D12 D23:D26 D31:D32 D33:D34 D44:D45">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
@@ -22161,12 +20152,12 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O164"/>
+  <dimension ref="A1:O157"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B49" sqref="B49"/>
+      <selection pane="bottomLeft" activeCell="E176" sqref="E176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -26324,125 +24315,6 @@
       <c r="N157" s="57"/>
       <c r="O157" s="47"/>
     </row>
-    <row r="158" ht="23" customHeight="1" spans="1:15">
-      <c r="A158" s="30"/>
-      <c r="B158" s="35"/>
-      <c r="C158" s="36"/>
-      <c r="D158" s="37"/>
-      <c r="E158" s="37"/>
-      <c r="F158" s="37"/>
-      <c r="G158" s="37"/>
-      <c r="H158" s="37"/>
-      <c r="I158" s="37"/>
-      <c r="J158" s="56"/>
-      <c r="K158" s="47"/>
-      <c r="L158" s="57"/>
-      <c r="M158" s="58"/>
-      <c r="N158" s="57"/>
-      <c r="O158" s="47"/>
-    </row>
-    <row r="159" ht="23" customHeight="1" spans="1:15">
-      <c r="A159" s="30"/>
-      <c r="B159" s="35"/>
-      <c r="C159" s="36"/>
-      <c r="D159" s="37"/>
-      <c r="E159" s="37"/>
-      <c r="F159" s="37"/>
-      <c r="G159" s="37"/>
-      <c r="H159" s="37"/>
-      <c r="I159" s="37"/>
-      <c r="J159" s="56"/>
-      <c r="K159" s="47"/>
-      <c r="L159" s="57"/>
-      <c r="M159" s="58"/>
-      <c r="N159" s="57"/>
-      <c r="O159" s="47"/>
-    </row>
-    <row r="160" ht="23" customHeight="1" spans="1:15">
-      <c r="A160" s="30"/>
-      <c r="B160" s="35"/>
-      <c r="C160" s="36"/>
-      <c r="D160" s="37"/>
-      <c r="E160" s="37"/>
-      <c r="F160" s="37"/>
-      <c r="G160" s="37"/>
-      <c r="H160" s="37"/>
-      <c r="I160" s="37"/>
-      <c r="J160" s="56"/>
-      <c r="K160" s="47"/>
-      <c r="L160" s="57"/>
-      <c r="M160" s="58"/>
-      <c r="N160" s="57"/>
-      <c r="O160" s="47"/>
-    </row>
-    <row r="161" ht="23" customHeight="1" spans="1:15">
-      <c r="A161" s="30"/>
-      <c r="B161" s="35"/>
-      <c r="C161" s="36"/>
-      <c r="D161" s="37"/>
-      <c r="E161" s="37"/>
-      <c r="F161" s="37"/>
-      <c r="G161" s="37"/>
-      <c r="H161" s="37"/>
-      <c r="I161" s="37"/>
-      <c r="J161" s="56"/>
-      <c r="K161" s="47"/>
-      <c r="L161" s="57"/>
-      <c r="M161" s="58"/>
-      <c r="N161" s="57"/>
-      <c r="O161" s="47"/>
-    </row>
-    <row r="162" ht="23" customHeight="1" spans="1:15">
-      <c r="A162" s="30"/>
-      <c r="B162" s="35"/>
-      <c r="C162" s="36"/>
-      <c r="D162" s="37"/>
-      <c r="E162" s="37"/>
-      <c r="F162" s="37"/>
-      <c r="G162" s="37"/>
-      <c r="H162" s="37"/>
-      <c r="I162" s="37"/>
-      <c r="J162" s="56"/>
-      <c r="K162" s="47"/>
-      <c r="L162" s="57"/>
-      <c r="M162" s="58"/>
-      <c r="N162" s="57"/>
-      <c r="O162" s="47"/>
-    </row>
-    <row r="163" ht="23" customHeight="1" spans="1:15">
-      <c r="A163" s="30"/>
-      <c r="B163" s="35"/>
-      <c r="C163" s="36"/>
-      <c r="D163" s="37"/>
-      <c r="E163" s="37"/>
-      <c r="F163" s="37"/>
-      <c r="G163" s="37"/>
-      <c r="H163" s="37"/>
-      <c r="I163" s="37"/>
-      <c r="J163" s="56"/>
-      <c r="K163" s="47"/>
-      <c r="L163" s="57"/>
-      <c r="M163" s="58"/>
-      <c r="N163" s="57"/>
-      <c r="O163" s="47"/>
-    </row>
-    <row r="164" ht="23" customHeight="1" spans="1:15">
-      <c r="A164" s="30"/>
-      <c r="B164" s="35"/>
-      <c r="C164" s="36"/>
-      <c r="D164" s="37"/>
-      <c r="E164" s="37"/>
-      <c r="F164" s="37"/>
-      <c r="G164" s="37"/>
-      <c r="H164" s="37"/>
-      <c r="I164" s="37"/>
-      <c r="J164" s="56"/>
-      <c r="K164" s="47"/>
-      <c r="L164" s="57"/>
-      <c r="M164" s="58"/>
-      <c r="N164" s="57"/>
-      <c r="O164" s="47"/>
-    </row>
   </sheetData>
   <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
   <mergeCells count="4">
@@ -27177,7 +25049,7 @@
       <formula>LEFT(N156,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N8:N11 N158:N164 N15:N16">
+  <conditionalFormatting sqref="N8:N11 N15:N16">
     <cfRule type="beginsWith" dxfId="2" priority="298" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N8,LEN("WARN"))="WARN"</formula>
     </cfRule>
@@ -27277,10 +25149,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C10 C11 C12 C13 C14 C17 C18 C19 C20 C21 C22 C23 C24 C25 C26 C27 C28 C29 C30 C31 C32 C51 C52 C55 C56 C57 C58 C59 C60 C61 C62 C63 C64 C65 C66 C67 C68 C71 C72 C73 C75 C76 C77 C78 C79 C80 C81 C82 C83 C84 C85 C86 C87 C88 C89 C90 C91 C92 C93 C94 C95 C96 C97 C98 C99 C100 C101 C102 C103 C104 C105 C106 C107 C108 C109 C110 C111 C112 C113 C114 C115 C116 C117 C118 C119 C120 C121 C122 C123 C124 C125 C126 C127 C128 C129 C130 C131 C132 C133 C134 C135 C136 C137 C138 C139 C140 C141 C142 C143 C144 C145 C146 C147 C148 C149 C150 C151 C152 C153 C154 C155 C156 C157 C8:C9 C15:C16 C33:C34 C53:C54 C69:C70 C158:C164">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C10 C11 C12 C13 C14 C17 C18 C19 C20 C21 C22 C23 C24 C25 C26 C27 C28 C29 C30 C31 C32 C51 C52 C55 C56 C57 C58 C59 C60 C61 C62 C63 C64 C65 C66 C67 C68 C71 C72 C73 C75 C76 C77 C78 C79 C80 C81 C82 C83 C84 C85 C86 C87 C88 C89 C90 C91 C92 C93 C94 C95 C96 C97 C98 C99 C100 C101 C102 C103 C104 C105 C106 C107 C108 C109 C110 C111 C112 C113 C114 C115 C116 C117 C118 C119 C120 C121 C122 C123 C124 C125 C126 C127 C128 C129 C130 C131 C132 C133 C134 C135 C136 C137 C138 C139 C140 C141 C142 C143 C144 C145 C146 C147 C148 C149 C150 C151 C152 C153 C154 C155 C156 C157 C8:C9 C15:C16 C33:C34 C53:C54 C69:C70">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D20 D21 D22 D23 D24 D25 D26 D27 D28 D29 D30 D31 D32 D37 D44 D48 D49 D50 D51 D52 D53 D54 D55 D56 D57 D58 D59 D60 D61 D62 D63 D64 D65 D66 D67 D68 D71 D72 D73 D75 D76 D77 D78 D80 D81 D82 D83 D84 D85 D86 D87 D88 D89 D90 D91 D92 D93 D94 D95 D96 D97 D98 D99 D100 D101 D102 D103 D104 D105 D106 D107 D108 D109 D110 D111 D112 D113 D114 D115 D116 D117 D118 D119 D120 D121 D122 D123 D124 D125 D126 D127 D128 D129 D130 D131 D132 D133 D134 D135 D136 D137 D138 D139 D140 D141 D142 D143 D144 D145 D146 D147 D148 D149 D150 D151 D152 D153 D154 D155 D156 D157 D8:D9 D33:D34 D45:D47 D69:D70 D158:D164">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D20 D21 D22 D23 D24 D25 D26 D27 D28 D29 D30 D31 D32 D37 D44 D48 D49 D50 D51 D52 D53 D54 D55 D56 D57 D58 D59 D60 D61 D62 D63 D64 D65 D66 D67 D68 D71 D72 D73 D75 D76 D77 D78 D80 D81 D82 D83 D84 D85 D86 D87 D88 D89 D90 D91 D92 D93 D94 D95 D96 D97 D98 D99 D100 D101 D102 D103 D104 D105 D106 D107 D108 D109 D110 D111 D112 D113 D114 D115 D116 D117 D118 D119 D120 D121 D122 D123 D124 D125 D126 D127 D128 D129 D130 D131 D132 D133 D134 D135 D136 D137 D138 D139 D140 D141 D142 D143 D144 D145 D146 D147 D148 D149 D150 D151 D152 D153 D154 D155 D156 D157 D8:D9 D33:D34 D45:D47 D69:D70">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>

--- a/tests/artifact/script/Mobile-Purchase_SaleOrder.xlsx
+++ b/tests/artifact/script/Mobile-Purchase_SaleOrder.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6950" tabRatio="888" firstSheet="2" activeTab="1"/>
+    <workbookView windowWidth="18350" windowHeight="6920" tabRatio="888" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -60,7 +60,20 @@
     <definedName name="javaui">'#system'!$N$2:$N$16</definedName>
     <definedName name="browserstack">'#system'!$G$2:$G$7</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -3892,12 +3905,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="40">
     <font>
@@ -4546,16 +4559,16 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -8024,8 +8037,8 @@
   <sheetPr/>
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B6" sqref="$A6:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="15.5" outlineLevelRow="4"/>
@@ -8231,12 +8244,12 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O147"/>
+  <dimension ref="A1:O121"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomLeft" activeCell="A122" sqref="$A122:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -11405,448 +11418,6 @@
       <c r="N121" s="57"/>
       <c r="O121" s="47"/>
     </row>
-    <row r="122" ht="23" customHeight="1" spans="1:15">
-      <c r="A122" s="30"/>
-      <c r="B122" s="35"/>
-      <c r="C122" s="36"/>
-      <c r="D122" s="37"/>
-      <c r="E122" s="37"/>
-      <c r="F122" s="37"/>
-      <c r="G122" s="37"/>
-      <c r="H122" s="37"/>
-      <c r="I122" s="37"/>
-      <c r="J122" s="56"/>
-      <c r="K122" s="47"/>
-      <c r="L122" s="57"/>
-      <c r="M122" s="58"/>
-      <c r="N122" s="57"/>
-      <c r="O122" s="47"/>
-    </row>
-    <row r="123" ht="23" customHeight="1" spans="1:15">
-      <c r="A123" s="30"/>
-      <c r="B123" s="35"/>
-      <c r="C123" s="36"/>
-      <c r="D123" s="37"/>
-      <c r="E123" s="37"/>
-      <c r="F123" s="37"/>
-      <c r="G123" s="37"/>
-      <c r="H123" s="37"/>
-      <c r="I123" s="37"/>
-      <c r="J123" s="56"/>
-      <c r="K123" s="47"/>
-      <c r="L123" s="57"/>
-      <c r="M123" s="58"/>
-      <c r="N123" s="57"/>
-      <c r="O123" s="47"/>
-    </row>
-    <row r="124" ht="23" customHeight="1" spans="1:15">
-      <c r="A124" s="30"/>
-      <c r="B124" s="35"/>
-      <c r="C124" s="36"/>
-      <c r="D124" s="37"/>
-      <c r="E124" s="37"/>
-      <c r="F124" s="37"/>
-      <c r="G124" s="37"/>
-      <c r="H124" s="37"/>
-      <c r="I124" s="37"/>
-      <c r="J124" s="56"/>
-      <c r="K124" s="47"/>
-      <c r="L124" s="57"/>
-      <c r="M124" s="58"/>
-      <c r="N124" s="57"/>
-      <c r="O124" s="47"/>
-    </row>
-    <row r="125" ht="23" customHeight="1" spans="1:15">
-      <c r="A125" s="30"/>
-      <c r="B125" s="35"/>
-      <c r="C125" s="36"/>
-      <c r="D125" s="37"/>
-      <c r="E125" s="37"/>
-      <c r="F125" s="37"/>
-      <c r="G125" s="37"/>
-      <c r="H125" s="37"/>
-      <c r="I125" s="37"/>
-      <c r="J125" s="56"/>
-      <c r="K125" s="47"/>
-      <c r="L125" s="57"/>
-      <c r="M125" s="58"/>
-      <c r="N125" s="57"/>
-      <c r="O125" s="47"/>
-    </row>
-    <row r="126" ht="23" customHeight="1" spans="1:15">
-      <c r="A126" s="30"/>
-      <c r="B126" s="35"/>
-      <c r="C126" s="36"/>
-      <c r="D126" s="37"/>
-      <c r="E126" s="37"/>
-      <c r="F126" s="37"/>
-      <c r="G126" s="37"/>
-      <c r="H126" s="37"/>
-      <c r="I126" s="37"/>
-      <c r="J126" s="56"/>
-      <c r="K126" s="47"/>
-      <c r="L126" s="57"/>
-      <c r="M126" s="58"/>
-      <c r="N126" s="57"/>
-      <c r="O126" s="47"/>
-    </row>
-    <row r="127" ht="23" customHeight="1" spans="1:15">
-      <c r="A127" s="30"/>
-      <c r="B127" s="35"/>
-      <c r="C127" s="36"/>
-      <c r="D127" s="37"/>
-      <c r="E127" s="37"/>
-      <c r="F127" s="37"/>
-      <c r="G127" s="37"/>
-      <c r="H127" s="37"/>
-      <c r="I127" s="37"/>
-      <c r="J127" s="56"/>
-      <c r="K127" s="47"/>
-      <c r="L127" s="57"/>
-      <c r="M127" s="58"/>
-      <c r="N127" s="57"/>
-      <c r="O127" s="47"/>
-    </row>
-    <row r="128" ht="23" customHeight="1" spans="1:15">
-      <c r="A128" s="30"/>
-      <c r="B128" s="35"/>
-      <c r="C128" s="36"/>
-      <c r="D128" s="37"/>
-      <c r="E128" s="37"/>
-      <c r="F128" s="37"/>
-      <c r="G128" s="37"/>
-      <c r="H128" s="37"/>
-      <c r="I128" s="37"/>
-      <c r="J128" s="56"/>
-      <c r="K128" s="47"/>
-      <c r="L128" s="57"/>
-      <c r="M128" s="58"/>
-      <c r="N128" s="57"/>
-      <c r="O128" s="47"/>
-    </row>
-    <row r="129" ht="23" customHeight="1" spans="1:15">
-      <c r="A129" s="30"/>
-      <c r="B129" s="35"/>
-      <c r="C129" s="36"/>
-      <c r="D129" s="37"/>
-      <c r="E129" s="37"/>
-      <c r="F129" s="37"/>
-      <c r="G129" s="37"/>
-      <c r="H129" s="37"/>
-      <c r="I129" s="37"/>
-      <c r="J129" s="56"/>
-      <c r="K129" s="47"/>
-      <c r="L129" s="57"/>
-      <c r="M129" s="58"/>
-      <c r="N129" s="57"/>
-      <c r="O129" s="47"/>
-    </row>
-    <row r="130" ht="23" customHeight="1" spans="1:15">
-      <c r="A130" s="30"/>
-      <c r="B130" s="35"/>
-      <c r="C130" s="36"/>
-      <c r="D130" s="37"/>
-      <c r="E130" s="37"/>
-      <c r="F130" s="37"/>
-      <c r="G130" s="37"/>
-      <c r="H130" s="37"/>
-      <c r="I130" s="37"/>
-      <c r="J130" s="56"/>
-      <c r="K130" s="47"/>
-      <c r="L130" s="57"/>
-      <c r="M130" s="58"/>
-      <c r="N130" s="57"/>
-      <c r="O130" s="47"/>
-    </row>
-    <row r="131" ht="23" customHeight="1" spans="1:15">
-      <c r="A131" s="30"/>
-      <c r="B131" s="35"/>
-      <c r="C131" s="36"/>
-      <c r="D131" s="37"/>
-      <c r="E131" s="37"/>
-      <c r="F131" s="37"/>
-      <c r="G131" s="37"/>
-      <c r="H131" s="37"/>
-      <c r="I131" s="37"/>
-      <c r="J131" s="56"/>
-      <c r="K131" s="47"/>
-      <c r="L131" s="57"/>
-      <c r="M131" s="58"/>
-      <c r="N131" s="57"/>
-      <c r="O131" s="47"/>
-    </row>
-    <row r="132" ht="23" customHeight="1" spans="1:15">
-      <c r="A132" s="30"/>
-      <c r="B132" s="35"/>
-      <c r="C132" s="36"/>
-      <c r="D132" s="37"/>
-      <c r="E132" s="37"/>
-      <c r="F132" s="37"/>
-      <c r="G132" s="37"/>
-      <c r="H132" s="37"/>
-      <c r="I132" s="37"/>
-      <c r="J132" s="56"/>
-      <c r="K132" s="47"/>
-      <c r="L132" s="57"/>
-      <c r="M132" s="58"/>
-      <c r="N132" s="57"/>
-      <c r="O132" s="47"/>
-    </row>
-    <row r="133" ht="23" customHeight="1" spans="1:15">
-      <c r="A133" s="30"/>
-      <c r="B133" s="35"/>
-      <c r="C133" s="36"/>
-      <c r="D133" s="37"/>
-      <c r="E133" s="37"/>
-      <c r="F133" s="37"/>
-      <c r="G133" s="37"/>
-      <c r="H133" s="37"/>
-      <c r="I133" s="37"/>
-      <c r="J133" s="56"/>
-      <c r="K133" s="47"/>
-      <c r="L133" s="57"/>
-      <c r="M133" s="58"/>
-      <c r="N133" s="57"/>
-      <c r="O133" s="47"/>
-    </row>
-    <row r="134" ht="23" customHeight="1" spans="1:15">
-      <c r="A134" s="30"/>
-      <c r="B134" s="35"/>
-      <c r="C134" s="36"/>
-      <c r="D134" s="37"/>
-      <c r="E134" s="37"/>
-      <c r="F134" s="37"/>
-      <c r="G134" s="37"/>
-      <c r="H134" s="37"/>
-      <c r="I134" s="37"/>
-      <c r="J134" s="56"/>
-      <c r="K134" s="47"/>
-      <c r="L134" s="57"/>
-      <c r="M134" s="58"/>
-      <c r="N134" s="57"/>
-      <c r="O134" s="47"/>
-    </row>
-    <row r="135" ht="23" customHeight="1" spans="1:15">
-      <c r="A135" s="30"/>
-      <c r="B135" s="35"/>
-      <c r="C135" s="36"/>
-      <c r="D135" s="37"/>
-      <c r="E135" s="37"/>
-      <c r="F135" s="37"/>
-      <c r="G135" s="37"/>
-      <c r="H135" s="37"/>
-      <c r="I135" s="37"/>
-      <c r="J135" s="56"/>
-      <c r="K135" s="47"/>
-      <c r="L135" s="57"/>
-      <c r="M135" s="58"/>
-      <c r="N135" s="57"/>
-      <c r="O135" s="47"/>
-    </row>
-    <row r="136" ht="23" customHeight="1" spans="1:15">
-      <c r="A136" s="30"/>
-      <c r="B136" s="35"/>
-      <c r="C136" s="36"/>
-      <c r="D136" s="37"/>
-      <c r="E136" s="37"/>
-      <c r="F136" s="37"/>
-      <c r="G136" s="37"/>
-      <c r="H136" s="37"/>
-      <c r="I136" s="37"/>
-      <c r="J136" s="56"/>
-      <c r="K136" s="47"/>
-      <c r="L136" s="57"/>
-      <c r="M136" s="58"/>
-      <c r="N136" s="57"/>
-      <c r="O136" s="47"/>
-    </row>
-    <row r="137" ht="23" customHeight="1" spans="1:15">
-      <c r="A137" s="30"/>
-      <c r="B137" s="35"/>
-      <c r="C137" s="36"/>
-      <c r="D137" s="37"/>
-      <c r="E137" s="37"/>
-      <c r="F137" s="37"/>
-      <c r="G137" s="37"/>
-      <c r="H137" s="37"/>
-      <c r="I137" s="37"/>
-      <c r="J137" s="56"/>
-      <c r="K137" s="47"/>
-      <c r="L137" s="57"/>
-      <c r="M137" s="58"/>
-      <c r="N137" s="57"/>
-      <c r="O137" s="47"/>
-    </row>
-    <row r="138" ht="23" customHeight="1" spans="1:15">
-      <c r="A138" s="30"/>
-      <c r="B138" s="35"/>
-      <c r="C138" s="36"/>
-      <c r="D138" s="37"/>
-      <c r="E138" s="37"/>
-      <c r="F138" s="37"/>
-      <c r="G138" s="37"/>
-      <c r="H138" s="37"/>
-      <c r="I138" s="37"/>
-      <c r="J138" s="56"/>
-      <c r="K138" s="47"/>
-      <c r="L138" s="57"/>
-      <c r="M138" s="58"/>
-      <c r="N138" s="57"/>
-      <c r="O138" s="47"/>
-    </row>
-    <row r="139" ht="23" customHeight="1" spans="1:15">
-      <c r="A139" s="30"/>
-      <c r="B139" s="35"/>
-      <c r="C139" s="36"/>
-      <c r="D139" s="37"/>
-      <c r="E139" s="37"/>
-      <c r="F139" s="37"/>
-      <c r="G139" s="37"/>
-      <c r="H139" s="37"/>
-      <c r="I139" s="37"/>
-      <c r="J139" s="56"/>
-      <c r="K139" s="47"/>
-      <c r="L139" s="57"/>
-      <c r="M139" s="58"/>
-      <c r="N139" s="57"/>
-      <c r="O139" s="47"/>
-    </row>
-    <row r="140" ht="23" customHeight="1" spans="1:15">
-      <c r="A140" s="30"/>
-      <c r="B140" s="35"/>
-      <c r="C140" s="36"/>
-      <c r="D140" s="37"/>
-      <c r="E140" s="37"/>
-      <c r="F140" s="37"/>
-      <c r="G140" s="37"/>
-      <c r="H140" s="37"/>
-      <c r="I140" s="37"/>
-      <c r="J140" s="56"/>
-      <c r="K140" s="47"/>
-      <c r="L140" s="57"/>
-      <c r="M140" s="58"/>
-      <c r="N140" s="57"/>
-      <c r="O140" s="47"/>
-    </row>
-    <row r="141" ht="23" customHeight="1" spans="1:15">
-      <c r="A141" s="30"/>
-      <c r="B141" s="35"/>
-      <c r="C141" s="36"/>
-      <c r="D141" s="37"/>
-      <c r="E141" s="37"/>
-      <c r="F141" s="37"/>
-      <c r="G141" s="37"/>
-      <c r="H141" s="37"/>
-      <c r="I141" s="37"/>
-      <c r="J141" s="56"/>
-      <c r="K141" s="47"/>
-      <c r="L141" s="57"/>
-      <c r="M141" s="58"/>
-      <c r="N141" s="57"/>
-      <c r="O141" s="47"/>
-    </row>
-    <row r="142" ht="23" customHeight="1" spans="1:15">
-      <c r="A142" s="30"/>
-      <c r="B142" s="35"/>
-      <c r="C142" s="36"/>
-      <c r="D142" s="37"/>
-      <c r="E142" s="37"/>
-      <c r="F142" s="37"/>
-      <c r="G142" s="37"/>
-      <c r="H142" s="37"/>
-      <c r="I142" s="37"/>
-      <c r="J142" s="56"/>
-      <c r="K142" s="47"/>
-      <c r="L142" s="57"/>
-      <c r="M142" s="58"/>
-      <c r="N142" s="57"/>
-      <c r="O142" s="47"/>
-    </row>
-    <row r="143" ht="23" customHeight="1" spans="1:15">
-      <c r="A143" s="30"/>
-      <c r="B143" s="35"/>
-      <c r="C143" s="36"/>
-      <c r="D143" s="37"/>
-      <c r="E143" s="37"/>
-      <c r="F143" s="37"/>
-      <c r="G143" s="37"/>
-      <c r="H143" s="37"/>
-      <c r="I143" s="37"/>
-      <c r="J143" s="56"/>
-      <c r="K143" s="47"/>
-      <c r="L143" s="57"/>
-      <c r="M143" s="58"/>
-      <c r="N143" s="57"/>
-      <c r="O143" s="47"/>
-    </row>
-    <row r="144" ht="23" customHeight="1" spans="1:15">
-      <c r="A144" s="30"/>
-      <c r="B144" s="35"/>
-      <c r="C144" s="36"/>
-      <c r="D144" s="37"/>
-      <c r="E144" s="37"/>
-      <c r="F144" s="37"/>
-      <c r="G144" s="37"/>
-      <c r="H144" s="37"/>
-      <c r="I144" s="37"/>
-      <c r="J144" s="56"/>
-      <c r="K144" s="47"/>
-      <c r="L144" s="57"/>
-      <c r="M144" s="58"/>
-      <c r="N144" s="57"/>
-      <c r="O144" s="47"/>
-    </row>
-    <row r="145" ht="23" customHeight="1" spans="1:15">
-      <c r="A145" s="30"/>
-      <c r="B145" s="35"/>
-      <c r="C145" s="36"/>
-      <c r="D145" s="37"/>
-      <c r="E145" s="37"/>
-      <c r="F145" s="37"/>
-      <c r="G145" s="37"/>
-      <c r="H145" s="37"/>
-      <c r="I145" s="37"/>
-      <c r="J145" s="56"/>
-      <c r="K145" s="47"/>
-      <c r="L145" s="57"/>
-      <c r="M145" s="58"/>
-      <c r="N145" s="57"/>
-      <c r="O145" s="47"/>
-    </row>
-    <row r="146" ht="23" customHeight="1" spans="1:15">
-      <c r="A146" s="30"/>
-      <c r="B146" s="35"/>
-      <c r="C146" s="36"/>
-      <c r="D146" s="37"/>
-      <c r="E146" s="37"/>
-      <c r="F146" s="37"/>
-      <c r="G146" s="37"/>
-      <c r="H146" s="37"/>
-      <c r="I146" s="37"/>
-      <c r="J146" s="56"/>
-      <c r="K146" s="47"/>
-      <c r="L146" s="57"/>
-      <c r="M146" s="58"/>
-      <c r="N146" s="57"/>
-      <c r="O146" s="47"/>
-    </row>
-    <row r="147" ht="23" customHeight="1" spans="1:15">
-      <c r="A147" s="30"/>
-      <c r="B147" s="35"/>
-      <c r="C147" s="36"/>
-      <c r="D147" s="37"/>
-      <c r="E147" s="37"/>
-      <c r="F147" s="37"/>
-      <c r="G147" s="37"/>
-      <c r="H147" s="37"/>
-      <c r="I147" s="37"/>
-      <c r="J147" s="56"/>
-      <c r="K147" s="47"/>
-      <c r="L147" s="57"/>
-      <c r="M147" s="58"/>
-      <c r="N147" s="57"/>
-      <c r="O147" s="47"/>
-    </row>
   </sheetData>
   <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
   <mergeCells count="4">
@@ -12438,17 +12009,6 @@
       <formula>LEFT(N99,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N122:N147">
-    <cfRule type="beginsWith" dxfId="2" priority="451" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N122,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="452" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N122,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="453" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N122,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="N1 N25:N28 N51:N53 N32 N84:N88 N73:N76">
     <cfRule type="beginsWith" dxfId="2" priority="454" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
@@ -12494,10 +12054,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11 C12 C13 C33 C34 C35 C38 C41 C42 C43 C44 C45 C47 C48 C49 C50 C51 C52 C53 C54 C55 C56 C57 C58 C59 C60 C61 C62 C63 C64 C65 C66 C67 C68 C69 C70 C71 C72 C73 C74 C75 C76 C77 C78 C79 C80 C81 C82 C83 C84 C85 C86 C87 C88 C89 C90 C91 C92 C93 C94 C95 C96 C97 C98 C99 C100 C101 C102 C103 C104 C105 C106 C107 C108 C109 C110 C111 C112 C113 C114 C115 C116 C117 C118 C119 C120 C121 C14:C15 C36:C37 C39:C40 C122:C147">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11 C12 C13 C33 C34 C35 C38 C41 C42 C43 C44 C45 C47 C48 C49 C50 C51 C52 C53 C54 C55 C56 C57 C58 C59 C60 C61 C62 C63 C64 C65 C66 C67 C68 C69 C70 C71 C72 C73 C74 C75 C76 C77 C78 C79 C80 C81 C82 C83 C84 C85 C86 C87 C88 C89 C90 C91 C92 C93 C94 C95 C96 C97 C98 C99 C100 C101 C102 C103 C104 C105 C106 C107 C108 C109 C110 C111 C112 C113 C114 C115 C116 C117 C118 C119 C120 C121 C14:C15 C36:C37 C39:C40">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D8 D9 D10 D11 D12 D13 D18 D33 D34 D35 D38 D43 D44 D45 D47 D48 D49 D50 D51 D52 D53 D54 D55 D56 D57 D58 D59 D60 D61 D62 D63 D64 D65 D66 D67 D68 D69 D70 D71 D72 D73 D74 D75 D76 D77 D78 D79 D80 D81 D82 D83 D84 D85 D86 D87 D88 D89 D90 D91 D92 D93 D94 D95 D96 D97 D98 D99 D100 D101 D102 D103 D104 D105 D106 D107 D108 D109 D110 D111 D112 D113 D114 D115 D116 D117 D118 D119 D120 D121 D14:D15 D36:D37 D39:D40 D41:D42 D122:D147">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D8 D9 D10 D11 D12 D13 D18 D33 D34 D35 D38 D43 D44 D45 D47 D48 D49 D50 D51 D52 D53 D54 D55 D56 D57 D58 D59 D60 D61 D62 D63 D64 D65 D66 D67 D68 D69 D70 D71 D72 D73 D74 D75 D76 D77 D78 D79 D80 D81 D82 D83 D84 D85 D86 D87 D88 D89 D90 D91 D92 D93 D94 D95 D96 D97 D98 D99 D100 D101 D102 D103 D104 D105 D106 D107 D108 D109 D110 D111 D112 D113 D114 D115 D116 D117 D118 D119 D120 D121 D14:D15 D36:D37 D39:D40 D41:D42">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
@@ -12509,12 +12069,12 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O190"/>
+  <dimension ref="A1:O120"/>
   <sheetViews>
     <sheetView zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomLeft" activeCell="A121" sqref="$A121:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -15656,1196 +15216,6 @@
       <c r="N120" s="57"/>
       <c r="O120" s="47"/>
     </row>
-    <row r="121" ht="23" customHeight="1" spans="1:15">
-      <c r="A121" s="30"/>
-      <c r="B121" s="35"/>
-      <c r="C121" s="36"/>
-      <c r="D121" s="37"/>
-      <c r="E121" s="37"/>
-      <c r="F121" s="37"/>
-      <c r="G121" s="37"/>
-      <c r="H121" s="37"/>
-      <c r="I121" s="37"/>
-      <c r="J121" s="56"/>
-      <c r="K121" s="47"/>
-      <c r="L121" s="57"/>
-      <c r="M121" s="58"/>
-      <c r="N121" s="57"/>
-      <c r="O121" s="47"/>
-    </row>
-    <row r="122" ht="23" customHeight="1" spans="1:15">
-      <c r="A122" s="30"/>
-      <c r="B122" s="35"/>
-      <c r="C122" s="36"/>
-      <c r="D122" s="37"/>
-      <c r="E122" s="37"/>
-      <c r="F122" s="37"/>
-      <c r="G122" s="37"/>
-      <c r="H122" s="37"/>
-      <c r="I122" s="37"/>
-      <c r="J122" s="56"/>
-      <c r="K122" s="47"/>
-      <c r="L122" s="57"/>
-      <c r="M122" s="58"/>
-      <c r="N122" s="57"/>
-      <c r="O122" s="47"/>
-    </row>
-    <row r="123" ht="23" customHeight="1" spans="1:15">
-      <c r="A123" s="30"/>
-      <c r="B123" s="35"/>
-      <c r="C123" s="36"/>
-      <c r="D123" s="37"/>
-      <c r="E123" s="37"/>
-      <c r="F123" s="37"/>
-      <c r="G123" s="37"/>
-      <c r="H123" s="37"/>
-      <c r="I123" s="37"/>
-      <c r="J123" s="56"/>
-      <c r="K123" s="47"/>
-      <c r="L123" s="57"/>
-      <c r="M123" s="58"/>
-      <c r="N123" s="57"/>
-      <c r="O123" s="47"/>
-    </row>
-    <row r="124" ht="23" customHeight="1" spans="1:15">
-      <c r="A124" s="30"/>
-      <c r="B124" s="35"/>
-      <c r="C124" s="36"/>
-      <c r="D124" s="37"/>
-      <c r="E124" s="37"/>
-      <c r="F124" s="37"/>
-      <c r="G124" s="37"/>
-      <c r="H124" s="37"/>
-      <c r="I124" s="37"/>
-      <c r="J124" s="56"/>
-      <c r="K124" s="47"/>
-      <c r="L124" s="57"/>
-      <c r="M124" s="58"/>
-      <c r="N124" s="57"/>
-      <c r="O124" s="47"/>
-    </row>
-    <row r="125" ht="23" customHeight="1" spans="1:15">
-      <c r="A125" s="30"/>
-      <c r="B125" s="35"/>
-      <c r="C125" s="36"/>
-      <c r="D125" s="37"/>
-      <c r="E125" s="37"/>
-      <c r="F125" s="37"/>
-      <c r="G125" s="37"/>
-      <c r="H125" s="37"/>
-      <c r="I125" s="37"/>
-      <c r="J125" s="56"/>
-      <c r="K125" s="47"/>
-      <c r="L125" s="57"/>
-      <c r="M125" s="58"/>
-      <c r="N125" s="57"/>
-      <c r="O125" s="47"/>
-    </row>
-    <row r="126" ht="23" customHeight="1" spans="1:15">
-      <c r="A126" s="30"/>
-      <c r="B126" s="35"/>
-      <c r="C126" s="36"/>
-      <c r="D126" s="37"/>
-      <c r="E126" s="37"/>
-      <c r="F126" s="37"/>
-      <c r="G126" s="37"/>
-      <c r="H126" s="37"/>
-      <c r="I126" s="37"/>
-      <c r="J126" s="56"/>
-      <c r="K126" s="47"/>
-      <c r="L126" s="57"/>
-      <c r="M126" s="58"/>
-      <c r="N126" s="57"/>
-      <c r="O126" s="47"/>
-    </row>
-    <row r="127" ht="23" customHeight="1" spans="1:15">
-      <c r="A127" s="30"/>
-      <c r="B127" s="35"/>
-      <c r="C127" s="36"/>
-      <c r="D127" s="37"/>
-      <c r="E127" s="37"/>
-      <c r="F127" s="37"/>
-      <c r="G127" s="37"/>
-      <c r="H127" s="37"/>
-      <c r="I127" s="37"/>
-      <c r="J127" s="56"/>
-      <c r="K127" s="47"/>
-      <c r="L127" s="57"/>
-      <c r="M127" s="58"/>
-      <c r="N127" s="57"/>
-      <c r="O127" s="47"/>
-    </row>
-    <row r="128" ht="23" customHeight="1" spans="1:15">
-      <c r="A128" s="30"/>
-      <c r="B128" s="35"/>
-      <c r="C128" s="36"/>
-      <c r="D128" s="37"/>
-      <c r="E128" s="37"/>
-      <c r="F128" s="37"/>
-      <c r="G128" s="37"/>
-      <c r="H128" s="37"/>
-      <c r="I128" s="37"/>
-      <c r="J128" s="56"/>
-      <c r="K128" s="47"/>
-      <c r="L128" s="57"/>
-      <c r="M128" s="58"/>
-      <c r="N128" s="57"/>
-      <c r="O128" s="47"/>
-    </row>
-    <row r="129" ht="23" customHeight="1" spans="1:15">
-      <c r="A129" s="30"/>
-      <c r="B129" s="35"/>
-      <c r="C129" s="36"/>
-      <c r="D129" s="37"/>
-      <c r="E129" s="37"/>
-      <c r="F129" s="37"/>
-      <c r="G129" s="37"/>
-      <c r="H129" s="37"/>
-      <c r="I129" s="37"/>
-      <c r="J129" s="56"/>
-      <c r="K129" s="47"/>
-      <c r="L129" s="57"/>
-      <c r="M129" s="58"/>
-      <c r="N129" s="57"/>
-      <c r="O129" s="47"/>
-    </row>
-    <row r="130" ht="23" customHeight="1" spans="1:15">
-      <c r="A130" s="30"/>
-      <c r="B130" s="35"/>
-      <c r="C130" s="36"/>
-      <c r="D130" s="37"/>
-      <c r="E130" s="37"/>
-      <c r="F130" s="37"/>
-      <c r="G130" s="37"/>
-      <c r="H130" s="37"/>
-      <c r="I130" s="37"/>
-      <c r="J130" s="56"/>
-      <c r="K130" s="47"/>
-      <c r="L130" s="57"/>
-      <c r="M130" s="58"/>
-      <c r="N130" s="57"/>
-      <c r="O130" s="47"/>
-    </row>
-    <row r="131" ht="23" customHeight="1" spans="1:15">
-      <c r="A131" s="30"/>
-      <c r="B131" s="35"/>
-      <c r="C131" s="36"/>
-      <c r="D131" s="37"/>
-      <c r="E131" s="37"/>
-      <c r="F131" s="37"/>
-      <c r="G131" s="37"/>
-      <c r="H131" s="37"/>
-      <c r="I131" s="37"/>
-      <c r="J131" s="56"/>
-      <c r="K131" s="47"/>
-      <c r="L131" s="57"/>
-      <c r="M131" s="58"/>
-      <c r="N131" s="57"/>
-      <c r="O131" s="47"/>
-    </row>
-    <row r="132" ht="23" customHeight="1" spans="1:15">
-      <c r="A132" s="30"/>
-      <c r="B132" s="35"/>
-      <c r="C132" s="36"/>
-      <c r="D132" s="37"/>
-      <c r="E132" s="37"/>
-      <c r="F132" s="37"/>
-      <c r="G132" s="37"/>
-      <c r="H132" s="37"/>
-      <c r="I132" s="37"/>
-      <c r="J132" s="56"/>
-      <c r="K132" s="47"/>
-      <c r="L132" s="57"/>
-      <c r="M132" s="58"/>
-      <c r="N132" s="57"/>
-      <c r="O132" s="47"/>
-    </row>
-    <row r="133" ht="23" customHeight="1" spans="1:15">
-      <c r="A133" s="30"/>
-      <c r="B133" s="35"/>
-      <c r="C133" s="36"/>
-      <c r="D133" s="37"/>
-      <c r="E133" s="37"/>
-      <c r="F133" s="37"/>
-      <c r="G133" s="37"/>
-      <c r="H133" s="37"/>
-      <c r="I133" s="37"/>
-      <c r="J133" s="56"/>
-      <c r="K133" s="47"/>
-      <c r="L133" s="57"/>
-      <c r="M133" s="58"/>
-      <c r="N133" s="57"/>
-      <c r="O133" s="47"/>
-    </row>
-    <row r="134" ht="23" customHeight="1" spans="1:15">
-      <c r="A134" s="30"/>
-      <c r="B134" s="35"/>
-      <c r="C134" s="36"/>
-      <c r="D134" s="37"/>
-      <c r="E134" s="37"/>
-      <c r="F134" s="37"/>
-      <c r="G134" s="37"/>
-      <c r="H134" s="37"/>
-      <c r="I134" s="37"/>
-      <c r="J134" s="56"/>
-      <c r="K134" s="47"/>
-      <c r="L134" s="57"/>
-      <c r="M134" s="58"/>
-      <c r="N134" s="57"/>
-      <c r="O134" s="47"/>
-    </row>
-    <row r="135" ht="23" customHeight="1" spans="1:15">
-      <c r="A135" s="30"/>
-      <c r="B135" s="35"/>
-      <c r="C135" s="36"/>
-      <c r="D135" s="37"/>
-      <c r="E135" s="37"/>
-      <c r="F135" s="37"/>
-      <c r="G135" s="37"/>
-      <c r="H135" s="37"/>
-      <c r="I135" s="37"/>
-      <c r="J135" s="56"/>
-      <c r="K135" s="47"/>
-      <c r="L135" s="57"/>
-      <c r="M135" s="58"/>
-      <c r="N135" s="57"/>
-      <c r="O135" s="47"/>
-    </row>
-    <row r="136" ht="23" customHeight="1" spans="1:15">
-      <c r="A136" s="30"/>
-      <c r="B136" s="35"/>
-      <c r="C136" s="36"/>
-      <c r="D136" s="37"/>
-      <c r="E136" s="37"/>
-      <c r="F136" s="37"/>
-      <c r="G136" s="37"/>
-      <c r="H136" s="37"/>
-      <c r="I136" s="37"/>
-      <c r="J136" s="56"/>
-      <c r="K136" s="47"/>
-      <c r="L136" s="57"/>
-      <c r="M136" s="58"/>
-      <c r="N136" s="57"/>
-      <c r="O136" s="47"/>
-    </row>
-    <row r="137" ht="23" customHeight="1" spans="1:15">
-      <c r="A137" s="30"/>
-      <c r="B137" s="35"/>
-      <c r="C137" s="36"/>
-      <c r="D137" s="37"/>
-      <c r="E137" s="37"/>
-      <c r="F137" s="37"/>
-      <c r="G137" s="37"/>
-      <c r="H137" s="37"/>
-      <c r="I137" s="37"/>
-      <c r="J137" s="56"/>
-      <c r="K137" s="47"/>
-      <c r="L137" s="57"/>
-      <c r="M137" s="58"/>
-      <c r="N137" s="57"/>
-      <c r="O137" s="47"/>
-    </row>
-    <row r="138" ht="23" customHeight="1" spans="1:15">
-      <c r="A138" s="30"/>
-      <c r="B138" s="35"/>
-      <c r="C138" s="36"/>
-      <c r="D138" s="37"/>
-      <c r="E138" s="37"/>
-      <c r="F138" s="37"/>
-      <c r="G138" s="37"/>
-      <c r="H138" s="37"/>
-      <c r="I138" s="37"/>
-      <c r="J138" s="56"/>
-      <c r="K138" s="47"/>
-      <c r="L138" s="57"/>
-      <c r="M138" s="58"/>
-      <c r="N138" s="57"/>
-      <c r="O138" s="47"/>
-    </row>
-    <row r="139" ht="23" customHeight="1" spans="1:15">
-      <c r="A139" s="30"/>
-      <c r="B139" s="35"/>
-      <c r="C139" s="36"/>
-      <c r="D139" s="37"/>
-      <c r="E139" s="37"/>
-      <c r="F139" s="37"/>
-      <c r="G139" s="37"/>
-      <c r="H139" s="37"/>
-      <c r="I139" s="37"/>
-      <c r="J139" s="56"/>
-      <c r="K139" s="47"/>
-      <c r="L139" s="57"/>
-      <c r="M139" s="58"/>
-      <c r="N139" s="57"/>
-      <c r="O139" s="47"/>
-    </row>
-    <row r="140" ht="23" customHeight="1" spans="1:15">
-      <c r="A140" s="30"/>
-      <c r="B140" s="35"/>
-      <c r="C140" s="36"/>
-      <c r="D140" s="37"/>
-      <c r="E140" s="37"/>
-      <c r="F140" s="37"/>
-      <c r="G140" s="37"/>
-      <c r="H140" s="37"/>
-      <c r="I140" s="37"/>
-      <c r="J140" s="56"/>
-      <c r="K140" s="47"/>
-      <c r="L140" s="57"/>
-      <c r="M140" s="58"/>
-      <c r="N140" s="57"/>
-      <c r="O140" s="47"/>
-    </row>
-    <row r="141" ht="23" customHeight="1" spans="1:15">
-      <c r="A141" s="30"/>
-      <c r="B141" s="35"/>
-      <c r="C141" s="36"/>
-      <c r="D141" s="37"/>
-      <c r="E141" s="37"/>
-      <c r="F141" s="37"/>
-      <c r="G141" s="37"/>
-      <c r="H141" s="37"/>
-      <c r="I141" s="37"/>
-      <c r="J141" s="56"/>
-      <c r="K141" s="47"/>
-      <c r="L141" s="57"/>
-      <c r="M141" s="58"/>
-      <c r="N141" s="57"/>
-      <c r="O141" s="47"/>
-    </row>
-    <row r="142" ht="23" customHeight="1" spans="1:15">
-      <c r="A142" s="30"/>
-      <c r="B142" s="35"/>
-      <c r="C142" s="36"/>
-      <c r="D142" s="37"/>
-      <c r="E142" s="37"/>
-      <c r="F142" s="37"/>
-      <c r="G142" s="37"/>
-      <c r="H142" s="37"/>
-      <c r="I142" s="37"/>
-      <c r="J142" s="56"/>
-      <c r="K142" s="47"/>
-      <c r="L142" s="57"/>
-      <c r="M142" s="58"/>
-      <c r="N142" s="57"/>
-      <c r="O142" s="47"/>
-    </row>
-    <row r="143" ht="23" customHeight="1" spans="1:15">
-      <c r="A143" s="30"/>
-      <c r="B143" s="35"/>
-      <c r="C143" s="36"/>
-      <c r="D143" s="37"/>
-      <c r="E143" s="37"/>
-      <c r="F143" s="37"/>
-      <c r="G143" s="37"/>
-      <c r="H143" s="37"/>
-      <c r="I143" s="37"/>
-      <c r="J143" s="56"/>
-      <c r="K143" s="47"/>
-      <c r="L143" s="57"/>
-      <c r="M143" s="58"/>
-      <c r="N143" s="57"/>
-      <c r="O143" s="47"/>
-    </row>
-    <row r="144" ht="23" customHeight="1" spans="1:15">
-      <c r="A144" s="30"/>
-      <c r="B144" s="35"/>
-      <c r="C144" s="36"/>
-      <c r="D144" s="37"/>
-      <c r="E144" s="37"/>
-      <c r="F144" s="37"/>
-      <c r="G144" s="37"/>
-      <c r="H144" s="37"/>
-      <c r="I144" s="37"/>
-      <c r="J144" s="56"/>
-      <c r="K144" s="47"/>
-      <c r="L144" s="57"/>
-      <c r="M144" s="58"/>
-      <c r="N144" s="57"/>
-      <c r="O144" s="47"/>
-    </row>
-    <row r="145" ht="23" customHeight="1" spans="1:15">
-      <c r="A145" s="30"/>
-      <c r="B145" s="35"/>
-      <c r="C145" s="36"/>
-      <c r="D145" s="37"/>
-      <c r="E145" s="37"/>
-      <c r="F145" s="37"/>
-      <c r="G145" s="37"/>
-      <c r="H145" s="37"/>
-      <c r="I145" s="37"/>
-      <c r="J145" s="56"/>
-      <c r="K145" s="47"/>
-      <c r="L145" s="57"/>
-      <c r="M145" s="58"/>
-      <c r="N145" s="57"/>
-      <c r="O145" s="47"/>
-    </row>
-    <row r="146" ht="23" customHeight="1" spans="1:15">
-      <c r="A146" s="30"/>
-      <c r="B146" s="35"/>
-      <c r="C146" s="36"/>
-      <c r="D146" s="37"/>
-      <c r="E146" s="37"/>
-      <c r="F146" s="37"/>
-      <c r="G146" s="37"/>
-      <c r="H146" s="37"/>
-      <c r="I146" s="37"/>
-      <c r="J146" s="56"/>
-      <c r="K146" s="47"/>
-      <c r="L146" s="57"/>
-      <c r="M146" s="58"/>
-      <c r="N146" s="57"/>
-      <c r="O146" s="47"/>
-    </row>
-    <row r="147" ht="23" customHeight="1" spans="1:15">
-      <c r="A147" s="30"/>
-      <c r="B147" s="35"/>
-      <c r="C147" s="36"/>
-      <c r="D147" s="37"/>
-      <c r="E147" s="37"/>
-      <c r="F147" s="37"/>
-      <c r="G147" s="37"/>
-      <c r="H147" s="37"/>
-      <c r="I147" s="37"/>
-      <c r="J147" s="56"/>
-      <c r="K147" s="47"/>
-      <c r="L147" s="57"/>
-      <c r="M147" s="58"/>
-      <c r="N147" s="57"/>
-      <c r="O147" s="47"/>
-    </row>
-    <row r="148" ht="23" customHeight="1" spans="1:15">
-      <c r="A148" s="30"/>
-      <c r="B148" s="35"/>
-      <c r="C148" s="36"/>
-      <c r="D148" s="37"/>
-      <c r="E148" s="37"/>
-      <c r="F148" s="37"/>
-      <c r="G148" s="37"/>
-      <c r="H148" s="37"/>
-      <c r="I148" s="37"/>
-      <c r="J148" s="56"/>
-      <c r="K148" s="47"/>
-      <c r="L148" s="57"/>
-      <c r="M148" s="58"/>
-      <c r="N148" s="57"/>
-      <c r="O148" s="47"/>
-    </row>
-    <row r="149" ht="23" customHeight="1" spans="1:15">
-      <c r="A149" s="30"/>
-      <c r="B149" s="35"/>
-      <c r="C149" s="36"/>
-      <c r="D149" s="37"/>
-      <c r="E149" s="37"/>
-      <c r="F149" s="37"/>
-      <c r="G149" s="37"/>
-      <c r="H149" s="37"/>
-      <c r="I149" s="37"/>
-      <c r="J149" s="56"/>
-      <c r="K149" s="47"/>
-      <c r="L149" s="57"/>
-      <c r="M149" s="58"/>
-      <c r="N149" s="57"/>
-      <c r="O149" s="47"/>
-    </row>
-    <row r="150" ht="23" customHeight="1" spans="1:15">
-      <c r="A150" s="30"/>
-      <c r="B150" s="35"/>
-      <c r="C150" s="36"/>
-      <c r="D150" s="37"/>
-      <c r="E150" s="37"/>
-      <c r="F150" s="37"/>
-      <c r="G150" s="37"/>
-      <c r="H150" s="37"/>
-      <c r="I150" s="37"/>
-      <c r="J150" s="56"/>
-      <c r="K150" s="47"/>
-      <c r="L150" s="57"/>
-      <c r="M150" s="58"/>
-      <c r="N150" s="57"/>
-      <c r="O150" s="47"/>
-    </row>
-    <row r="151" ht="23" customHeight="1" spans="1:15">
-      <c r="A151" s="30"/>
-      <c r="B151" s="35"/>
-      <c r="C151" s="36"/>
-      <c r="D151" s="37"/>
-      <c r="E151" s="37"/>
-      <c r="F151" s="37"/>
-      <c r="G151" s="37"/>
-      <c r="H151" s="37"/>
-      <c r="I151" s="37"/>
-      <c r="J151" s="56"/>
-      <c r="K151" s="47"/>
-      <c r="L151" s="57"/>
-      <c r="M151" s="58"/>
-      <c r="N151" s="57"/>
-      <c r="O151" s="47"/>
-    </row>
-    <row r="152" ht="23" customHeight="1" spans="1:15">
-      <c r="A152" s="30"/>
-      <c r="B152" s="35"/>
-      <c r="C152" s="36"/>
-      <c r="D152" s="37"/>
-      <c r="E152" s="37"/>
-      <c r="F152" s="37"/>
-      <c r="G152" s="37"/>
-      <c r="H152" s="37"/>
-      <c r="I152" s="37"/>
-      <c r="J152" s="56"/>
-      <c r="K152" s="47"/>
-      <c r="L152" s="57"/>
-      <c r="M152" s="58"/>
-      <c r="N152" s="57"/>
-      <c r="O152" s="47"/>
-    </row>
-    <row r="153" ht="23" customHeight="1" spans="1:15">
-      <c r="A153" s="30"/>
-      <c r="B153" s="35"/>
-      <c r="C153" s="36"/>
-      <c r="D153" s="37"/>
-      <c r="E153" s="37"/>
-      <c r="F153" s="37"/>
-      <c r="G153" s="37"/>
-      <c r="H153" s="37"/>
-      <c r="I153" s="37"/>
-      <c r="J153" s="56"/>
-      <c r="K153" s="47"/>
-      <c r="L153" s="57"/>
-      <c r="M153" s="58"/>
-      <c r="N153" s="57"/>
-      <c r="O153" s="47"/>
-    </row>
-    <row r="154" ht="23" customHeight="1" spans="1:15">
-      <c r="A154" s="30"/>
-      <c r="B154" s="35"/>
-      <c r="C154" s="36"/>
-      <c r="D154" s="37"/>
-      <c r="E154" s="37"/>
-      <c r="F154" s="37"/>
-      <c r="G154" s="37"/>
-      <c r="H154" s="37"/>
-      <c r="I154" s="37"/>
-      <c r="J154" s="56"/>
-      <c r="K154" s="47"/>
-      <c r="L154" s="57"/>
-      <c r="M154" s="58"/>
-      <c r="N154" s="57"/>
-      <c r="O154" s="47"/>
-    </row>
-    <row r="155" ht="23" customHeight="1" spans="1:15">
-      <c r="A155" s="30"/>
-      <c r="B155" s="35"/>
-      <c r="C155" s="36"/>
-      <c r="D155" s="37"/>
-      <c r="E155" s="37"/>
-      <c r="F155" s="37"/>
-      <c r="G155" s="37"/>
-      <c r="H155" s="37"/>
-      <c r="I155" s="37"/>
-      <c r="J155" s="56"/>
-      <c r="K155" s="47"/>
-      <c r="L155" s="57"/>
-      <c r="M155" s="58"/>
-      <c r="N155" s="57"/>
-      <c r="O155" s="47"/>
-    </row>
-    <row r="156" ht="23" customHeight="1" spans="1:15">
-      <c r="A156" s="30"/>
-      <c r="B156" s="35"/>
-      <c r="C156" s="36"/>
-      <c r="D156" s="37"/>
-      <c r="E156" s="37"/>
-      <c r="F156" s="37"/>
-      <c r="G156" s="37"/>
-      <c r="H156" s="37"/>
-      <c r="I156" s="37"/>
-      <c r="J156" s="56"/>
-      <c r="K156" s="47"/>
-      <c r="L156" s="57"/>
-      <c r="M156" s="58"/>
-      <c r="N156" s="57"/>
-      <c r="O156" s="47"/>
-    </row>
-    <row r="157" ht="23" customHeight="1" spans="1:15">
-      <c r="A157" s="30"/>
-      <c r="B157" s="35"/>
-      <c r="C157" s="36"/>
-      <c r="D157" s="37"/>
-      <c r="E157" s="37"/>
-      <c r="F157" s="37"/>
-      <c r="G157" s="37"/>
-      <c r="H157" s="37"/>
-      <c r="I157" s="37"/>
-      <c r="J157" s="56"/>
-      <c r="K157" s="47"/>
-      <c r="L157" s="57"/>
-      <c r="M157" s="58"/>
-      <c r="N157" s="57"/>
-      <c r="O157" s="47"/>
-    </row>
-    <row r="158" ht="23" customHeight="1" spans="1:15">
-      <c r="A158" s="30"/>
-      <c r="B158" s="35"/>
-      <c r="C158" s="36"/>
-      <c r="D158" s="37"/>
-      <c r="E158" s="37"/>
-      <c r="F158" s="37"/>
-      <c r="G158" s="37"/>
-      <c r="H158" s="37"/>
-      <c r="I158" s="37"/>
-      <c r="J158" s="56"/>
-      <c r="K158" s="47"/>
-      <c r="L158" s="57"/>
-      <c r="M158" s="58"/>
-      <c r="N158" s="57"/>
-      <c r="O158" s="47"/>
-    </row>
-    <row r="159" ht="23" customHeight="1" spans="1:15">
-      <c r="A159" s="30"/>
-      <c r="B159" s="35"/>
-      <c r="C159" s="36"/>
-      <c r="D159" s="37"/>
-      <c r="E159" s="37"/>
-      <c r="F159" s="37"/>
-      <c r="G159" s="37"/>
-      <c r="H159" s="37"/>
-      <c r="I159" s="37"/>
-      <c r="J159" s="56"/>
-      <c r="K159" s="47"/>
-      <c r="L159" s="57"/>
-      <c r="M159" s="58"/>
-      <c r="N159" s="57"/>
-      <c r="O159" s="47"/>
-    </row>
-    <row r="160" ht="23" customHeight="1" spans="1:15">
-      <c r="A160" s="30"/>
-      <c r="B160" s="35"/>
-      <c r="C160" s="36"/>
-      <c r="D160" s="37"/>
-      <c r="E160" s="37"/>
-      <c r="F160" s="37"/>
-      <c r="G160" s="37"/>
-      <c r="H160" s="37"/>
-      <c r="I160" s="37"/>
-      <c r="J160" s="56"/>
-      <c r="K160" s="47"/>
-      <c r="L160" s="57"/>
-      <c r="M160" s="58"/>
-      <c r="N160" s="57"/>
-      <c r="O160" s="47"/>
-    </row>
-    <row r="161" ht="23" customHeight="1" spans="1:15">
-      <c r="A161" s="30"/>
-      <c r="B161" s="35"/>
-      <c r="C161" s="36"/>
-      <c r="D161" s="37"/>
-      <c r="E161" s="37"/>
-      <c r="F161" s="37"/>
-      <c r="G161" s="37"/>
-      <c r="H161" s="37"/>
-      <c r="I161" s="37"/>
-      <c r="J161" s="56"/>
-      <c r="K161" s="47"/>
-      <c r="L161" s="57"/>
-      <c r="M161" s="58"/>
-      <c r="N161" s="57"/>
-      <c r="O161" s="47"/>
-    </row>
-    <row r="162" ht="23" customHeight="1" spans="1:15">
-      <c r="A162" s="30"/>
-      <c r="B162" s="35"/>
-      <c r="C162" s="36"/>
-      <c r="D162" s="37"/>
-      <c r="E162" s="37"/>
-      <c r="F162" s="37"/>
-      <c r="G162" s="37"/>
-      <c r="H162" s="37"/>
-      <c r="I162" s="37"/>
-      <c r="J162" s="56"/>
-      <c r="K162" s="47"/>
-      <c r="L162" s="57"/>
-      <c r="M162" s="58"/>
-      <c r="N162" s="57"/>
-      <c r="O162" s="47"/>
-    </row>
-    <row r="163" ht="23" customHeight="1" spans="1:15">
-      <c r="A163" s="30"/>
-      <c r="B163" s="35"/>
-      <c r="C163" s="36"/>
-      <c r="D163" s="37"/>
-      <c r="E163" s="37"/>
-      <c r="F163" s="37"/>
-      <c r="G163" s="37"/>
-      <c r="H163" s="37"/>
-      <c r="I163" s="37"/>
-      <c r="J163" s="56"/>
-      <c r="K163" s="47"/>
-      <c r="L163" s="57"/>
-      <c r="M163" s="58"/>
-      <c r="N163" s="57"/>
-      <c r="O163" s="47"/>
-    </row>
-    <row r="164" ht="23" customHeight="1" spans="1:15">
-      <c r="A164" s="30"/>
-      <c r="B164" s="35"/>
-      <c r="C164" s="36"/>
-      <c r="D164" s="37"/>
-      <c r="E164" s="37"/>
-      <c r="F164" s="37"/>
-      <c r="G164" s="37"/>
-      <c r="H164" s="37"/>
-      <c r="I164" s="37"/>
-      <c r="J164" s="56"/>
-      <c r="K164" s="47"/>
-      <c r="L164" s="57"/>
-      <c r="M164" s="58"/>
-      <c r="N164" s="57"/>
-      <c r="O164" s="47"/>
-    </row>
-    <row r="165" ht="23" customHeight="1" spans="1:15">
-      <c r="A165" s="30"/>
-      <c r="B165" s="35"/>
-      <c r="C165" s="36"/>
-      <c r="D165" s="37"/>
-      <c r="E165" s="37"/>
-      <c r="F165" s="37"/>
-      <c r="G165" s="37"/>
-      <c r="H165" s="37"/>
-      <c r="I165" s="37"/>
-      <c r="J165" s="56"/>
-      <c r="K165" s="47"/>
-      <c r="L165" s="57"/>
-      <c r="M165" s="58"/>
-      <c r="N165" s="57"/>
-      <c r="O165" s="47"/>
-    </row>
-    <row r="166" ht="23" customHeight="1" spans="1:15">
-      <c r="A166" s="30"/>
-      <c r="B166" s="35"/>
-      <c r="C166" s="36"/>
-      <c r="D166" s="37"/>
-      <c r="E166" s="37"/>
-      <c r="F166" s="37"/>
-      <c r="G166" s="37"/>
-      <c r="H166" s="37"/>
-      <c r="I166" s="37"/>
-      <c r="J166" s="56"/>
-      <c r="K166" s="47"/>
-      <c r="L166" s="57"/>
-      <c r="M166" s="58"/>
-      <c r="N166" s="57"/>
-      <c r="O166" s="47"/>
-    </row>
-    <row r="167" ht="23" customHeight="1" spans="1:15">
-      <c r="A167" s="30"/>
-      <c r="B167" s="35"/>
-      <c r="C167" s="36"/>
-      <c r="D167" s="37"/>
-      <c r="E167" s="37"/>
-      <c r="F167" s="37"/>
-      <c r="G167" s="37"/>
-      <c r="H167" s="37"/>
-      <c r="I167" s="37"/>
-      <c r="J167" s="56"/>
-      <c r="K167" s="47"/>
-      <c r="L167" s="57"/>
-      <c r="M167" s="58"/>
-      <c r="N167" s="57"/>
-      <c r="O167" s="47"/>
-    </row>
-    <row r="168" ht="23" customHeight="1" spans="1:15">
-      <c r="A168" s="30"/>
-      <c r="B168" s="35"/>
-      <c r="C168" s="36"/>
-      <c r="D168" s="37"/>
-      <c r="E168" s="37"/>
-      <c r="F168" s="37"/>
-      <c r="G168" s="37"/>
-      <c r="H168" s="37"/>
-      <c r="I168" s="37"/>
-      <c r="J168" s="56"/>
-      <c r="K168" s="47"/>
-      <c r="L168" s="57"/>
-      <c r="M168" s="58"/>
-      <c r="N168" s="57"/>
-      <c r="O168" s="47"/>
-    </row>
-    <row r="169" ht="23" customHeight="1" spans="1:15">
-      <c r="A169" s="30"/>
-      <c r="B169" s="35"/>
-      <c r="C169" s="36"/>
-      <c r="D169" s="37"/>
-      <c r="E169" s="37"/>
-      <c r="F169" s="37"/>
-      <c r="G169" s="37"/>
-      <c r="H169" s="37"/>
-      <c r="I169" s="37"/>
-      <c r="J169" s="56"/>
-      <c r="K169" s="47"/>
-      <c r="L169" s="57"/>
-      <c r="M169" s="58"/>
-      <c r="N169" s="57"/>
-      <c r="O169" s="47"/>
-    </row>
-    <row r="170" ht="23" customHeight="1" spans="1:15">
-      <c r="A170" s="30"/>
-      <c r="B170" s="35"/>
-      <c r="C170" s="36"/>
-      <c r="D170" s="37"/>
-      <c r="E170" s="37"/>
-      <c r="F170" s="37"/>
-      <c r="G170" s="37"/>
-      <c r="H170" s="37"/>
-      <c r="I170" s="37"/>
-      <c r="J170" s="56"/>
-      <c r="K170" s="47"/>
-      <c r="L170" s="57"/>
-      <c r="M170" s="58"/>
-      <c r="N170" s="57"/>
-      <c r="O170" s="47"/>
-    </row>
-    <row r="171" ht="23" customHeight="1" spans="1:15">
-      <c r="A171" s="30"/>
-      <c r="B171" s="35"/>
-      <c r="C171" s="36"/>
-      <c r="D171" s="37"/>
-      <c r="E171" s="37"/>
-      <c r="F171" s="37"/>
-      <c r="G171" s="37"/>
-      <c r="H171" s="37"/>
-      <c r="I171" s="37"/>
-      <c r="J171" s="56"/>
-      <c r="K171" s="47"/>
-      <c r="L171" s="57"/>
-      <c r="M171" s="58"/>
-      <c r="N171" s="57"/>
-      <c r="O171" s="47"/>
-    </row>
-    <row r="172" ht="23" customHeight="1" spans="1:15">
-      <c r="A172" s="30"/>
-      <c r="B172" s="35"/>
-      <c r="C172" s="36"/>
-      <c r="D172" s="37"/>
-      <c r="E172" s="37"/>
-      <c r="F172" s="37"/>
-      <c r="G172" s="37"/>
-      <c r="H172" s="37"/>
-      <c r="I172" s="37"/>
-      <c r="J172" s="56"/>
-      <c r="K172" s="47"/>
-      <c r="L172" s="57"/>
-      <c r="M172" s="58"/>
-      <c r="N172" s="57"/>
-      <c r="O172" s="47"/>
-    </row>
-    <row r="173" ht="23" customHeight="1" spans="1:15">
-      <c r="A173" s="30"/>
-      <c r="B173" s="35"/>
-      <c r="C173" s="36"/>
-      <c r="D173" s="37"/>
-      <c r="E173" s="37"/>
-      <c r="F173" s="37"/>
-      <c r="G173" s="37"/>
-      <c r="H173" s="37"/>
-      <c r="I173" s="37"/>
-      <c r="J173" s="56"/>
-      <c r="K173" s="47"/>
-      <c r="L173" s="57"/>
-      <c r="M173" s="58"/>
-      <c r="N173" s="57"/>
-      <c r="O173" s="47"/>
-    </row>
-    <row r="174" ht="23" customHeight="1" spans="1:15">
-      <c r="A174" s="30"/>
-      <c r="B174" s="35"/>
-      <c r="C174" s="36"/>
-      <c r="D174" s="37"/>
-      <c r="E174" s="37"/>
-      <c r="F174" s="37"/>
-      <c r="G174" s="37"/>
-      <c r="H174" s="37"/>
-      <c r="I174" s="37"/>
-      <c r="J174" s="56"/>
-      <c r="K174" s="47"/>
-      <c r="L174" s="57"/>
-      <c r="M174" s="58"/>
-      <c r="N174" s="57"/>
-      <c r="O174" s="47"/>
-    </row>
-    <row r="175" ht="23" customHeight="1" spans="1:15">
-      <c r="A175" s="30"/>
-      <c r="B175" s="35"/>
-      <c r="C175" s="36"/>
-      <c r="D175" s="37"/>
-      <c r="E175" s="37"/>
-      <c r="F175" s="37"/>
-      <c r="G175" s="37"/>
-      <c r="H175" s="37"/>
-      <c r="I175" s="37"/>
-      <c r="J175" s="56"/>
-      <c r="K175" s="47"/>
-      <c r="L175" s="57"/>
-      <c r="M175" s="58"/>
-      <c r="N175" s="57"/>
-      <c r="O175" s="47"/>
-    </row>
-    <row r="176" ht="23" customHeight="1" spans="1:15">
-      <c r="A176" s="30"/>
-      <c r="B176" s="35"/>
-      <c r="C176" s="36"/>
-      <c r="D176" s="37"/>
-      <c r="E176" s="37"/>
-      <c r="F176" s="37"/>
-      <c r="G176" s="37"/>
-      <c r="H176" s="37"/>
-      <c r="I176" s="37"/>
-      <c r="J176" s="56"/>
-      <c r="K176" s="47"/>
-      <c r="L176" s="57"/>
-      <c r="M176" s="58"/>
-      <c r="N176" s="57"/>
-      <c r="O176" s="47"/>
-    </row>
-    <row r="177" ht="23" customHeight="1" spans="1:15">
-      <c r="A177" s="30"/>
-      <c r="B177" s="35"/>
-      <c r="C177" s="36"/>
-      <c r="D177" s="37"/>
-      <c r="E177" s="37"/>
-      <c r="F177" s="37"/>
-      <c r="G177" s="37"/>
-      <c r="H177" s="37"/>
-      <c r="I177" s="37"/>
-      <c r="J177" s="56"/>
-      <c r="K177" s="47"/>
-      <c r="L177" s="57"/>
-      <c r="M177" s="58"/>
-      <c r="N177" s="57"/>
-      <c r="O177" s="47"/>
-    </row>
-    <row r="178" ht="23" customHeight="1" spans="1:15">
-      <c r="A178" s="30"/>
-      <c r="B178" s="35"/>
-      <c r="C178" s="36"/>
-      <c r="D178" s="37"/>
-      <c r="E178" s="37"/>
-      <c r="F178" s="37"/>
-      <c r="G178" s="37"/>
-      <c r="H178" s="37"/>
-      <c r="I178" s="37"/>
-      <c r="J178" s="56"/>
-      <c r="K178" s="47"/>
-      <c r="L178" s="57"/>
-      <c r="M178" s="58"/>
-      <c r="N178" s="57"/>
-      <c r="O178" s="47"/>
-    </row>
-    <row r="179" ht="23" customHeight="1" spans="1:15">
-      <c r="A179" s="30"/>
-      <c r="B179" s="35"/>
-      <c r="C179" s="36"/>
-      <c r="D179" s="37"/>
-      <c r="E179" s="37"/>
-      <c r="F179" s="37"/>
-      <c r="G179" s="37"/>
-      <c r="H179" s="37"/>
-      <c r="I179" s="37"/>
-      <c r="J179" s="56"/>
-      <c r="K179" s="47"/>
-      <c r="L179" s="57"/>
-      <c r="M179" s="58"/>
-      <c r="N179" s="57"/>
-      <c r="O179" s="47"/>
-    </row>
-    <row r="180" ht="23" customHeight="1" spans="1:15">
-      <c r="A180" s="30"/>
-      <c r="B180" s="35"/>
-      <c r="C180" s="36"/>
-      <c r="D180" s="37"/>
-      <c r="E180" s="37"/>
-      <c r="F180" s="37"/>
-      <c r="G180" s="37"/>
-      <c r="H180" s="37"/>
-      <c r="I180" s="37"/>
-      <c r="J180" s="56"/>
-      <c r="K180" s="47"/>
-      <c r="L180" s="57"/>
-      <c r="M180" s="58"/>
-      <c r="N180" s="57"/>
-      <c r="O180" s="47"/>
-    </row>
-    <row r="181" ht="23" customHeight="1" spans="1:15">
-      <c r="A181" s="30"/>
-      <c r="B181" s="35"/>
-      <c r="C181" s="36"/>
-      <c r="D181" s="37"/>
-      <c r="E181" s="37"/>
-      <c r="F181" s="37"/>
-      <c r="G181" s="37"/>
-      <c r="H181" s="37"/>
-      <c r="I181" s="37"/>
-      <c r="J181" s="56"/>
-      <c r="K181" s="47"/>
-      <c r="L181" s="57"/>
-      <c r="M181" s="58"/>
-      <c r="N181" s="57"/>
-      <c r="O181" s="47"/>
-    </row>
-    <row r="182" ht="23" customHeight="1" spans="1:15">
-      <c r="A182" s="30"/>
-      <c r="B182" s="35"/>
-      <c r="C182" s="36"/>
-      <c r="D182" s="37"/>
-      <c r="E182" s="37"/>
-      <c r="F182" s="37"/>
-      <c r="G182" s="37"/>
-      <c r="H182" s="37"/>
-      <c r="I182" s="37"/>
-      <c r="J182" s="56"/>
-      <c r="K182" s="47"/>
-      <c r="L182" s="57"/>
-      <c r="M182" s="58"/>
-      <c r="N182" s="57"/>
-      <c r="O182" s="47"/>
-    </row>
-    <row r="183" ht="23" customHeight="1" spans="1:15">
-      <c r="A183" s="30"/>
-      <c r="B183" s="35"/>
-      <c r="C183" s="36"/>
-      <c r="D183" s="37"/>
-      <c r="E183" s="37"/>
-      <c r="F183" s="37"/>
-      <c r="G183" s="37"/>
-      <c r="H183" s="37"/>
-      <c r="I183" s="37"/>
-      <c r="J183" s="56"/>
-      <c r="K183" s="47"/>
-      <c r="L183" s="57"/>
-      <c r="M183" s="58"/>
-      <c r="N183" s="57"/>
-      <c r="O183" s="47"/>
-    </row>
-    <row r="184" ht="23" customHeight="1" spans="1:15">
-      <c r="A184" s="30"/>
-      <c r="B184" s="35"/>
-      <c r="C184" s="36"/>
-      <c r="D184" s="37"/>
-      <c r="E184" s="37"/>
-      <c r="F184" s="37"/>
-      <c r="G184" s="37"/>
-      <c r="H184" s="37"/>
-      <c r="I184" s="37"/>
-      <c r="J184" s="56"/>
-      <c r="K184" s="47"/>
-      <c r="L184" s="57"/>
-      <c r="M184" s="58"/>
-      <c r="N184" s="57"/>
-      <c r="O184" s="47"/>
-    </row>
-    <row r="185" ht="23" customHeight="1" spans="1:15">
-      <c r="A185" s="30"/>
-      <c r="B185" s="35"/>
-      <c r="C185" s="36"/>
-      <c r="D185" s="37"/>
-      <c r="E185" s="37"/>
-      <c r="F185" s="37"/>
-      <c r="G185" s="37"/>
-      <c r="H185" s="37"/>
-      <c r="I185" s="37"/>
-      <c r="J185" s="56"/>
-      <c r="K185" s="47"/>
-      <c r="L185" s="57"/>
-      <c r="M185" s="58"/>
-      <c r="N185" s="57"/>
-      <c r="O185" s="47"/>
-    </row>
-    <row r="186" ht="23" customHeight="1" spans="1:15">
-      <c r="A186" s="30"/>
-      <c r="B186" s="35"/>
-      <c r="C186" s="36"/>
-      <c r="D186" s="37"/>
-      <c r="E186" s="37"/>
-      <c r="F186" s="37"/>
-      <c r="G186" s="37"/>
-      <c r="H186" s="37"/>
-      <c r="I186" s="37"/>
-      <c r="J186" s="56"/>
-      <c r="K186" s="47"/>
-      <c r="L186" s="57"/>
-      <c r="M186" s="58"/>
-      <c r="N186" s="57"/>
-      <c r="O186" s="47"/>
-    </row>
-    <row r="187" ht="23" customHeight="1" spans="1:15">
-      <c r="A187" s="30"/>
-      <c r="B187" s="35"/>
-      <c r="C187" s="36"/>
-      <c r="D187" s="37"/>
-      <c r="E187" s="37"/>
-      <c r="F187" s="37"/>
-      <c r="G187" s="37"/>
-      <c r="H187" s="37"/>
-      <c r="I187" s="37"/>
-      <c r="J187" s="56"/>
-      <c r="K187" s="47"/>
-      <c r="L187" s="57"/>
-      <c r="M187" s="58"/>
-      <c r="N187" s="57"/>
-      <c r="O187" s="47"/>
-    </row>
-    <row r="188" ht="23" customHeight="1" spans="1:15">
-      <c r="A188" s="30"/>
-      <c r="B188" s="35"/>
-      <c r="C188" s="36"/>
-      <c r="D188" s="37"/>
-      <c r="E188" s="37"/>
-      <c r="F188" s="37"/>
-      <c r="G188" s="37"/>
-      <c r="H188" s="37"/>
-      <c r="I188" s="37"/>
-      <c r="J188" s="56"/>
-      <c r="K188" s="47"/>
-      <c r="L188" s="57"/>
-      <c r="M188" s="58"/>
-      <c r="N188" s="57"/>
-      <c r="O188" s="47"/>
-    </row>
-    <row r="189" ht="23" customHeight="1" spans="1:15">
-      <c r="A189" s="30"/>
-      <c r="B189" s="35"/>
-      <c r="C189" s="36"/>
-      <c r="D189" s="37"/>
-      <c r="E189" s="37"/>
-      <c r="F189" s="37"/>
-      <c r="G189" s="37"/>
-      <c r="H189" s="37"/>
-      <c r="I189" s="37"/>
-      <c r="J189" s="56"/>
-      <c r="K189" s="47"/>
-      <c r="L189" s="57"/>
-      <c r="M189" s="58"/>
-      <c r="N189" s="57"/>
-      <c r="O189" s="47"/>
-    </row>
-    <row r="190" ht="23" customHeight="1" spans="1:15">
-      <c r="A190" s="30"/>
-      <c r="B190" s="35"/>
-      <c r="C190" s="36"/>
-      <c r="D190" s="37"/>
-      <c r="E190" s="37"/>
-      <c r="F190" s="37"/>
-      <c r="G190" s="37"/>
-      <c r="H190" s="37"/>
-      <c r="I190" s="37"/>
-      <c r="J190" s="56"/>
-      <c r="K190" s="47"/>
-      <c r="L190" s="57"/>
-      <c r="M190" s="58"/>
-      <c r="N190" s="57"/>
-      <c r="O190" s="47"/>
-    </row>
   </sheetData>
   <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
   <mergeCells count="4">
@@ -17492,17 +15862,6 @@
       <formula>LEFT(N99,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N121:N190">
-    <cfRule type="beginsWith" dxfId="2" priority="370" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N121,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="371" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N121,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="372" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N121,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="N25:N27 N31">
     <cfRule type="beginsWith" dxfId="2" priority="13" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N25,LEN("WARN"))="WARN"</formula>
@@ -17570,10 +15929,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11 C12 C32 C33 C34 C37 C40 C41 C42 C43 C44 C46 C47 C48 C49 C50 C51 C52 C53 C54 C55 C56 C57 C58 C59 C60 C61 C62 C63 C64 C65 C66 C67 C68 C69 C70 C71 C72 C73 C74 C75 C76 C77 C78 C79 C80 C81 C82 C83 C84 C85 C86 C87 C88 C89 C90 C91 C92 C93 C94 C95 C96 C97 C98 C99 C100 C101 C102 C103 C104 C105 C106 C107 C108 C109 C110 C111 C112 C113 C114 C115 C116 C117 C118 C119 C120 C13:C14 C35:C36 C38:C39 C121:C190">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11 C12 C32 C33 C34 C37 C40 C41 C42 C43 C44 C46 C47 C48 C49 C50 C51 C52 C53 C54 C55 C56 C57 C58 C59 C60 C61 C62 C63 C64 C65 C66 C67 C68 C69 C70 C71 C72 C73 C74 C75 C76 C77 C78 C79 C80 C81 C82 C83 C84 C85 C86 C87 C88 C89 C90 C91 C92 C93 C94 C95 C96 C97 C98 C99 C100 C101 C102 C103 C104 C105 C106 C107 C108 C109 C110 C111 C112 C113 C114 C115 C116 C117 C118 C119 C120 C13:C14 C35:C36 C38:C39">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D8 D9 D10 D11 D12 D17 D32 D33 D34 D37 D42 D43 D44 D46 D47 D48 D49 D50 D51 D52 D53 D54 D55 D56 D57 D58 D59 D60 D61 D62 D63 D64 D65 D66 D67 D68 D69 D70 D71 D72 D73 D74 D75 D76 D77 D78 D79 D80 D81 D82 D83 D84 D85 D86 D87 D88 D89 D90 D91 D92 D93 D94 D95 D96 D97 D98 D99 D100 D101 D102 D103 D104 D105 D106 D107 D108 D109 D110 D111 D112 D113 D114 D115 D116 D117 D118 D119 D120 D13:D14 D35:D36 D38:D39 D40:D41 D121:D190">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D8 D9 D10 D11 D12 D17 D32 D33 D34 D37 D42 D43 D44 D46 D47 D48 D49 D50 D51 D52 D53 D54 D55 D56 D57 D58 D59 D60 D61 D62 D63 D64 D65 D66 D67 D68 D69 D70 D71 D72 D73 D74 D75 D76 D77 D78 D79 D80 D81 D82 D83 D84 D85 D86 D87 D88 D89 D90 D91 D92 D93 D94 D95 D96 D97 D98 D99 D100 D101 D102 D103 D104 D105 D106 D107 D108 D109 D110 D111 D112 D113 D114 D115 D116 D117 D118 D119 D120 D13:D14 D35:D36 D38:D39 D40:D41">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
@@ -17585,12 +15944,12 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O153"/>
+  <dimension ref="A1:O132"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A133" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B59" sqref="B59"/>
+      <selection pane="bottomLeft" activeCell="A133" sqref="$A133:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -21054,363 +19413,6 @@
       <c r="N132" s="57"/>
       <c r="O132" s="47"/>
     </row>
-    <row r="133" ht="23" customHeight="1" spans="1:15">
-      <c r="A133" s="30"/>
-      <c r="B133" s="35"/>
-      <c r="C133" s="36"/>
-      <c r="D133" s="37"/>
-      <c r="E133" s="37"/>
-      <c r="F133" s="37"/>
-      <c r="G133" s="37"/>
-      <c r="H133" s="37"/>
-      <c r="I133" s="37"/>
-      <c r="J133" s="56"/>
-      <c r="K133" s="47"/>
-      <c r="L133" s="57"/>
-      <c r="M133" s="58"/>
-      <c r="N133" s="57"/>
-      <c r="O133" s="47"/>
-    </row>
-    <row r="134" ht="23" customHeight="1" spans="1:15">
-      <c r="A134" s="30"/>
-      <c r="B134" s="35"/>
-      <c r="C134" s="36"/>
-      <c r="D134" s="37"/>
-      <c r="E134" s="37"/>
-      <c r="F134" s="37"/>
-      <c r="G134" s="37"/>
-      <c r="H134" s="37"/>
-      <c r="I134" s="37"/>
-      <c r="J134" s="56"/>
-      <c r="K134" s="47"/>
-      <c r="L134" s="57"/>
-      <c r="M134" s="58"/>
-      <c r="N134" s="57"/>
-      <c r="O134" s="47"/>
-    </row>
-    <row r="135" ht="23" customHeight="1" spans="1:15">
-      <c r="A135" s="30"/>
-      <c r="B135" s="35"/>
-      <c r="C135" s="36"/>
-      <c r="D135" s="37"/>
-      <c r="E135" s="37"/>
-      <c r="F135" s="37"/>
-      <c r="G135" s="37"/>
-      <c r="H135" s="37"/>
-      <c r="I135" s="37"/>
-      <c r="J135" s="56"/>
-      <c r="K135" s="47"/>
-      <c r="L135" s="57"/>
-      <c r="M135" s="58"/>
-      <c r="N135" s="57"/>
-      <c r="O135" s="47"/>
-    </row>
-    <row r="136" ht="23" customHeight="1" spans="1:15">
-      <c r="A136" s="30"/>
-      <c r="B136" s="35"/>
-      <c r="C136" s="36"/>
-      <c r="D136" s="37"/>
-      <c r="E136" s="37"/>
-      <c r="F136" s="37"/>
-      <c r="G136" s="37"/>
-      <c r="H136" s="37"/>
-      <c r="I136" s="37"/>
-      <c r="J136" s="56"/>
-      <c r="K136" s="47"/>
-      <c r="L136" s="57"/>
-      <c r="M136" s="58"/>
-      <c r="N136" s="57"/>
-      <c r="O136" s="47"/>
-    </row>
-    <row r="137" ht="23" customHeight="1" spans="1:15">
-      <c r="A137" s="30"/>
-      <c r="B137" s="35"/>
-      <c r="C137" s="36"/>
-      <c r="D137" s="37"/>
-      <c r="E137" s="37"/>
-      <c r="F137" s="37"/>
-      <c r="G137" s="37"/>
-      <c r="H137" s="37"/>
-      <c r="I137" s="37"/>
-      <c r="J137" s="56"/>
-      <c r="K137" s="47"/>
-      <c r="L137" s="57"/>
-      <c r="M137" s="58"/>
-      <c r="N137" s="57"/>
-      <c r="O137" s="47"/>
-    </row>
-    <row r="138" ht="23" customHeight="1" spans="1:15">
-      <c r="A138" s="30"/>
-      <c r="B138" s="35"/>
-      <c r="C138" s="36"/>
-      <c r="D138" s="37"/>
-      <c r="E138" s="37"/>
-      <c r="F138" s="37"/>
-      <c r="G138" s="37"/>
-      <c r="H138" s="37"/>
-      <c r="I138" s="37"/>
-      <c r="J138" s="56"/>
-      <c r="K138" s="47"/>
-      <c r="L138" s="57"/>
-      <c r="M138" s="58"/>
-      <c r="N138" s="57"/>
-      <c r="O138" s="47"/>
-    </row>
-    <row r="139" ht="23" customHeight="1" spans="1:15">
-      <c r="A139" s="30"/>
-      <c r="B139" s="35"/>
-      <c r="C139" s="36"/>
-      <c r="D139" s="37"/>
-      <c r="E139" s="37"/>
-      <c r="F139" s="37"/>
-      <c r="G139" s="37"/>
-      <c r="H139" s="37"/>
-      <c r="I139" s="37"/>
-      <c r="J139" s="56"/>
-      <c r="K139" s="47"/>
-      <c r="L139" s="57"/>
-      <c r="M139" s="58"/>
-      <c r="N139" s="57"/>
-      <c r="O139" s="47"/>
-    </row>
-    <row r="140" ht="23" customHeight="1" spans="1:15">
-      <c r="A140" s="30"/>
-      <c r="B140" s="35"/>
-      <c r="C140" s="36"/>
-      <c r="D140" s="37"/>
-      <c r="E140" s="37"/>
-      <c r="F140" s="37"/>
-      <c r="G140" s="37"/>
-      <c r="H140" s="37"/>
-      <c r="I140" s="37"/>
-      <c r="J140" s="56"/>
-      <c r="K140" s="47"/>
-      <c r="L140" s="57"/>
-      <c r="M140" s="58"/>
-      <c r="N140" s="57"/>
-      <c r="O140" s="47"/>
-    </row>
-    <row r="141" ht="23" customHeight="1" spans="1:15">
-      <c r="A141" s="30"/>
-      <c r="B141" s="35"/>
-      <c r="C141" s="36"/>
-      <c r="D141" s="37"/>
-      <c r="E141" s="37"/>
-      <c r="F141" s="37"/>
-      <c r="G141" s="37"/>
-      <c r="H141" s="37"/>
-      <c r="I141" s="37"/>
-      <c r="J141" s="56"/>
-      <c r="K141" s="47"/>
-      <c r="L141" s="57"/>
-      <c r="M141" s="58"/>
-      <c r="N141" s="57"/>
-      <c r="O141" s="47"/>
-    </row>
-    <row r="142" ht="23" customHeight="1" spans="1:15">
-      <c r="A142" s="30"/>
-      <c r="B142" s="35"/>
-      <c r="C142" s="36"/>
-      <c r="D142" s="37"/>
-      <c r="E142" s="37"/>
-      <c r="F142" s="37"/>
-      <c r="G142" s="37"/>
-      <c r="H142" s="37"/>
-      <c r="I142" s="37"/>
-      <c r="J142" s="56"/>
-      <c r="K142" s="47"/>
-      <c r="L142" s="57"/>
-      <c r="M142" s="58"/>
-      <c r="N142" s="57"/>
-      <c r="O142" s="47"/>
-    </row>
-    <row r="143" ht="23" customHeight="1" spans="1:15">
-      <c r="A143" s="30"/>
-      <c r="B143" s="35"/>
-      <c r="C143" s="36"/>
-      <c r="D143" s="37"/>
-      <c r="E143" s="37"/>
-      <c r="F143" s="37"/>
-      <c r="G143" s="37"/>
-      <c r="H143" s="37"/>
-      <c r="I143" s="37"/>
-      <c r="J143" s="56"/>
-      <c r="K143" s="47"/>
-      <c r="L143" s="57"/>
-      <c r="M143" s="58"/>
-      <c r="N143" s="57"/>
-      <c r="O143" s="47"/>
-    </row>
-    <row r="144" ht="23" customHeight="1" spans="1:15">
-      <c r="A144" s="30"/>
-      <c r="B144" s="35"/>
-      <c r="C144" s="36"/>
-      <c r="D144" s="37"/>
-      <c r="E144" s="37"/>
-      <c r="F144" s="37"/>
-      <c r="G144" s="37"/>
-      <c r="H144" s="37"/>
-      <c r="I144" s="37"/>
-      <c r="J144" s="56"/>
-      <c r="K144" s="47"/>
-      <c r="L144" s="57"/>
-      <c r="M144" s="58"/>
-      <c r="N144" s="57"/>
-      <c r="O144" s="47"/>
-    </row>
-    <row r="145" ht="23" customHeight="1" spans="1:15">
-      <c r="A145" s="30"/>
-      <c r="B145" s="35"/>
-      <c r="C145" s="36"/>
-      <c r="D145" s="37"/>
-      <c r="E145" s="37"/>
-      <c r="F145" s="37"/>
-      <c r="G145" s="37"/>
-      <c r="H145" s="37"/>
-      <c r="I145" s="37"/>
-      <c r="J145" s="56"/>
-      <c r="K145" s="47"/>
-      <c r="L145" s="57"/>
-      <c r="M145" s="58"/>
-      <c r="N145" s="57"/>
-      <c r="O145" s="47"/>
-    </row>
-    <row r="146" ht="23" customHeight="1" spans="1:15">
-      <c r="A146" s="30"/>
-      <c r="B146" s="35"/>
-      <c r="C146" s="36"/>
-      <c r="D146" s="37"/>
-      <c r="E146" s="37"/>
-      <c r="F146" s="37"/>
-      <c r="G146" s="37"/>
-      <c r="H146" s="37"/>
-      <c r="I146" s="37"/>
-      <c r="J146" s="56"/>
-      <c r="K146" s="47"/>
-      <c r="L146" s="57"/>
-      <c r="M146" s="58"/>
-      <c r="N146" s="57"/>
-      <c r="O146" s="47"/>
-    </row>
-    <row r="147" ht="23" customHeight="1" spans="1:15">
-      <c r="A147" s="30"/>
-      <c r="B147" s="35"/>
-      <c r="C147" s="36"/>
-      <c r="D147" s="37"/>
-      <c r="E147" s="37"/>
-      <c r="F147" s="37"/>
-      <c r="G147" s="37"/>
-      <c r="H147" s="37"/>
-      <c r="I147" s="37"/>
-      <c r="J147" s="56"/>
-      <c r="K147" s="47"/>
-      <c r="L147" s="57"/>
-      <c r="M147" s="58"/>
-      <c r="N147" s="57"/>
-      <c r="O147" s="47"/>
-    </row>
-    <row r="148" ht="23" customHeight="1" spans="1:15">
-      <c r="A148" s="30"/>
-      <c r="B148" s="35"/>
-      <c r="C148" s="36"/>
-      <c r="D148" s="37"/>
-      <c r="E148" s="37"/>
-      <c r="F148" s="37"/>
-      <c r="G148" s="37"/>
-      <c r="H148" s="37"/>
-      <c r="I148" s="37"/>
-      <c r="J148" s="56"/>
-      <c r="K148" s="47"/>
-      <c r="L148" s="57"/>
-      <c r="M148" s="58"/>
-      <c r="N148" s="57"/>
-      <c r="O148" s="47"/>
-    </row>
-    <row r="149" ht="23" customHeight="1" spans="1:15">
-      <c r="A149" s="30"/>
-      <c r="B149" s="35"/>
-      <c r="C149" s="36"/>
-      <c r="D149" s="37"/>
-      <c r="E149" s="37"/>
-      <c r="F149" s="37"/>
-      <c r="G149" s="37"/>
-      <c r="H149" s="37"/>
-      <c r="I149" s="37"/>
-      <c r="J149" s="56"/>
-      <c r="K149" s="47"/>
-      <c r="L149" s="57"/>
-      <c r="M149" s="58"/>
-      <c r="N149" s="57"/>
-      <c r="O149" s="47"/>
-    </row>
-    <row r="150" ht="23" customHeight="1" spans="1:15">
-      <c r="A150" s="30"/>
-      <c r="B150" s="35"/>
-      <c r="C150" s="36"/>
-      <c r="D150" s="37"/>
-      <c r="E150" s="37"/>
-      <c r="F150" s="37"/>
-      <c r="G150" s="37"/>
-      <c r="H150" s="37"/>
-      <c r="I150" s="37"/>
-      <c r="J150" s="56"/>
-      <c r="K150" s="47"/>
-      <c r="L150" s="57"/>
-      <c r="M150" s="58"/>
-      <c r="N150" s="57"/>
-      <c r="O150" s="47"/>
-    </row>
-    <row r="151" ht="23" customHeight="1" spans="1:15">
-      <c r="A151" s="30"/>
-      <c r="B151" s="35"/>
-      <c r="C151" s="36"/>
-      <c r="D151" s="37"/>
-      <c r="E151" s="37"/>
-      <c r="F151" s="37"/>
-      <c r="G151" s="37"/>
-      <c r="H151" s="37"/>
-      <c r="I151" s="37"/>
-      <c r="J151" s="56"/>
-      <c r="K151" s="47"/>
-      <c r="L151" s="57"/>
-      <c r="M151" s="58"/>
-      <c r="N151" s="57"/>
-      <c r="O151" s="47"/>
-    </row>
-    <row r="152" ht="23" customHeight="1" spans="1:15">
-      <c r="A152" s="30"/>
-      <c r="B152" s="35"/>
-      <c r="C152" s="36"/>
-      <c r="D152" s="37"/>
-      <c r="E152" s="37"/>
-      <c r="F152" s="37"/>
-      <c r="G152" s="37"/>
-      <c r="H152" s="37"/>
-      <c r="I152" s="37"/>
-      <c r="J152" s="56"/>
-      <c r="K152" s="47"/>
-      <c r="L152" s="57"/>
-      <c r="M152" s="58"/>
-      <c r="N152" s="57"/>
-      <c r="O152" s="47"/>
-    </row>
-    <row r="153" ht="23" customHeight="1" spans="1:15">
-      <c r="A153" s="30"/>
-      <c r="B153" s="35"/>
-      <c r="C153" s="36"/>
-      <c r="D153" s="37"/>
-      <c r="E153" s="37"/>
-      <c r="F153" s="37"/>
-      <c r="G153" s="37"/>
-      <c r="H153" s="37"/>
-      <c r="I153" s="37"/>
-      <c r="J153" s="56"/>
-      <c r="K153" s="47"/>
-      <c r="L153" s="57"/>
-      <c r="M153" s="58"/>
-      <c r="N153" s="57"/>
-      <c r="O153" s="47"/>
-    </row>
   </sheetData>
   <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
   <mergeCells count="4">
@@ -22057,17 +20059,6 @@
       <formula>LEFT(N106,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N133:N153">
-    <cfRule type="beginsWith" dxfId="2" priority="385" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N133,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="386" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N133,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="387" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N133,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="N22:N24 N55:N57 N26">
     <cfRule type="beginsWith" dxfId="2" priority="223" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N22,LEN("WARN"))="WARN"</formula>
@@ -22146,10 +20137,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C27 C28 C29 C30 C33 C34 C35 C36 C37 C38 C39 C40 C41 C42 C43 C46 C47 C48 C50 C51 C52 C53 C54 C55 C56 C57 C58 C59 C60 C61 C62 C63 C64 C65 C66 C67 C68 C69 C70 C71 C72 C73 C74 C75 C76 C77 C78 C79 C80 C81 C82 C83 C84 C85 C86 C87 C88 C89 C90 C91 C92 C93 C94 C95 C96 C97 C98 C99 C100 C101 C102 C103 C104 C105 C106 C107 C108 C109 C110 C111 C112 C113 C114 C115 C116 C117 C118 C119 C120 C121 C122 C123 C124 C125 C126 C127 C128 C129 C130 C131 C132 C11:C12 C31:C32 C44:C45 C133:C153">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C27 C28 C29 C30 C33 C34 C35 C36 C37 C38 C39 C40 C41 C42 C43 C46 C47 C48 C50 C51 C52 C53 C54 C55 C56 C57 C58 C59 C60 C61 C62 C63 C64 C65 C66 C67 C68 C69 C70 C71 C72 C73 C74 C75 C76 C77 C78 C79 C80 C81 C82 C83 C84 C85 C86 C87 C88 C89 C90 C91 C92 C93 C94 C95 C96 C97 C98 C99 C100 C101 C102 C103 C104 C105 C106 C107 C108 C109 C110 C111 C112 C113 C114 C115 C116 C117 C118 C119 C120 C121 C122 C123 C124 C125 C126 C127 C128 C129 C130 C131 C132 C11:C12 C31:C32 C44:C45">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D8 D9 D10 D15 D22 D27 D28 D29 D30 D35 D36 D37 D38 D39 D40 D41 D42 D43 D46 D47 D48 D50 D51 D52 D53 D55 D56 D57 D58 D59 D60 D61 D62 D63 D64 D65 D66 D67 D68 D69 D70 D71 D72 D73 D74 D75 D76 D77 D78 D79 D80 D81 D82 D83 D84 D85 D86 D87 D88 D89 D90 D91 D92 D93 D94 D95 D96 D97 D98 D99 D100 D101 D102 D103 D104 D105 D106 D107 D108 D109 D110 D111 D112 D113 D114 D115 D116 D117 D118 D119 D120 D121 D122 D123 D124 D125 D126 D127 D128 D129 D130 D131 D132 D11:D12 D23:D26 D31:D32 D33:D34 D44:D45 D133:D153">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D8 D9 D10 D15 D22 D27 D28 D29 D30 D35 D36 D37 D38 D39 D40 D41 D42 D43 D46 D47 D48 D50 D51 D52 D53 D55 D56 D57 D58 D59 D60 D61 D62 D63 D64 D65 D66 D67 D68 D69 D70 D71 D72 D73 D74 D75 D76 D77 D78 D79 D80 D81 D82 D83 D84 D85 D86 D87 D88 D89 D90 D91 D92 D93 D94 D95 D96 D97 D98 D99 D100 D101 D102 D103 D104 D105 D106 D107 D108 D109 D110 D111 D112 D113 D114 D115 D116 D117 D118 D119 D120 D121 D122 D123 D124 D125 D126 D127 D128 D129 D130 D131 D132 D11:D12 D23:D26 D31:D32 D33:D34 D44:D45">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
@@ -22161,12 +20152,12 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O164"/>
+  <dimension ref="A1:O157"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B49" sqref="B49"/>
+      <selection pane="bottomLeft" activeCell="E179" sqref="E179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -26324,125 +24315,6 @@
       <c r="N157" s="57"/>
       <c r="O157" s="47"/>
     </row>
-    <row r="158" ht="23" customHeight="1" spans="1:15">
-      <c r="A158" s="30"/>
-      <c r="B158" s="35"/>
-      <c r="C158" s="36"/>
-      <c r="D158" s="37"/>
-      <c r="E158" s="37"/>
-      <c r="F158" s="37"/>
-      <c r="G158" s="37"/>
-      <c r="H158" s="37"/>
-      <c r="I158" s="37"/>
-      <c r="J158" s="56"/>
-      <c r="K158" s="47"/>
-      <c r="L158" s="57"/>
-      <c r="M158" s="58"/>
-      <c r="N158" s="57"/>
-      <c r="O158" s="47"/>
-    </row>
-    <row r="159" ht="23" customHeight="1" spans="1:15">
-      <c r="A159" s="30"/>
-      <c r="B159" s="35"/>
-      <c r="C159" s="36"/>
-      <c r="D159" s="37"/>
-      <c r="E159" s="37"/>
-      <c r="F159" s="37"/>
-      <c r="G159" s="37"/>
-      <c r="H159" s="37"/>
-      <c r="I159" s="37"/>
-      <c r="J159" s="56"/>
-      <c r="K159" s="47"/>
-      <c r="L159" s="57"/>
-      <c r="M159" s="58"/>
-      <c r="N159" s="57"/>
-      <c r="O159" s="47"/>
-    </row>
-    <row r="160" ht="23" customHeight="1" spans="1:15">
-      <c r="A160" s="30"/>
-      <c r="B160" s="35"/>
-      <c r="C160" s="36"/>
-      <c r="D160" s="37"/>
-      <c r="E160" s="37"/>
-      <c r="F160" s="37"/>
-      <c r="G160" s="37"/>
-      <c r="H160" s="37"/>
-      <c r="I160" s="37"/>
-      <c r="J160" s="56"/>
-      <c r="K160" s="47"/>
-      <c r="L160" s="57"/>
-      <c r="M160" s="58"/>
-      <c r="N160" s="57"/>
-      <c r="O160" s="47"/>
-    </row>
-    <row r="161" ht="23" customHeight="1" spans="1:15">
-      <c r="A161" s="30"/>
-      <c r="B161" s="35"/>
-      <c r="C161" s="36"/>
-      <c r="D161" s="37"/>
-      <c r="E161" s="37"/>
-      <c r="F161" s="37"/>
-      <c r="G161" s="37"/>
-      <c r="H161" s="37"/>
-      <c r="I161" s="37"/>
-      <c r="J161" s="56"/>
-      <c r="K161" s="47"/>
-      <c r="L161" s="57"/>
-      <c r="M161" s="58"/>
-      <c r="N161" s="57"/>
-      <c r="O161" s="47"/>
-    </row>
-    <row r="162" ht="23" customHeight="1" spans="1:15">
-      <c r="A162" s="30"/>
-      <c r="B162" s="35"/>
-      <c r="C162" s="36"/>
-      <c r="D162" s="37"/>
-      <c r="E162" s="37"/>
-      <c r="F162" s="37"/>
-      <c r="G162" s="37"/>
-      <c r="H162" s="37"/>
-      <c r="I162" s="37"/>
-      <c r="J162" s="56"/>
-      <c r="K162" s="47"/>
-      <c r="L162" s="57"/>
-      <c r="M162" s="58"/>
-      <c r="N162" s="57"/>
-      <c r="O162" s="47"/>
-    </row>
-    <row r="163" ht="23" customHeight="1" spans="1:15">
-      <c r="A163" s="30"/>
-      <c r="B163" s="35"/>
-      <c r="C163" s="36"/>
-      <c r="D163" s="37"/>
-      <c r="E163" s="37"/>
-      <c r="F163" s="37"/>
-      <c r="G163" s="37"/>
-      <c r="H163" s="37"/>
-      <c r="I163" s="37"/>
-      <c r="J163" s="56"/>
-      <c r="K163" s="47"/>
-      <c r="L163" s="57"/>
-      <c r="M163" s="58"/>
-      <c r="N163" s="57"/>
-      <c r="O163" s="47"/>
-    </row>
-    <row r="164" ht="23" customHeight="1" spans="1:15">
-      <c r="A164" s="30"/>
-      <c r="B164" s="35"/>
-      <c r="C164" s="36"/>
-      <c r="D164" s="37"/>
-      <c r="E164" s="37"/>
-      <c r="F164" s="37"/>
-      <c r="G164" s="37"/>
-      <c r="H164" s="37"/>
-      <c r="I164" s="37"/>
-      <c r="J164" s="56"/>
-      <c r="K164" s="47"/>
-      <c r="L164" s="57"/>
-      <c r="M164" s="58"/>
-      <c r="N164" s="57"/>
-      <c r="O164" s="47"/>
-    </row>
   </sheetData>
   <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
   <mergeCells count="4">
@@ -27177,7 +25049,7 @@
       <formula>LEFT(N156,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N8:N11 N158:N164 N15:N16">
+  <conditionalFormatting sqref="N8:N11 N15:N16">
     <cfRule type="beginsWith" dxfId="2" priority="298" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N8,LEN("WARN"))="WARN"</formula>
     </cfRule>
@@ -27277,10 +25149,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C10 C11 C12 C13 C14 C17 C18 C19 C20 C21 C22 C23 C24 C25 C26 C27 C28 C29 C30 C31 C32 C51 C52 C55 C56 C57 C58 C59 C60 C61 C62 C63 C64 C65 C66 C67 C68 C71 C72 C73 C75 C76 C77 C78 C79 C80 C81 C82 C83 C84 C85 C86 C87 C88 C89 C90 C91 C92 C93 C94 C95 C96 C97 C98 C99 C100 C101 C102 C103 C104 C105 C106 C107 C108 C109 C110 C111 C112 C113 C114 C115 C116 C117 C118 C119 C120 C121 C122 C123 C124 C125 C126 C127 C128 C129 C130 C131 C132 C133 C134 C135 C136 C137 C138 C139 C140 C141 C142 C143 C144 C145 C146 C147 C148 C149 C150 C151 C152 C153 C154 C155 C156 C157 C8:C9 C15:C16 C33:C34 C53:C54 C69:C70 C158:C164">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C10 C11 C12 C13 C14 C17 C18 C19 C20 C21 C22 C23 C24 C25 C26 C27 C28 C29 C30 C31 C32 C51 C52 C55 C56 C57 C58 C59 C60 C61 C62 C63 C64 C65 C66 C67 C68 C71 C72 C73 C75 C76 C77 C78 C79 C80 C81 C82 C83 C84 C85 C86 C87 C88 C89 C90 C91 C92 C93 C94 C95 C96 C97 C98 C99 C100 C101 C102 C103 C104 C105 C106 C107 C108 C109 C110 C111 C112 C113 C114 C115 C116 C117 C118 C119 C120 C121 C122 C123 C124 C125 C126 C127 C128 C129 C130 C131 C132 C133 C134 C135 C136 C137 C138 C139 C140 C141 C142 C143 C144 C145 C146 C147 C148 C149 C150 C151 C152 C153 C154 C155 C156 C157 C8:C9 C15:C16 C33:C34 C53:C54 C69:C70">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D20 D21 D22 D23 D24 D25 D26 D27 D28 D29 D30 D31 D32 D37 D44 D48 D49 D50 D51 D52 D53 D54 D55 D56 D57 D58 D59 D60 D61 D62 D63 D64 D65 D66 D67 D68 D71 D72 D73 D75 D76 D77 D78 D80 D81 D82 D83 D84 D85 D86 D87 D88 D89 D90 D91 D92 D93 D94 D95 D96 D97 D98 D99 D100 D101 D102 D103 D104 D105 D106 D107 D108 D109 D110 D111 D112 D113 D114 D115 D116 D117 D118 D119 D120 D121 D122 D123 D124 D125 D126 D127 D128 D129 D130 D131 D132 D133 D134 D135 D136 D137 D138 D139 D140 D141 D142 D143 D144 D145 D146 D147 D148 D149 D150 D151 D152 D153 D154 D155 D156 D157 D8:D9 D33:D34 D45:D47 D69:D70 D158:D164">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D20 D21 D22 D23 D24 D25 D26 D27 D28 D29 D30 D31 D32 D37 D44 D48 D49 D50 D51 D52 D53 D54 D55 D56 D57 D58 D59 D60 D61 D62 D63 D64 D65 D66 D67 D68 D71 D72 D73 D75 D76 D77 D78 D80 D81 D82 D83 D84 D85 D86 D87 D88 D89 D90 D91 D92 D93 D94 D95 D96 D97 D98 D99 D100 D101 D102 D103 D104 D105 D106 D107 D108 D109 D110 D111 D112 D113 D114 D115 D116 D117 D118 D119 D120 D121 D122 D123 D124 D125 D126 D127 D128 D129 D130 D131 D132 D133 D134 D135 D136 D137 D138 D139 D140 D141 D142 D143 D144 D145 D146 D147 D148 D149 D150 D151 D152 D153 D154 D155 D156 D157 D8:D9 D33:D34 D45:D47 D69:D70">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
